--- a/12-21-entities-DeepSeek-chat.xlsx
+++ b/12-21-entities-DeepSeek-chat.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowWidth="20752" windowHeight="9555"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -14719,19 +14719,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:U272"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:U271"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H273" sqref="H273"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="51.625" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="51.6283185840708" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="16384" width="51.625" customWidth="1"/>
+    <col min="1" max="16384" width="51.6283185840708" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" spans="1:21">
+    <row r="1" ht="18" spans="1:21">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -14796,7 +14796,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" ht="18.75" spans="1:21">
+    <row r="2" ht="18" hidden="1" spans="1:21">
       <c r="A2" s="3" t="s">
         <v>21</v>
       </c>
@@ -14861,7 +14861,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" ht="18.75" spans="1:21">
+    <row r="3" ht="18" hidden="1" spans="1:21">
       <c r="A3" s="3" t="s">
         <v>39</v>
       </c>
@@ -14926,7 +14926,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" ht="18.75" spans="1:21">
+    <row r="4" ht="18" hidden="1" spans="1:21">
       <c r="A4" s="3" t="s">
         <v>57</v>
       </c>
@@ -14991,7 +14991,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" ht="18.75" spans="1:21">
+    <row r="5" ht="18" hidden="1" spans="1:21">
       <c r="A5" s="3" t="s">
         <v>72</v>
       </c>
@@ -15056,7 +15056,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="6" ht="18.75" spans="1:21">
+    <row r="6" ht="18" hidden="1" spans="1:21">
       <c r="A6" s="3" t="s">
         <v>87</v>
       </c>
@@ -15121,7 +15121,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="7" ht="18.75" spans="1:21">
+    <row r="7" ht="18" hidden="1" spans="1:21">
       <c r="A7" s="3" t="s">
         <v>97</v>
       </c>
@@ -15186,7 +15186,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="8" ht="18.75" spans="1:21">
+    <row r="8" ht="18" hidden="1" spans="1:21">
       <c r="A8" s="3" t="s">
         <v>114</v>
       </c>
@@ -15251,7 +15251,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="9" ht="18.75" spans="1:21">
+    <row r="9" ht="18" hidden="1" spans="1:21">
       <c r="A9" s="3" t="s">
         <v>130</v>
       </c>
@@ -15316,7 +15316,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="10" ht="18.75" spans="1:21">
+    <row r="10" ht="18" hidden="1" spans="1:21">
       <c r="A10" s="3" t="s">
         <v>144</v>
       </c>
@@ -15381,7 +15381,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="11" ht="18.75" spans="1:21">
+    <row r="11" ht="18" hidden="1" spans="1:21">
       <c r="A11" s="3" t="s">
         <v>160</v>
       </c>
@@ -15446,7 +15446,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="12" ht="18.75" spans="1:21">
+    <row r="12" ht="18" hidden="1" spans="1:21">
       <c r="A12" s="3" t="s">
         <v>171</v>
       </c>
@@ -15511,7 +15511,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="13" ht="18.75" spans="1:21">
+    <row r="13" ht="18" hidden="1" spans="1:21">
       <c r="A13" s="3" t="s">
         <v>179</v>
       </c>
@@ -15576,7 +15576,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="14" ht="18.75" spans="1:21">
+    <row r="14" ht="18" hidden="1" spans="1:21">
       <c r="A14" s="3" t="s">
         <v>191</v>
       </c>
@@ -15641,7 +15641,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="15" ht="18.75" spans="1:21">
+    <row r="15" ht="18" hidden="1" spans="1:21">
       <c r="A15" s="3" t="s">
         <v>205</v>
       </c>
@@ -15706,7 +15706,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="16" ht="18.75" spans="1:21">
+    <row r="16" ht="18" hidden="1" spans="1:21">
       <c r="A16" s="3" t="s">
         <v>218</v>
       </c>
@@ -15771,7 +15771,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="17" ht="18.75" spans="1:21">
+    <row r="17" ht="18" hidden="1" spans="1:21">
       <c r="A17" s="3" t="s">
         <v>231</v>
       </c>
@@ -15836,7 +15836,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="18" ht="18.75" spans="1:21">
+    <row r="18" ht="18" hidden="1" spans="1:21">
       <c r="A18" s="3" t="s">
         <v>243</v>
       </c>
@@ -15901,7 +15901,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="19" ht="18.75" spans="1:21">
+    <row r="19" ht="18" hidden="1" spans="1:21">
       <c r="A19" s="3" t="s">
         <v>254</v>
       </c>
@@ -15966,7 +15966,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="20" ht="18.75" spans="1:21">
+    <row r="20" ht="18" hidden="1" spans="1:21">
       <c r="A20" s="3" t="s">
         <v>263</v>
       </c>
@@ -16031,7 +16031,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="21" ht="18.75" spans="1:21">
+    <row r="21" ht="18" hidden="1" spans="1:21">
       <c r="A21" s="3" t="s">
         <v>273</v>
       </c>
@@ -16096,7 +16096,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="22" ht="18.75" spans="1:21">
+    <row r="22" ht="18" hidden="1" spans="1:21">
       <c r="A22" s="3" t="s">
         <v>285</v>
       </c>
@@ -16161,7 +16161,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="23" ht="18.75" spans="1:21">
+    <row r="23" ht="18" hidden="1" spans="1:21">
       <c r="A23" s="3" t="s">
         <v>293</v>
       </c>
@@ -16226,7 +16226,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="24" ht="18.75" spans="1:21">
+    <row r="24" ht="18" hidden="1" spans="1:21">
       <c r="A24" s="3" t="s">
         <v>302</v>
       </c>
@@ -16291,7 +16291,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="25" ht="18.75" spans="1:21">
+    <row r="25" ht="18" hidden="1" spans="1:21">
       <c r="A25" s="3" t="s">
         <v>313</v>
       </c>
@@ -16356,7 +16356,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="26" ht="18.75" spans="1:21">
+    <row r="26" ht="18" hidden="1" spans="1:21">
       <c r="A26" s="3" t="s">
         <v>325</v>
       </c>
@@ -16421,7 +16421,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="27" ht="18.75" spans="1:21">
+    <row r="27" ht="18" hidden="1" spans="1:21">
       <c r="A27" s="3" t="s">
         <v>334</v>
       </c>
@@ -16486,7 +16486,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="28" ht="18.75" spans="1:21">
+    <row r="28" ht="18" hidden="1" spans="1:21">
       <c r="A28" s="3" t="s">
         <v>345</v>
       </c>
@@ -16551,7 +16551,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="29" ht="18.75" spans="1:21">
+    <row r="29" ht="18" hidden="1" spans="1:21">
       <c r="A29" s="3" t="s">
         <v>355</v>
       </c>
@@ -16616,7 +16616,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="30" ht="18.75" spans="1:21">
+    <row r="30" ht="18" hidden="1" spans="1:21">
       <c r="A30" s="3" t="s">
         <v>361</v>
       </c>
@@ -16681,7 +16681,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="31" ht="18.75" spans="1:21">
+    <row r="31" ht="18" hidden="1" spans="1:21">
       <c r="A31" s="3" t="s">
         <v>370</v>
       </c>
@@ -16746,7 +16746,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="32" ht="18.75" spans="1:21">
+    <row r="32" ht="18" hidden="1" spans="1:21">
       <c r="A32" s="3" t="s">
         <v>379</v>
       </c>
@@ -16811,7 +16811,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="33" ht="18.75" spans="1:21">
+    <row r="33" ht="18" hidden="1" spans="1:21">
       <c r="A33" s="3" t="s">
         <v>389</v>
       </c>
@@ -16876,7 +16876,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="34" ht="18.75" spans="1:21">
+    <row r="34" ht="18" hidden="1" spans="1:21">
       <c r="A34" s="3" t="s">
         <v>396</v>
       </c>
@@ -16941,7 +16941,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="35" ht="18.75" spans="1:21">
+    <row r="35" ht="18" hidden="1" spans="1:21">
       <c r="A35" s="3" t="s">
         <v>406</v>
       </c>
@@ -17006,7 +17006,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="36" ht="18.75" spans="1:21">
+    <row r="36" ht="18" hidden="1" spans="1:21">
       <c r="A36" s="3" t="s">
         <v>416</v>
       </c>
@@ -17071,7 +17071,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="37" ht="18.75" spans="1:21">
+    <row r="37" ht="18" hidden="1" spans="1:21">
       <c r="A37" s="3" t="s">
         <v>423</v>
       </c>
@@ -17136,7 +17136,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="38" ht="18.75" spans="1:21">
+    <row r="38" ht="18" hidden="1" spans="1:21">
       <c r="A38" s="3" t="s">
         <v>431</v>
       </c>
@@ -17201,7 +17201,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="39" ht="18.75" spans="1:21">
+    <row r="39" ht="18" hidden="1" spans="1:21">
       <c r="A39" s="3" t="s">
         <v>440</v>
       </c>
@@ -17266,7 +17266,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="40" ht="18.75" spans="1:21">
+    <row r="40" ht="18" hidden="1" spans="1:21">
       <c r="A40" s="3" t="s">
         <v>450</v>
       </c>
@@ -17331,7 +17331,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="41" ht="18.75" spans="1:21">
+    <row r="41" ht="18" hidden="1" spans="1:21">
       <c r="A41" s="3" t="s">
         <v>459</v>
       </c>
@@ -17396,7 +17396,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="42" ht="18.75" spans="1:21">
+    <row r="42" ht="18" hidden="1" spans="1:21">
       <c r="A42" s="3" t="s">
         <v>470</v>
       </c>
@@ -17461,7 +17461,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="43" ht="18.75" spans="1:21">
+    <row r="43" ht="18" hidden="1" spans="1:21">
       <c r="A43" s="3" t="s">
         <v>479</v>
       </c>
@@ -17526,7 +17526,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="44" ht="18.75" spans="1:21">
+    <row r="44" ht="18" hidden="1" spans="1:21">
       <c r="A44" s="3" t="s">
         <v>488</v>
       </c>
@@ -17591,7 +17591,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="45" ht="18.75" spans="1:21">
+    <row r="45" ht="18" hidden="1" spans="1:21">
       <c r="A45" s="3" t="s">
         <v>497</v>
       </c>
@@ -17656,7 +17656,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="46" ht="18.75" spans="1:21">
+    <row r="46" ht="18" hidden="1" spans="1:21">
       <c r="A46" s="3" t="s">
         <v>507</v>
       </c>
@@ -17721,7 +17721,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="47" ht="18.75" spans="1:21">
+    <row r="47" ht="18" hidden="1" spans="1:21">
       <c r="A47" s="3" t="s">
         <v>522</v>
       </c>
@@ -17786,7 +17786,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="48" ht="18.75" spans="1:21">
+    <row r="48" ht="18" hidden="1" spans="1:21">
       <c r="A48" s="3" t="s">
         <v>536</v>
       </c>
@@ -17851,7 +17851,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="49" ht="18.75" spans="1:21">
+    <row r="49" ht="18" hidden="1" spans="1:21">
       <c r="A49" s="3" t="s">
         <v>549</v>
       </c>
@@ -17916,7 +17916,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="50" ht="18.75" spans="1:21">
+    <row r="50" ht="18" hidden="1" spans="1:21">
       <c r="A50" s="3" t="s">
         <v>562</v>
       </c>
@@ -17981,7 +17981,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="51" ht="18.75" spans="1:21">
+    <row r="51" ht="18" hidden="1" spans="1:21">
       <c r="A51" s="3" t="s">
         <v>573</v>
       </c>
@@ -18046,7 +18046,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="52" ht="18.75" spans="1:21">
+    <row r="52" ht="18" hidden="1" spans="1:21">
       <c r="A52" s="3" t="s">
         <v>583</v>
       </c>
@@ -18111,7 +18111,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="53" ht="18.75" spans="1:21">
+    <row r="53" ht="18" hidden="1" spans="1:21">
       <c r="A53" s="3" t="s">
         <v>592</v>
       </c>
@@ -18176,7 +18176,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="54" ht="18.75" spans="1:21">
+    <row r="54" ht="18" hidden="1" spans="1:21">
       <c r="A54" s="3" t="s">
         <v>602</v>
       </c>
@@ -18241,7 +18241,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="55" ht="18.75" spans="1:21">
+    <row r="55" ht="18" hidden="1" spans="1:21">
       <c r="A55" s="3" t="s">
         <v>613</v>
       </c>
@@ -18306,7 +18306,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="56" ht="18.75" spans="1:21">
+    <row r="56" ht="18" hidden="1" spans="1:21">
       <c r="A56" s="3" t="s">
         <v>624</v>
       </c>
@@ -18371,7 +18371,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="57" ht="18.75" spans="1:21">
+    <row r="57" ht="18" hidden="1" spans="1:21">
       <c r="A57" s="3" t="s">
         <v>634</v>
       </c>
@@ -18436,7 +18436,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="58" ht="18.75" spans="1:21">
+    <row r="58" ht="18" hidden="1" spans="1:21">
       <c r="A58" s="3" t="s">
         <v>645</v>
       </c>
@@ -18501,7 +18501,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="59" ht="18.75" spans="1:21">
+    <row r="59" ht="18" hidden="1" spans="1:21">
       <c r="A59" s="3" t="s">
         <v>655</v>
       </c>
@@ -18566,7 +18566,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="60" ht="18.75" spans="1:21">
+    <row r="60" ht="18" hidden="1" spans="1:21">
       <c r="A60" s="3" t="s">
         <v>666</v>
       </c>
@@ -18631,7 +18631,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="61" ht="18.75" spans="1:21">
+    <row r="61" ht="18" hidden="1" spans="1:21">
       <c r="A61" s="3" t="s">
         <v>676</v>
       </c>
@@ -18696,7 +18696,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="62" ht="18.75" spans="1:21">
+    <row r="62" ht="18" hidden="1" spans="1:21">
       <c r="A62" s="3" t="s">
         <v>684</v>
       </c>
@@ -18761,7 +18761,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="63" ht="18.75" spans="1:21">
+    <row r="63" ht="18" hidden="1" spans="1:21">
       <c r="A63" s="3" t="s">
         <v>693</v>
       </c>
@@ -18826,7 +18826,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="64" ht="18.75" spans="1:21">
+    <row r="64" ht="18" hidden="1" spans="1:21">
       <c r="A64" s="3" t="s">
         <v>693</v>
       </c>
@@ -18891,7 +18891,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="65" ht="18.75" spans="1:21">
+    <row r="65" ht="18" hidden="1" spans="1:21">
       <c r="A65" s="3" t="s">
         <v>709</v>
       </c>
@@ -18956,7 +18956,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="66" ht="18.75" spans="1:21">
+    <row r="66" ht="18" hidden="1" spans="1:21">
       <c r="A66" s="3" t="s">
         <v>720</v>
       </c>
@@ -19021,7 +19021,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="67" ht="18.75" spans="1:21">
+    <row r="67" ht="18" hidden="1" spans="1:21">
       <c r="A67" s="3" t="s">
         <v>727</v>
       </c>
@@ -19086,7 +19086,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="68" ht="18.75" spans="1:21">
+    <row r="68" ht="18" hidden="1" spans="1:21">
       <c r="A68" s="3" t="s">
         <v>740</v>
       </c>
@@ -19151,7 +19151,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="69" ht="18.75" spans="1:21">
+    <row r="69" ht="18" hidden="1" spans="1:21">
       <c r="A69" s="3" t="s">
         <v>751</v>
       </c>
@@ -19216,7 +19216,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="70" ht="18.75" spans="1:21">
+    <row r="70" ht="18" hidden="1" spans="1:21">
       <c r="A70" s="3" t="s">
         <v>761</v>
       </c>
@@ -19281,7 +19281,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="71" ht="18.75" spans="1:21">
+    <row r="71" ht="18" hidden="1" spans="1:21">
       <c r="A71" s="3" t="s">
         <v>773</v>
       </c>
@@ -19346,7 +19346,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="72" ht="18.75" spans="1:21">
+    <row r="72" ht="18" hidden="1" spans="1:21">
       <c r="A72" s="3" t="s">
         <v>784</v>
       </c>
@@ -19411,7 +19411,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="73" ht="18.75" spans="1:21">
+    <row r="73" ht="18" hidden="1" spans="1:21">
       <c r="A73" s="3" t="s">
         <v>790</v>
       </c>
@@ -19476,7 +19476,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="74" ht="18.75" spans="1:21">
+    <row r="74" ht="18" hidden="1" spans="1:21">
       <c r="A74" s="3" t="s">
         <v>797</v>
       </c>
@@ -19541,7 +19541,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="75" ht="18.75" spans="1:21">
+    <row r="75" ht="18" hidden="1" spans="1:21">
       <c r="A75" s="3" t="s">
         <v>804</v>
       </c>
@@ -19606,7 +19606,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="76" ht="18.75" spans="1:21">
+    <row r="76" ht="18" hidden="1" spans="1:21">
       <c r="A76" s="3" t="s">
         <v>804</v>
       </c>
@@ -19671,7 +19671,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="77" ht="18.75" spans="1:21">
+    <row r="77" ht="18" hidden="1" spans="1:21">
       <c r="A77" s="3" t="s">
         <v>817</v>
       </c>
@@ -19736,7 +19736,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="78" ht="18.75" spans="1:21">
+    <row r="78" ht="18" hidden="1" spans="1:21">
       <c r="A78" s="3" t="s">
         <v>825</v>
       </c>
@@ -19801,7 +19801,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="79" ht="18.75" spans="1:21">
+    <row r="79" ht="18" hidden="1" spans="1:21">
       <c r="A79" s="3" t="s">
         <v>838</v>
       </c>
@@ -19866,7 +19866,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="80" ht="18.75" spans="1:21">
+    <row r="80" ht="18" hidden="1" spans="1:21">
       <c r="A80" s="3" t="s">
         <v>848</v>
       </c>
@@ -19931,7 +19931,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="81" ht="18.75" spans="1:21">
+    <row r="81" ht="18" hidden="1" spans="1:21">
       <c r="A81" s="3" t="s">
         <v>858</v>
       </c>
@@ -19996,7 +19996,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="82" ht="18.75" spans="1:21">
+    <row r="82" ht="18" hidden="1" spans="1:21">
       <c r="A82" s="3" t="s">
         <v>869</v>
       </c>
@@ -20061,7 +20061,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="83" ht="18.75" spans="1:21">
+    <row r="83" ht="18" hidden="1" spans="1:21">
       <c r="A83" s="3" t="s">
         <v>879</v>
       </c>
@@ -20126,7 +20126,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="84" ht="18.75" spans="1:21">
+    <row r="84" ht="18" hidden="1" spans="1:21">
       <c r="A84" s="3" t="s">
         <v>879</v>
       </c>
@@ -20191,7 +20191,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="85" ht="18.75" spans="1:21">
+    <row r="85" ht="18" hidden="1" spans="1:21">
       <c r="A85" s="3" t="s">
         <v>879</v>
       </c>
@@ -20256,7 +20256,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="86" ht="18.75" spans="1:21">
+    <row r="86" ht="18" hidden="1" spans="1:21">
       <c r="A86" s="3" t="s">
         <v>892</v>
       </c>
@@ -20321,7 +20321,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="87" ht="18.75" spans="1:21">
+    <row r="87" ht="18" hidden="1" spans="1:21">
       <c r="A87" s="3" t="s">
         <v>903</v>
       </c>
@@ -20386,7 +20386,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="88" ht="18.75" spans="1:21">
+    <row r="88" ht="18" hidden="1" spans="1:21">
       <c r="A88" s="3" t="s">
         <v>911</v>
       </c>
@@ -20451,7 +20451,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="89" ht="18.75" spans="1:21">
+    <row r="89" ht="18" hidden="1" spans="1:21">
       <c r="A89" s="3" t="s">
         <v>923</v>
       </c>
@@ -20516,7 +20516,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="90" ht="18.75" spans="1:21">
+    <row r="90" ht="18" hidden="1" spans="1:21">
       <c r="A90" s="3" t="s">
         <v>931</v>
       </c>
@@ -20581,7 +20581,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="91" ht="18.75" spans="1:21">
+    <row r="91" ht="18" hidden="1" spans="1:21">
       <c r="A91" s="3" t="s">
         <v>936</v>
       </c>
@@ -20646,7 +20646,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="92" ht="18.75" spans="1:21">
+    <row r="92" ht="18" hidden="1" spans="1:21">
       <c r="A92" s="3" t="s">
         <v>949</v>
       </c>
@@ -20711,7 +20711,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="93" ht="18.75" spans="1:21">
+    <row r="93" ht="18" hidden="1" spans="1:21">
       <c r="A93" s="3" t="s">
         <v>960</v>
       </c>
@@ -20776,7 +20776,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="94" ht="18.75" spans="1:21">
+    <row r="94" ht="18" hidden="1" spans="1:21">
       <c r="A94" s="3" t="s">
         <v>960</v>
       </c>
@@ -20841,7 +20841,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="95" ht="18.75" spans="1:21">
+    <row r="95" ht="18" hidden="1" spans="1:21">
       <c r="A95" s="3" t="s">
         <v>975</v>
       </c>
@@ -20906,7 +20906,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="96" ht="18.75" spans="1:21">
+    <row r="96" ht="18" hidden="1" spans="1:21">
       <c r="A96" s="3" t="s">
         <v>984</v>
       </c>
@@ -20971,7 +20971,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="97" ht="18.75" spans="1:21">
+    <row r="97" ht="18" hidden="1" spans="1:21">
       <c r="A97" s="3" t="s">
         <v>998</v>
       </c>
@@ -21036,7 +21036,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="98" ht="18.75" spans="1:21">
+    <row r="98" ht="18" hidden="1" spans="1:21">
       <c r="A98" s="3" t="s">
         <v>1010</v>
       </c>
@@ -21101,7 +21101,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="99" ht="18.75" spans="1:21">
+    <row r="99" ht="18" hidden="1" spans="1:21">
       <c r="A99" s="3" t="s">
         <v>1021</v>
       </c>
@@ -21166,7 +21166,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="100" ht="18.75" spans="1:21">
+    <row r="100" ht="18" hidden="1" spans="1:21">
       <c r="A100" s="3" t="s">
         <v>1032</v>
       </c>
@@ -21231,7 +21231,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="101" ht="18.75" spans="1:21">
+    <row r="101" ht="18" hidden="1" spans="1:21">
       <c r="A101" s="3" t="s">
         <v>1041</v>
       </c>
@@ -21296,7 +21296,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="102" ht="18.75" spans="1:21">
+    <row r="102" ht="18" hidden="1" spans="1:21">
       <c r="A102" s="3" t="s">
         <v>1052</v>
       </c>
@@ -21361,7 +21361,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="103" ht="18.75" spans="1:21">
+    <row r="103" ht="18" hidden="1" spans="1:21">
       <c r="A103" s="3" t="s">
         <v>1065</v>
       </c>
@@ -21426,7 +21426,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="104" ht="18.75" spans="1:21">
+    <row r="104" ht="18" hidden="1" spans="1:21">
       <c r="A104" s="3" t="s">
         <v>1076</v>
       </c>
@@ -21491,7 +21491,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="105" ht="18.75" spans="1:21">
+    <row r="105" ht="18" hidden="1" spans="1:21">
       <c r="A105" s="3" t="s">
         <v>1088</v>
       </c>
@@ -21556,7 +21556,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="106" ht="18.75" spans="1:21">
+    <row r="106" ht="18" hidden="1" spans="1:21">
       <c r="A106" s="3" t="s">
         <v>1100</v>
       </c>
@@ -21621,7 +21621,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="107" ht="18.75" spans="1:21">
+    <row r="107" ht="18" hidden="1" spans="1:21">
       <c r="A107" s="3" t="s">
         <v>1112</v>
       </c>
@@ -21686,7 +21686,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="108" ht="18.75" spans="1:21">
+    <row r="108" ht="18" hidden="1" spans="1:21">
       <c r="A108" s="3" t="s">
         <v>1122</v>
       </c>
@@ -21751,7 +21751,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="109" ht="18.75" spans="1:21">
+    <row r="109" ht="18" hidden="1" spans="1:21">
       <c r="A109" s="3" t="s">
         <v>1130</v>
       </c>
@@ -21816,7 +21816,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="110" ht="18.75" spans="1:21">
+    <row r="110" ht="18" spans="1:21">
       <c r="A110" s="3" t="s">
         <v>1144</v>
       </c>
@@ -21881,7 +21881,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="111" ht="18.75" spans="1:21">
+    <row r="111" ht="18" hidden="1" spans="1:21">
       <c r="A111" s="3" t="s">
         <v>1152</v>
       </c>
@@ -21946,7 +21946,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="112" ht="18.75" spans="1:21">
+    <row r="112" ht="18" hidden="1" spans="1:21">
       <c r="A112" s="3" t="s">
         <v>1164</v>
       </c>
@@ -22011,7 +22011,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="113" ht="18.75" spans="1:21">
+    <row r="113" ht="18" hidden="1" spans="1:21">
       <c r="A113" s="3" t="s">
         <v>1176</v>
       </c>
@@ -22076,7 +22076,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="114" ht="18.75" spans="1:21">
+    <row r="114" ht="18" hidden="1" spans="1:21">
       <c r="A114" s="9" t="s">
         <v>1186</v>
       </c>
@@ -22141,7 +22141,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="115" ht="18.75" spans="1:21">
+    <row r="115" ht="18" hidden="1" spans="1:21">
       <c r="A115" s="9" t="s">
         <v>1186</v>
       </c>
@@ -22206,7 +22206,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="116" ht="18.75" spans="1:21">
+    <row r="116" ht="18" hidden="1" spans="1:21">
       <c r="A116" s="3" t="s">
         <v>1197</v>
       </c>
@@ -22271,7 +22271,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="117" ht="18.75" spans="1:21">
+    <row r="117" ht="18" hidden="1" spans="1:21">
       <c r="A117" s="3" t="s">
         <v>1209</v>
       </c>
@@ -22336,7 +22336,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="118" ht="18.75" spans="1:21">
+    <row r="118" ht="18" hidden="1" spans="1:21">
       <c r="A118" s="3" t="s">
         <v>1219</v>
       </c>
@@ -22401,7 +22401,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="119" ht="18.75" spans="1:21">
+    <row r="119" ht="18" hidden="1" spans="1:21">
       <c r="A119" s="3" t="s">
         <v>1227</v>
       </c>
@@ -22466,7 +22466,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="120" ht="18.75" spans="1:21">
+    <row r="120" ht="18" hidden="1" spans="1:21">
       <c r="A120" s="3" t="s">
         <v>1238</v>
       </c>
@@ -22531,7 +22531,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="121" ht="18.75" spans="1:21">
+    <row r="121" ht="18" spans="1:21">
       <c r="A121" s="3" t="s">
         <v>1238</v>
       </c>
@@ -22596,7 +22596,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="122" ht="18.75" spans="1:21">
+    <row r="122" ht="18" hidden="1" spans="1:21">
       <c r="A122" s="3" t="s">
         <v>1255</v>
       </c>
@@ -22661,7 +22661,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="123" ht="18.75" spans="1:21">
+    <row r="123" ht="18" hidden="1" spans="1:21">
       <c r="A123" s="3" t="s">
         <v>1265</v>
       </c>
@@ -22726,7 +22726,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="124" ht="18.75" spans="1:21">
+    <row r="124" ht="18" hidden="1" spans="1:21">
       <c r="A124" s="3" t="s">
         <v>1265</v>
       </c>
@@ -22791,7 +22791,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="125" ht="18.75" spans="1:21">
+    <row r="125" ht="18" hidden="1" spans="1:21">
       <c r="A125" s="3" t="s">
         <v>1281</v>
       </c>
@@ -22856,7 +22856,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="126" ht="18.75" spans="1:21">
+    <row r="126" ht="18" spans="1:21">
       <c r="A126" s="3" t="s">
         <v>1290</v>
       </c>
@@ -22921,7 +22921,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="127" ht="18.75" spans="1:21">
+    <row r="127" ht="18" spans="1:21">
       <c r="A127" s="3" t="s">
         <v>1299</v>
       </c>
@@ -22986,7 +22986,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="128" ht="18.75" spans="1:21">
+    <row r="128" ht="18" hidden="1" spans="1:21">
       <c r="A128" s="3" t="s">
         <v>1309</v>
       </c>
@@ -23051,7 +23051,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="129" ht="18.75" spans="1:21">
+    <row r="129" ht="18" hidden="1" spans="1:21">
       <c r="A129" s="3" t="s">
         <v>1318</v>
       </c>
@@ -23116,7 +23116,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="130" ht="18.75" spans="1:21">
+    <row r="130" ht="18" hidden="1" spans="1:21">
       <c r="A130" s="3" t="s">
         <v>1326</v>
       </c>
@@ -23181,7 +23181,7 @@
         <v>1334</v>
       </c>
     </row>
-    <row r="131" ht="18.75" spans="1:21">
+    <row r="131" ht="18" hidden="1" spans="1:21">
       <c r="A131" s="3" t="s">
         <v>1335</v>
       </c>
@@ -23246,7 +23246,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="132" ht="18.75" spans="1:21">
+    <row r="132" ht="18" hidden="1" spans="1:21">
       <c r="A132" s="3" t="s">
         <v>1341</v>
       </c>
@@ -23311,7 +23311,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="133" ht="18.75" spans="1:21">
+    <row r="133" ht="18" spans="1:21">
       <c r="A133" s="3" t="s">
         <v>1353</v>
       </c>
@@ -23376,7 +23376,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="134" ht="18.75" spans="1:21">
+    <row r="134" ht="18" hidden="1" spans="1:21">
       <c r="A134" s="3" t="s">
         <v>1361</v>
       </c>
@@ -23441,7 +23441,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="135" ht="18.75" spans="1:21">
+    <row r="135" ht="18" hidden="1" spans="1:21">
       <c r="A135" s="3" t="s">
         <v>1374</v>
       </c>
@@ -23506,7 +23506,7 @@
         <v>1382</v>
       </c>
     </row>
-    <row r="136" ht="18.75" spans="1:21">
+    <row r="136" ht="18" hidden="1" spans="1:21">
       <c r="A136" s="3" t="s">
         <v>1383</v>
       </c>
@@ -23571,7 +23571,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="137" ht="18.75" spans="1:21">
+    <row r="137" ht="18" hidden="1" spans="1:21">
       <c r="A137" s="9" t="s">
         <v>1395</v>
       </c>
@@ -23636,7 +23636,7 @@
         <v>1403</v>
       </c>
     </row>
-    <row r="138" ht="18.75" spans="1:21">
+    <row r="138" ht="18" hidden="1" spans="1:21">
       <c r="A138" s="9" t="s">
         <v>1395</v>
       </c>
@@ -23701,7 +23701,7 @@
         <v>1403</v>
       </c>
     </row>
-    <row r="139" ht="18.75" spans="1:21">
+    <row r="139" ht="18" hidden="1" spans="1:21">
       <c r="A139" s="9" t="s">
         <v>1395</v>
       </c>
@@ -23766,7 +23766,7 @@
         <v>1403</v>
       </c>
     </row>
-    <row r="140" ht="18.75" spans="1:21">
+    <row r="140" ht="18" hidden="1" spans="1:21">
       <c r="A140" s="3" t="s">
         <v>1408</v>
       </c>
@@ -23831,7 +23831,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="141" ht="18.75" spans="1:21">
+    <row r="141" ht="18" hidden="1" spans="1:21">
       <c r="A141" s="3" t="s">
         <v>1417</v>
       </c>
@@ -23896,7 +23896,7 @@
         <v>1424</v>
       </c>
     </row>
-    <row r="142" ht="18.75" spans="1:21">
+    <row r="142" ht="18" hidden="1" spans="1:21">
       <c r="A142" s="3" t="s">
         <v>1425</v>
       </c>
@@ -23961,7 +23961,7 @@
         <v>1432</v>
       </c>
     </row>
-    <row r="143" ht="18.75" spans="1:21">
+    <row r="143" ht="18" hidden="1" spans="1:21">
       <c r="A143" s="3" t="s">
         <v>1433</v>
       </c>
@@ -24026,7 +24026,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="144" ht="18.75" spans="1:21">
+    <row r="144" ht="18" hidden="1" spans="1:21">
       <c r="A144" s="3" t="s">
         <v>1441</v>
       </c>
@@ -24091,7 +24091,7 @@
         <v>1447</v>
       </c>
     </row>
-    <row r="145" ht="18.75" spans="1:21">
+    <row r="145" ht="18" hidden="1" spans="1:21">
       <c r="A145" s="3" t="s">
         <v>1448</v>
       </c>
@@ -24156,7 +24156,7 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="146" ht="18.75" spans="1:21">
+    <row r="146" ht="18" hidden="1" spans="1:21">
       <c r="A146" s="3" t="s">
         <v>1460</v>
       </c>
@@ -24221,7 +24221,7 @@
         <v>1469</v>
       </c>
     </row>
-    <row r="147" ht="18.75" spans="1:21">
+    <row r="147" ht="18" hidden="1" spans="1:21">
       <c r="A147" s="3" t="s">
         <v>1470</v>
       </c>
@@ -24286,7 +24286,7 @@
         <v>1479</v>
       </c>
     </row>
-    <row r="148" ht="18.75" spans="1:21">
+    <row r="148" ht="18" hidden="1" spans="1:21">
       <c r="A148" s="3" t="s">
         <v>1480</v>
       </c>
@@ -24351,7 +24351,7 @@
         <v>1488</v>
       </c>
     </row>
-    <row r="149" ht="18.75" spans="1:21">
+    <row r="149" ht="18" hidden="1" spans="1:21">
       <c r="A149" s="3" t="s">
         <v>1489</v>
       </c>
@@ -24416,7 +24416,7 @@
         <v>1497</v>
       </c>
     </row>
-    <row r="150" ht="18.75" spans="1:21">
+    <row r="150" ht="18" hidden="1" spans="1:21">
       <c r="A150" s="3" t="s">
         <v>1498</v>
       </c>
@@ -24481,7 +24481,7 @@
         <v>1504</v>
       </c>
     </row>
-    <row r="151" ht="18.75" spans="1:21">
+    <row r="151" ht="18" hidden="1" spans="1:21">
       <c r="A151" s="3" t="s">
         <v>1505</v>
       </c>
@@ -24546,7 +24546,7 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="152" ht="18.75" spans="1:21">
+    <row r="152" ht="18" hidden="1" spans="1:21">
       <c r="A152" s="3" t="s">
         <v>1513</v>
       </c>
@@ -24611,7 +24611,7 @@
         <v>1521</v>
       </c>
     </row>
-    <row r="153" ht="18.75" spans="1:21">
+    <row r="153" ht="18" hidden="1" spans="1:21">
       <c r="A153" s="3" t="s">
         <v>1522</v>
       </c>
@@ -24676,7 +24676,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="154" ht="18.75" spans="1:21">
+    <row r="154" ht="18" spans="1:21">
       <c r="A154" s="3" t="s">
         <v>1532</v>
       </c>
@@ -24741,7 +24741,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="155" ht="18.75" spans="1:21">
+    <row r="155" ht="18" hidden="1" spans="1:21">
       <c r="A155" s="3" t="s">
         <v>1540</v>
       </c>
@@ -24806,7 +24806,7 @@
         <v>1548</v>
       </c>
     </row>
-    <row r="156" ht="18.75" spans="1:21">
+    <row r="156" ht="18" hidden="1" spans="1:21">
       <c r="A156" s="3" t="s">
         <v>1549</v>
       </c>
@@ -24871,7 +24871,7 @@
         <v>1554</v>
       </c>
     </row>
-    <row r="157" ht="18.75" spans="1:21">
+    <row r="157" ht="18" spans="1:21">
       <c r="A157" s="3" t="s">
         <v>1555</v>
       </c>
@@ -24936,7 +24936,7 @@
         <v>1562</v>
       </c>
     </row>
-    <row r="158" ht="18.75" spans="1:21">
+    <row r="158" ht="18" hidden="1" spans="1:21">
       <c r="A158" s="3" t="s">
         <v>1563</v>
       </c>
@@ -25001,7 +25001,7 @@
         <v>1571</v>
       </c>
     </row>
-    <row r="159" ht="18.75" spans="1:21">
+    <row r="159" ht="18" hidden="1" spans="1:21">
       <c r="A159" s="3" t="s">
         <v>1572</v>
       </c>
@@ -25066,7 +25066,7 @@
         <v>1578</v>
       </c>
     </row>
-    <row r="160" ht="18.75" spans="1:21">
+    <row r="160" ht="18" hidden="1" spans="1:21">
       <c r="A160" s="3" t="s">
         <v>1579</v>
       </c>
@@ -25131,7 +25131,7 @@
         <v>1587</v>
       </c>
     </row>
-    <row r="161" ht="18.75" spans="1:21">
+    <row r="161" ht="18" hidden="1" spans="1:21">
       <c r="A161" s="3" t="s">
         <v>1588</v>
       </c>
@@ -25196,7 +25196,7 @@
         <v>1594</v>
       </c>
     </row>
-    <row r="162" ht="18.75" spans="1:21">
+    <row r="162" ht="18" hidden="1" spans="1:21">
       <c r="A162" s="3" t="s">
         <v>1595</v>
       </c>
@@ -25261,7 +25261,7 @@
         <v>1602</v>
       </c>
     </row>
-    <row r="163" ht="18.75" spans="1:21">
+    <row r="163" ht="18" hidden="1" spans="1:21">
       <c r="A163" s="3" t="s">
         <v>1603</v>
       </c>
@@ -25326,7 +25326,7 @@
         <v>1612</v>
       </c>
     </row>
-    <row r="164" ht="18.75" spans="1:21">
+    <row r="164" ht="18" hidden="1" spans="1:21">
       <c r="A164" s="3" t="s">
         <v>1613</v>
       </c>
@@ -25391,7 +25391,7 @@
         <v>1625</v>
       </c>
     </row>
-    <row r="165" ht="18.75" spans="1:21">
+    <row r="165" ht="18" hidden="1" spans="1:21">
       <c r="A165" s="3" t="s">
         <v>1626</v>
       </c>
@@ -25456,7 +25456,7 @@
         <v>1634</v>
       </c>
     </row>
-    <row r="166" ht="18.75" spans="1:21">
+    <row r="166" ht="18" hidden="1" spans="1:21">
       <c r="A166" s="3" t="s">
         <v>1635</v>
       </c>
@@ -25521,7 +25521,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="167" ht="18.75" spans="1:21">
+    <row r="167" ht="18" hidden="1" spans="1:21">
       <c r="A167" s="3" t="s">
         <v>1642</v>
       </c>
@@ -25586,7 +25586,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="168" ht="18.75" spans="1:21">
+    <row r="168" ht="18" hidden="1" spans="1:21">
       <c r="A168" s="3" t="s">
         <v>1652</v>
       </c>
@@ -25651,7 +25651,7 @@
         <v>1660</v>
       </c>
     </row>
-    <row r="169" ht="18.75" spans="1:21">
+    <row r="169" ht="18" hidden="1" spans="1:21">
       <c r="A169" s="3" t="s">
         <v>1661</v>
       </c>
@@ -25716,7 +25716,7 @@
         <v>1670</v>
       </c>
     </row>
-    <row r="170" ht="18.75" spans="1:21">
+    <row r="170" ht="18" hidden="1" spans="1:21">
       <c r="A170" s="3" t="s">
         <v>1671</v>
       </c>
@@ -25781,7 +25781,7 @@
         <v>1678</v>
       </c>
     </row>
-    <row r="171" ht="18.75" spans="1:21">
+    <row r="171" ht="18" hidden="1" spans="1:21">
       <c r="A171" s="3" t="s">
         <v>1671</v>
       </c>
@@ -25846,7 +25846,7 @@
         <v>1678</v>
       </c>
     </row>
-    <row r="172" ht="18.75" spans="1:21">
+    <row r="172" ht="18" hidden="1" spans="1:21">
       <c r="A172" s="3" t="s">
         <v>1684</v>
       </c>
@@ -25911,7 +25911,7 @@
         <v>1693</v>
       </c>
     </row>
-    <row r="173" ht="18.75" spans="1:21">
+    <row r="173" ht="18" hidden="1" spans="1:21">
       <c r="A173" s="3" t="s">
         <v>1694</v>
       </c>
@@ -25976,7 +25976,7 @@
         <v>1704</v>
       </c>
     </row>
-    <row r="174" ht="18.75" spans="1:21">
+    <row r="174" ht="18" spans="1:21">
       <c r="A174" s="3" t="s">
         <v>1705</v>
       </c>
@@ -26041,7 +26041,7 @@
         <v>1715</v>
       </c>
     </row>
-    <row r="175" ht="18.75" spans="1:21">
+    <row r="175" ht="18" hidden="1" spans="1:21">
       <c r="A175" s="3" t="s">
         <v>1716</v>
       </c>
@@ -26106,7 +26106,7 @@
         <v>1724</v>
       </c>
     </row>
-    <row r="176" ht="18.75" spans="1:21">
+    <row r="176" ht="18" hidden="1" spans="1:21">
       <c r="A176" s="3" t="s">
         <v>1725</v>
       </c>
@@ -26171,7 +26171,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="177" ht="18.75" spans="1:21">
+    <row r="177" ht="18" hidden="1" spans="1:21">
       <c r="A177" s="3" t="s">
         <v>1736</v>
       </c>
@@ -26236,7 +26236,7 @@
         <v>1745</v>
       </c>
     </row>
-    <row r="178" ht="18.75" spans="1:21">
+    <row r="178" ht="18" hidden="1" spans="1:21">
       <c r="A178" s="3" t="s">
         <v>1746</v>
       </c>
@@ -26301,7 +26301,7 @@
         <v>1753</v>
       </c>
     </row>
-    <row r="179" ht="18.75" spans="1:21">
+    <row r="179" ht="18" hidden="1" spans="1:21">
       <c r="A179" s="3" t="s">
         <v>1754</v>
       </c>
@@ -26366,7 +26366,7 @@
         <v>1760</v>
       </c>
     </row>
-    <row r="180" ht="18.75" spans="1:21">
+    <row r="180" ht="18" hidden="1" spans="1:21">
       <c r="A180" s="3" t="s">
         <v>1761</v>
       </c>
@@ -26431,7 +26431,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="181" ht="18.75" spans="1:21">
+    <row r="181" ht="18" hidden="1" spans="1:21">
       <c r="A181" s="3" t="s">
         <v>1772</v>
       </c>
@@ -26496,7 +26496,7 @@
         <v>1781</v>
       </c>
     </row>
-    <row r="182" ht="18.75" spans="1:21">
+    <row r="182" ht="18" hidden="1" spans="1:21">
       <c r="A182" s="3" t="s">
         <v>1782</v>
       </c>
@@ -26561,7 +26561,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="183" ht="18.75" spans="1:21">
+    <row r="183" ht="18" hidden="1" spans="1:21">
       <c r="A183" s="3" t="s">
         <v>1790</v>
       </c>
@@ -26626,7 +26626,7 @@
         <v>1799</v>
       </c>
     </row>
-    <row r="184" ht="18.75" spans="1:21">
+    <row r="184" ht="18" spans="1:21">
       <c r="A184" s="3" t="s">
         <v>1800</v>
       </c>
@@ -26649,7 +26649,7 @@
         <v>1801</v>
       </c>
       <c r="H184" s="4" t="s">
-        <v>163</v>
+        <v>821</v>
       </c>
       <c r="I184" s="3" t="s">
         <v>1802</v>
@@ -26691,7 +26691,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="185" ht="18.75" spans="1:21">
+    <row r="185" ht="18" hidden="1" spans="1:21">
       <c r="A185" s="3" t="s">
         <v>1811</v>
       </c>
@@ -26756,7 +26756,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="186" ht="18.75" spans="1:21">
+    <row r="186" ht="18" hidden="1" spans="1:21">
       <c r="A186" s="3" t="s">
         <v>1819</v>
       </c>
@@ -26821,7 +26821,7 @@
         <v>1830</v>
       </c>
     </row>
-    <row r="187" ht="18.75" spans="1:21">
+    <row r="187" ht="18" hidden="1" spans="1:21">
       <c r="A187" s="3" t="s">
         <v>1831</v>
       </c>
@@ -26886,7 +26886,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="188" ht="18.75" spans="1:21">
+    <row r="188" ht="18" hidden="1" spans="1:21">
       <c r="A188" s="9" t="s">
         <v>1840</v>
       </c>
@@ -26951,7 +26951,7 @@
         <v>1847</v>
       </c>
     </row>
-    <row r="189" ht="18.75" spans="1:21">
+    <row r="189" ht="18" hidden="1" spans="1:21">
       <c r="A189" s="9" t="s">
         <v>1840</v>
       </c>
@@ -27016,7 +27016,7 @@
         <v>1847</v>
       </c>
     </row>
-    <row r="190" ht="18.75" spans="1:21">
+    <row r="190" ht="18" hidden="1" spans="1:21">
       <c r="A190" s="3" t="s">
         <v>1851</v>
       </c>
@@ -27081,7 +27081,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="191" ht="18.75" spans="1:21">
+    <row r="191" ht="18" hidden="1" spans="1:21">
       <c r="A191" s="3" t="s">
         <v>1861</v>
       </c>
@@ -27146,7 +27146,7 @@
         <v>1871</v>
       </c>
     </row>
-    <row r="192" ht="18.75" spans="1:21">
+    <row r="192" ht="18" hidden="1" spans="1:21">
       <c r="A192" s="3" t="s">
         <v>1872</v>
       </c>
@@ -27211,7 +27211,7 @@
         <v>1881</v>
       </c>
     </row>
-    <row r="193" ht="18.75" spans="1:21">
+    <row r="193" ht="18" hidden="1" spans="1:21">
       <c r="A193" s="3" t="s">
         <v>1882</v>
       </c>
@@ -27276,7 +27276,7 @@
         <v>1891</v>
       </c>
     </row>
-    <row r="194" ht="18.75" spans="1:21">
+    <row r="194" ht="18" hidden="1" spans="1:21">
       <c r="A194" s="3" t="s">
         <v>1892</v>
       </c>
@@ -27341,7 +27341,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="195" ht="18.75" spans="1:21">
+    <row r="195" ht="18" hidden="1" spans="1:21">
       <c r="A195" s="3" t="s">
         <v>1900</v>
       </c>
@@ -27406,7 +27406,7 @@
         <v>1907</v>
       </c>
     </row>
-    <row r="196" ht="18.75" spans="1:21">
+    <row r="196" ht="18" spans="1:21">
       <c r="A196" s="3" t="s">
         <v>1908</v>
       </c>
@@ -27471,7 +27471,7 @@
         <v>1914</v>
       </c>
     </row>
-    <row r="197" ht="18.75" spans="1:21">
+    <row r="197" ht="18" hidden="1" spans="1:21">
       <c r="A197" s="3" t="s">
         <v>1915</v>
       </c>
@@ -27536,7 +27536,7 @@
         <v>1923</v>
       </c>
     </row>
-    <row r="198" ht="18.75" spans="1:21">
+    <row r="198" ht="18" hidden="1" spans="1:21">
       <c r="A198" s="3" t="s">
         <v>1924</v>
       </c>
@@ -27601,7 +27601,7 @@
         <v>1935</v>
       </c>
     </row>
-    <row r="199" ht="18.75" spans="1:21">
+    <row r="199" ht="18" hidden="1" spans="1:21">
       <c r="A199" s="3" t="s">
         <v>1936</v>
       </c>
@@ -27666,7 +27666,7 @@
         <v>1943</v>
       </c>
     </row>
-    <row r="200" ht="18.75" spans="1:21">
+    <row r="200" ht="18" spans="1:21">
       <c r="A200" s="3" t="s">
         <v>1944</v>
       </c>
@@ -27731,7 +27731,7 @@
         <v>1950</v>
       </c>
     </row>
-    <row r="201" ht="18.75" spans="1:21">
+    <row r="201" ht="18" hidden="1" spans="1:21">
       <c r="A201" s="3" t="s">
         <v>1951</v>
       </c>
@@ -27796,7 +27796,7 @@
         <v>1959</v>
       </c>
     </row>
-    <row r="202" ht="18.75" spans="1:21">
+    <row r="202" ht="18" spans="1:21">
       <c r="A202" s="3" t="s">
         <v>1960</v>
       </c>
@@ -27861,7 +27861,7 @@
         <v>1967</v>
       </c>
     </row>
-    <row r="203" ht="18.75" spans="1:21">
+    <row r="203" ht="18" spans="1:21">
       <c r="A203" s="3" t="s">
         <v>1968</v>
       </c>
@@ -27926,7 +27926,7 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="204" ht="18.75" spans="1:21">
+    <row r="204" ht="18" hidden="1" spans="1:21">
       <c r="A204" s="3" t="s">
         <v>1979</v>
       </c>
@@ -27991,7 +27991,7 @@
         <v>1988</v>
       </c>
     </row>
-    <row r="205" ht="18.75" spans="1:21">
+    <row r="205" ht="18" hidden="1" spans="1:21">
       <c r="A205" s="3" t="s">
         <v>1989</v>
       </c>
@@ -28056,7 +28056,7 @@
         <v>1997</v>
       </c>
     </row>
-    <row r="206" ht="18.75" spans="1:21">
+    <row r="206" ht="18" hidden="1" spans="1:21">
       <c r="A206" s="3" t="s">
         <v>1998</v>
       </c>
@@ -28121,7 +28121,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="207" ht="18.75" spans="1:21">
+    <row r="207" ht="18" hidden="1" spans="1:21">
       <c r="A207" s="3" t="s">
         <v>2006</v>
       </c>
@@ -28186,7 +28186,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="208" ht="18.75" spans="1:21">
+    <row r="208" ht="18" hidden="1" spans="1:21">
       <c r="A208" s="3" t="s">
         <v>2017</v>
       </c>
@@ -28251,7 +28251,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="209" ht="18.75" spans="1:21">
+    <row r="209" ht="18" hidden="1" spans="1:21">
       <c r="A209" s="3" t="s">
         <v>2017</v>
       </c>
@@ -28316,7 +28316,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="210" ht="18.75" spans="1:21">
+    <row r="210" ht="18" spans="1:21">
       <c r="A210" s="3" t="s">
         <v>2032</v>
       </c>
@@ -28381,7 +28381,7 @@
         <v>2039</v>
       </c>
     </row>
-    <row r="211" ht="18.75" spans="1:21">
+    <row r="211" ht="18" hidden="1" spans="1:21">
       <c r="A211" s="3" t="s">
         <v>2040</v>
       </c>
@@ -28446,7 +28446,7 @@
         <v>2049</v>
       </c>
     </row>
-    <row r="212" ht="18.75" spans="1:21">
+    <row r="212" ht="18" hidden="1" spans="1:21">
       <c r="A212" s="3" t="s">
         <v>2050</v>
       </c>
@@ -28511,7 +28511,7 @@
         <v>2057</v>
       </c>
     </row>
-    <row r="213" ht="18.75" spans="1:21">
+    <row r="213" ht="18" hidden="1" spans="1:21">
       <c r="A213" s="3" t="s">
         <v>2058</v>
       </c>
@@ -28576,7 +28576,7 @@
         <v>2064</v>
       </c>
     </row>
-    <row r="214" ht="18.75" spans="1:21">
+    <row r="214" ht="18" hidden="1" spans="1:21">
       <c r="A214" s="3" t="s">
         <v>2065</v>
       </c>
@@ -28641,7 +28641,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="215" ht="18.75" spans="1:21">
+    <row r="215" ht="18" hidden="1" spans="1:21">
       <c r="A215" s="3" t="s">
         <v>2076</v>
       </c>
@@ -28706,7 +28706,7 @@
         <v>2084</v>
       </c>
     </row>
-    <row r="216" ht="18.75" spans="1:21">
+    <row r="216" ht="18" hidden="1" spans="1:21">
       <c r="A216" s="3" t="s">
         <v>2076</v>
       </c>
@@ -28771,7 +28771,7 @@
         <v>2084</v>
       </c>
     </row>
-    <row r="217" ht="18.75" spans="1:21">
+    <row r="217" ht="18" hidden="1" spans="1:21">
       <c r="A217" s="3" t="s">
         <v>2092</v>
       </c>
@@ -28836,7 +28836,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="218" ht="18.75" spans="1:21">
+    <row r="218" ht="18" hidden="1" spans="1:21">
       <c r="A218" s="3" t="s">
         <v>2101</v>
       </c>
@@ -28901,7 +28901,7 @@
         <v>2106</v>
       </c>
     </row>
-    <row r="219" ht="18.75" spans="1:21">
+    <row r="219" ht="18" spans="1:21">
       <c r="A219" s="3" t="s">
         <v>2107</v>
       </c>
@@ -28966,7 +28966,7 @@
         <v>2113</v>
       </c>
     </row>
-    <row r="220" ht="18.75" spans="1:21">
+    <row r="220" ht="18" hidden="1" spans="1:21">
       <c r="A220" s="3" t="s">
         <v>2114</v>
       </c>
@@ -29031,7 +29031,7 @@
         <v>2118</v>
       </c>
     </row>
-    <row r="221" ht="18.75" spans="1:21">
+    <row r="221" ht="18" hidden="1" spans="1:21">
       <c r="A221" s="3" t="s">
         <v>2119</v>
       </c>
@@ -29096,7 +29096,7 @@
         <v>2126</v>
       </c>
     </row>
-    <row r="222" ht="18.75" spans="1:21">
+    <row r="222" ht="18" hidden="1" spans="1:21">
       <c r="A222" s="3" t="s">
         <v>2127</v>
       </c>
@@ -29161,7 +29161,7 @@
         <v>2137</v>
       </c>
     </row>
-    <row r="223" ht="18.75" spans="1:21">
+    <row r="223" ht="18" hidden="1" spans="1:21">
       <c r="A223" s="3" t="s">
         <v>2138</v>
       </c>
@@ -29226,7 +29226,7 @@
         <v>2143</v>
       </c>
     </row>
-    <row r="224" ht="18.75" spans="1:21">
+    <row r="224" ht="18" hidden="1" spans="1:21">
       <c r="A224" s="3" t="s">
         <v>2144</v>
       </c>
@@ -29291,7 +29291,7 @@
         <v>2152</v>
       </c>
     </row>
-    <row r="225" ht="18.75" spans="1:21">
+    <row r="225" ht="18" hidden="1" spans="1:21">
       <c r="A225" s="3" t="s">
         <v>2153</v>
       </c>
@@ -29356,7 +29356,7 @@
         <v>2159</v>
       </c>
     </row>
-    <row r="226" ht="18.75" spans="1:21">
+    <row r="226" ht="18" hidden="1" spans="1:21">
       <c r="A226" s="3" t="s">
         <v>2160</v>
       </c>
@@ -29421,7 +29421,7 @@
         <v>2165</v>
       </c>
     </row>
-    <row r="227" ht="18.75" spans="1:21">
+    <row r="227" ht="18" hidden="1" spans="1:21">
       <c r="A227" s="3" t="s">
         <v>2166</v>
       </c>
@@ -29486,7 +29486,7 @@
         <v>2176</v>
       </c>
     </row>
-    <row r="228" ht="18.75" spans="1:21">
+    <row r="228" ht="18" hidden="1" spans="1:21">
       <c r="A228" s="3" t="s">
         <v>2166</v>
       </c>
@@ -29551,7 +29551,7 @@
         <v>2176</v>
       </c>
     </row>
-    <row r="229" ht="18.75" spans="1:21">
+    <row r="229" ht="18" hidden="1" spans="1:21">
       <c r="A229" s="3" t="s">
         <v>2183</v>
       </c>
@@ -29616,7 +29616,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="230" ht="18.75" spans="1:21">
+    <row r="230" ht="18" hidden="1" spans="1:21">
       <c r="A230" s="3" t="s">
         <v>2191</v>
       </c>
@@ -29681,7 +29681,7 @@
         <v>2196</v>
       </c>
     </row>
-    <row r="231" ht="18.75" spans="1:21">
+    <row r="231" ht="18" hidden="1" spans="1:21">
       <c r="A231" s="3" t="s">
         <v>2197</v>
       </c>
@@ -29746,7 +29746,7 @@
         <v>2204</v>
       </c>
     </row>
-    <row r="232" ht="18.75" spans="1:21">
+    <row r="232" ht="18" hidden="1" spans="1:21">
       <c r="A232" s="3" t="s">
         <v>2205</v>
       </c>
@@ -29811,7 +29811,7 @@
         <v>2212</v>
       </c>
     </row>
-    <row r="233" ht="18.75" spans="1:21">
+    <row r="233" ht="18" spans="1:21">
       <c r="A233" s="3" t="s">
         <v>2213</v>
       </c>
@@ -29876,7 +29876,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="234" ht="18.75" spans="1:21">
+    <row r="234" ht="18" hidden="1" spans="1:21">
       <c r="A234" s="3" t="s">
         <v>2221</v>
       </c>
@@ -29941,7 +29941,7 @@
         <v>2226</v>
       </c>
     </row>
-    <row r="235" ht="18.75" spans="1:21">
+    <row r="235" ht="18" hidden="1" spans="1:21">
       <c r="A235" s="3" t="s">
         <v>2227</v>
       </c>
@@ -30006,7 +30006,7 @@
         <v>2235</v>
       </c>
     </row>
-    <row r="236" ht="18.75" spans="1:21">
+    <row r="236" ht="18" hidden="1" spans="1:21">
       <c r="A236" s="3" t="s">
         <v>2236</v>
       </c>
@@ -30071,7 +30071,7 @@
         <v>2243</v>
       </c>
     </row>
-    <row r="237" ht="18.75" spans="1:21">
+    <row r="237" ht="18" hidden="1" spans="1:21">
       <c r="A237" s="3" t="s">
         <v>2244</v>
       </c>
@@ -30136,7 +30136,7 @@
         <v>2252</v>
       </c>
     </row>
-    <row r="238" ht="18.75" spans="1:21">
+    <row r="238" ht="18" hidden="1" spans="1:21">
       <c r="A238" s="3" t="s">
         <v>2244</v>
       </c>
@@ -30201,7 +30201,7 @@
         <v>2252</v>
       </c>
     </row>
-    <row r="239" ht="18.75" spans="1:21">
+    <row r="239" ht="18" hidden="1" spans="1:21">
       <c r="A239" s="3" t="s">
         <v>2258</v>
       </c>
@@ -30266,7 +30266,7 @@
         <v>2263</v>
       </c>
     </row>
-    <row r="240" ht="18.75" spans="1:21">
+    <row r="240" ht="18" hidden="1" spans="1:21">
       <c r="A240" s="3" t="s">
         <v>2264</v>
       </c>
@@ -30331,7 +30331,7 @@
         <v>2270</v>
       </c>
     </row>
-    <row r="241" ht="18.75" spans="1:21">
+    <row r="241" ht="18" hidden="1" spans="1:21">
       <c r="A241" s="3" t="s">
         <v>2271</v>
       </c>
@@ -30396,7 +30396,7 @@
         <v>2278</v>
       </c>
     </row>
-    <row r="242" ht="18.75" spans="1:21">
+    <row r="242" ht="18" hidden="1" spans="1:21">
       <c r="A242" s="3" t="s">
         <v>2279</v>
       </c>
@@ -30461,7 +30461,7 @@
         <v>2287</v>
       </c>
     </row>
-    <row r="243" ht="18.75" spans="1:21">
+    <row r="243" ht="18" hidden="1" spans="1:21">
       <c r="A243" s="3" t="s">
         <v>2288</v>
       </c>
@@ -30526,7 +30526,7 @@
         <v>2297</v>
       </c>
     </row>
-    <row r="244" ht="18.75" spans="1:21">
+    <row r="244" ht="18" hidden="1" spans="1:21">
       <c r="A244" s="3" t="s">
         <v>2298</v>
       </c>
@@ -30591,7 +30591,7 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="245" ht="18.75" spans="1:21">
+    <row r="245" ht="18" hidden="1" spans="1:21">
       <c r="A245" s="3" t="s">
         <v>2306</v>
       </c>
@@ -30656,7 +30656,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="246" ht="18.75" spans="1:21">
+    <row r="246" ht="18" hidden="1" spans="1:21">
       <c r="A246" s="3" t="s">
         <v>2315</v>
       </c>
@@ -30721,7 +30721,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="247" ht="18.75" spans="1:21">
+    <row r="247" ht="18" spans="1:21">
       <c r="A247" s="3" t="s">
         <v>2321</v>
       </c>
@@ -30786,7 +30786,7 @@
         <v>2326</v>
       </c>
     </row>
-    <row r="248" ht="18.75" spans="1:21">
+    <row r="248" ht="18" hidden="1" spans="1:21">
       <c r="A248" s="3" t="s">
         <v>2327</v>
       </c>
@@ -30851,7 +30851,7 @@
         <v>2333</v>
       </c>
     </row>
-    <row r="249" ht="18.75" spans="1:21">
+    <row r="249" ht="18" hidden="1" spans="1:21">
       <c r="A249" s="3" t="s">
         <v>2334</v>
       </c>
@@ -30916,7 +30916,7 @@
         <v>2340</v>
       </c>
     </row>
-    <row r="250" ht="18.75" spans="1:21">
+    <row r="250" ht="18" hidden="1" spans="1:21">
       <c r="A250" s="3" t="s">
         <v>2341</v>
       </c>
@@ -30981,7 +30981,7 @@
         <v>2350</v>
       </c>
     </row>
-    <row r="251" ht="18.75" spans="1:21">
+    <row r="251" ht="18" hidden="1" spans="1:21">
       <c r="A251" s="3" t="s">
         <v>2341</v>
       </c>
@@ -31046,7 +31046,7 @@
         <v>2350</v>
       </c>
     </row>
-    <row r="252" ht="18.75" spans="1:21">
+    <row r="252" ht="18" hidden="1" spans="1:21">
       <c r="A252" s="3" t="s">
         <v>2356</v>
       </c>
@@ -31111,7 +31111,7 @@
         <v>2361</v>
       </c>
     </row>
-    <row r="253" ht="18.75" spans="1:21">
+    <row r="253" ht="18" hidden="1" spans="1:21">
       <c r="A253" s="3" t="s">
         <v>2362</v>
       </c>
@@ -31176,7 +31176,7 @@
         <v>2369</v>
       </c>
     </row>
-    <row r="254" ht="18.75" spans="1:21">
+    <row r="254" ht="18" hidden="1" spans="1:21">
       <c r="A254" s="3" t="s">
         <v>2370</v>
       </c>
@@ -31241,7 +31241,7 @@
         <v>2379</v>
       </c>
     </row>
-    <row r="255" ht="18.75" spans="1:21">
+    <row r="255" ht="18" hidden="1" spans="1:21">
       <c r="A255" s="3" t="s">
         <v>2370</v>
       </c>
@@ -31306,7 +31306,7 @@
         <v>2379</v>
       </c>
     </row>
-    <row r="256" ht="18.75" spans="1:21">
+    <row r="256" ht="18" hidden="1" spans="1:21">
       <c r="A256" s="3" t="s">
         <v>2370</v>
       </c>
@@ -31371,7 +31371,7 @@
         <v>2379</v>
       </c>
     </row>
-    <row r="257" ht="18.75" spans="1:21">
+    <row r="257" ht="18" hidden="1" spans="1:21">
       <c r="A257" s="3" t="s">
         <v>2390</v>
       </c>
@@ -31436,7 +31436,7 @@
         <v>2395</v>
       </c>
     </row>
-    <row r="258" ht="18.75" spans="1:21">
+    <row r="258" ht="18" hidden="1" spans="1:21">
       <c r="A258" s="3" t="s">
         <v>2396</v>
       </c>
@@ -31501,7 +31501,7 @@
         <v>2402</v>
       </c>
     </row>
-    <row r="259" ht="18.75" spans="1:21">
+    <row r="259" ht="18" hidden="1" spans="1:21">
       <c r="A259" s="3" t="s">
         <v>2403</v>
       </c>
@@ -31566,7 +31566,7 @@
         <v>2410</v>
       </c>
     </row>
-    <row r="260" ht="18.75" spans="1:21">
+    <row r="260" ht="18" hidden="1" spans="1:21">
       <c r="A260" s="3" t="s">
         <v>2411</v>
       </c>
@@ -31631,7 +31631,7 @@
         <v>2420</v>
       </c>
     </row>
-    <row r="261" ht="18.75" spans="1:21">
+    <row r="261" ht="18" hidden="1" spans="1:21">
       <c r="A261" s="9" t="s">
         <v>2421</v>
       </c>
@@ -31696,7 +31696,7 @@
         <v>2428</v>
       </c>
     </row>
-    <row r="262" ht="18.75" spans="1:21">
+    <row r="262" ht="18" spans="1:21">
       <c r="A262" s="9" t="s">
         <v>2429</v>
       </c>
@@ -31761,7 +31761,7 @@
         <v>2434</v>
       </c>
     </row>
-    <row r="263" ht="18.75" spans="1:21">
+    <row r="263" ht="18" hidden="1" spans="1:21">
       <c r="A263" s="9" t="s">
         <v>2435</v>
       </c>
@@ -31826,7 +31826,7 @@
         <v>2438</v>
       </c>
     </row>
-    <row r="264" ht="18.75" spans="1:21">
+    <row r="264" ht="18" hidden="1" spans="1:21">
       <c r="A264" s="9" t="s">
         <v>2439</v>
       </c>
@@ -31891,7 +31891,7 @@
         <v>2444</v>
       </c>
     </row>
-    <row r="265" ht="18.75" spans="1:21">
+    <row r="265" ht="18" hidden="1" spans="1:21">
       <c r="A265" s="9" t="s">
         <v>2439</v>
       </c>
@@ -31956,7 +31956,7 @@
         <v>2444</v>
       </c>
     </row>
-    <row r="266" ht="18.75" spans="1:21">
+    <row r="266" ht="18" hidden="1" spans="1:21">
       <c r="A266" s="9" t="s">
         <v>2447</v>
       </c>
@@ -32021,7 +32021,7 @@
         <v>2451</v>
       </c>
     </row>
-    <row r="267" ht="18.75" spans="1:21">
+    <row r="267" ht="18" hidden="1" spans="1:21">
       <c r="A267" s="9" t="s">
         <v>2452</v>
       </c>
@@ -32084,7 +32084,7 @@
       </c>
       <c r="U267" s="3"/>
     </row>
-    <row r="268" ht="18.75" spans="1:21">
+    <row r="268" ht="18" hidden="1" spans="1:21">
       <c r="A268" s="9" t="s">
         <v>2456</v>
       </c>
@@ -32149,7 +32149,7 @@
         <v>2460</v>
       </c>
     </row>
-    <row r="269" ht="18.75" spans="1:21">
+    <row r="269" ht="18" hidden="1" spans="1:21">
       <c r="A269" s="9" t="s">
         <v>2461</v>
       </c>
@@ -32212,7 +32212,7 @@
       </c>
       <c r="U269" s="3"/>
     </row>
-    <row r="270" ht="18.75" spans="1:21">
+    <row r="270" ht="18" hidden="1" spans="1:21">
       <c r="A270" s="9" t="s">
         <v>2468</v>
       </c>
@@ -32275,7 +32275,7 @@
       </c>
       <c r="U270" s="3"/>
     </row>
-    <row r="271" ht="18.75" spans="1:21">
+    <row r="271" ht="18" hidden="1" spans="1:21">
       <c r="A271" s="9" t="s">
         <v>2468</v>
       </c>
@@ -32338,7 +32338,7 @@
       </c>
       <c r="U271" s="3"/>
     </row>
-    <row r="272" ht="18.75" spans="1:21">
+    <row r="272" ht="18" hidden="1" spans="1:21">
       <c r="A272" s="9" t="s">
         <v>2474</v>
       </c>
@@ -32403,6 +32403,17 @@
     </row>
   </sheetData>
   <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:U272" etc:filterBottomFollowUsedRange="0">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Hydrogenation reaction"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="7">
+      <filters>
+        <filter val="C₈-C₁₆ Hydrocarbons"/>
+        <filter val="C₈-C₁₆ n-Alkanes"/>
+      </filters>
+    </filterColumn>
     <extLst/>
   </autoFilter>
   <conditionalFormatting sqref="A115">

--- a/12-21-entities-DeepSeek-chat.xlsx
+++ b/12-21-entities-DeepSeek-chat.xlsx
@@ -14719,16 +14719,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr filterMode="1"/>
+  <sheetPr/>
   <dimension ref="A1:U272"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H273" sqref="H273"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="51.6283185840708" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="16384" width="51.6283185840708" customWidth="1"/>
+    <col min="1" max="1" width="67.9734513274336" customWidth="1"/>
+    <col min="2" max="16384" width="51.6283185840708" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18" spans="1:21">
@@ -14796,7 +14797,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" ht="18" hidden="1" spans="1:21">
+    <row r="2" ht="18" spans="1:21">
       <c r="A2" s="3" t="s">
         <v>21</v>
       </c>
@@ -14861,7 +14862,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" ht="18" hidden="1" spans="1:21">
+    <row r="3" ht="18" spans="1:21">
       <c r="A3" s="3" t="s">
         <v>39</v>
       </c>
@@ -14926,7 +14927,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" ht="18" hidden="1" spans="1:21">
+    <row r="4" ht="18" spans="1:21">
       <c r="A4" s="3" t="s">
         <v>57</v>
       </c>
@@ -14991,7 +14992,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" ht="18" hidden="1" spans="1:21">
+    <row r="5" ht="18" spans="1:21">
       <c r="A5" s="3" t="s">
         <v>72</v>
       </c>
@@ -15056,7 +15057,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="6" ht="18" hidden="1" spans="1:21">
+    <row r="6" ht="18" spans="1:21">
       <c r="A6" s="3" t="s">
         <v>87</v>
       </c>
@@ -15121,7 +15122,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="7" ht="18" hidden="1" spans="1:21">
+    <row r="7" ht="18" spans="1:21">
       <c r="A7" s="3" t="s">
         <v>97</v>
       </c>
@@ -15186,7 +15187,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="8" ht="18" hidden="1" spans="1:21">
+    <row r="8" ht="18" spans="1:21">
       <c r="A8" s="3" t="s">
         <v>114</v>
       </c>
@@ -15251,7 +15252,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="9" ht="18" hidden="1" spans="1:21">
+    <row r="9" ht="18" spans="1:21">
       <c r="A9" s="3" t="s">
         <v>130</v>
       </c>
@@ -15316,7 +15317,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="10" ht="18" hidden="1" spans="1:21">
+    <row r="10" ht="18" spans="1:21">
       <c r="A10" s="3" t="s">
         <v>144</v>
       </c>
@@ -15381,7 +15382,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="11" ht="18" hidden="1" spans="1:21">
+    <row r="11" ht="18" spans="1:21">
       <c r="A11" s="3" t="s">
         <v>160</v>
       </c>
@@ -15446,7 +15447,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="12" ht="18" hidden="1" spans="1:21">
+    <row r="12" ht="18" spans="1:21">
       <c r="A12" s="3" t="s">
         <v>171</v>
       </c>
@@ -15511,7 +15512,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="13" ht="18" hidden="1" spans="1:21">
+    <row r="13" ht="18" spans="1:21">
       <c r="A13" s="3" t="s">
         <v>179</v>
       </c>
@@ -15576,7 +15577,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="14" ht="18" hidden="1" spans="1:21">
+    <row r="14" ht="18" spans="1:21">
       <c r="A14" s="3" t="s">
         <v>191</v>
       </c>
@@ -15641,7 +15642,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="15" ht="18" hidden="1" spans="1:21">
+    <row r="15" ht="18" spans="1:21">
       <c r="A15" s="3" t="s">
         <v>205</v>
       </c>
@@ -15706,7 +15707,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="16" ht="18" hidden="1" spans="1:21">
+    <row r="16" ht="18" spans="1:21">
       <c r="A16" s="3" t="s">
         <v>218</v>
       </c>
@@ -15771,7 +15772,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="17" ht="18" hidden="1" spans="1:21">
+    <row r="17" ht="18" spans="1:21">
       <c r="A17" s="3" t="s">
         <v>231</v>
       </c>
@@ -15836,7 +15837,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="18" ht="18" hidden="1" spans="1:21">
+    <row r="18" ht="18" spans="1:21">
       <c r="A18" s="3" t="s">
         <v>243</v>
       </c>
@@ -15901,7 +15902,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="19" ht="18" hidden="1" spans="1:21">
+    <row r="19" ht="18" spans="1:21">
       <c r="A19" s="3" t="s">
         <v>254</v>
       </c>
@@ -15966,7 +15967,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="20" ht="18" hidden="1" spans="1:21">
+    <row r="20" ht="18" spans="1:21">
       <c r="A20" s="3" t="s">
         <v>263</v>
       </c>
@@ -16031,7 +16032,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="21" ht="18" hidden="1" spans="1:21">
+    <row r="21" ht="18" spans="1:21">
       <c r="A21" s="3" t="s">
         <v>273</v>
       </c>
@@ -16096,7 +16097,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="22" ht="18" hidden="1" spans="1:21">
+    <row r="22" ht="18" spans="1:21">
       <c r="A22" s="3" t="s">
         <v>285</v>
       </c>
@@ -16161,7 +16162,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="23" ht="18" hidden="1" spans="1:21">
+    <row r="23" ht="18" spans="1:21">
       <c r="A23" s="3" t="s">
         <v>293</v>
       </c>
@@ -16226,7 +16227,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="24" ht="18" hidden="1" spans="1:21">
+    <row r="24" ht="18" spans="1:21">
       <c r="A24" s="3" t="s">
         <v>302</v>
       </c>
@@ -16291,7 +16292,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="25" ht="18" hidden="1" spans="1:21">
+    <row r="25" ht="18" spans="1:21">
       <c r="A25" s="3" t="s">
         <v>313</v>
       </c>
@@ -16356,7 +16357,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="26" ht="18" hidden="1" spans="1:21">
+    <row r="26" ht="18" spans="1:21">
       <c r="A26" s="3" t="s">
         <v>325</v>
       </c>
@@ -16421,7 +16422,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="27" ht="18" hidden="1" spans="1:21">
+    <row r="27" ht="18" spans="1:21">
       <c r="A27" s="3" t="s">
         <v>334</v>
       </c>
@@ -16486,7 +16487,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="28" ht="18" hidden="1" spans="1:21">
+    <row r="28" ht="18" spans="1:21">
       <c r="A28" s="3" t="s">
         <v>345</v>
       </c>
@@ -16551,7 +16552,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="29" ht="18" hidden="1" spans="1:21">
+    <row r="29" ht="18" spans="1:21">
       <c r="A29" s="3" t="s">
         <v>355</v>
       </c>
@@ -16616,7 +16617,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="30" ht="18" hidden="1" spans="1:21">
+    <row r="30" ht="18" spans="1:21">
       <c r="A30" s="3" t="s">
         <v>361</v>
       </c>
@@ -16681,7 +16682,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="31" ht="18" hidden="1" spans="1:21">
+    <row r="31" ht="18" spans="1:21">
       <c r="A31" s="3" t="s">
         <v>370</v>
       </c>
@@ -16746,7 +16747,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="32" ht="18" hidden="1" spans="1:21">
+    <row r="32" ht="18" spans="1:21">
       <c r="A32" s="3" t="s">
         <v>379</v>
       </c>
@@ -16811,7 +16812,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="33" ht="18" hidden="1" spans="1:21">
+    <row r="33" ht="18" spans="1:21">
       <c r="A33" s="3" t="s">
         <v>389</v>
       </c>
@@ -16876,7 +16877,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="34" ht="18" hidden="1" spans="1:21">
+    <row r="34" ht="18" spans="1:21">
       <c r="A34" s="3" t="s">
         <v>396</v>
       </c>
@@ -16941,7 +16942,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="35" ht="18" hidden="1" spans="1:21">
+    <row r="35" ht="18" spans="1:21">
       <c r="A35" s="3" t="s">
         <v>406</v>
       </c>
@@ -17006,7 +17007,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="36" ht="18" hidden="1" spans="1:21">
+    <row r="36" ht="18" spans="1:21">
       <c r="A36" s="3" t="s">
         <v>416</v>
       </c>
@@ -17071,7 +17072,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="37" ht="18" hidden="1" spans="1:21">
+    <row r="37" ht="18" spans="1:21">
       <c r="A37" s="3" t="s">
         <v>423</v>
       </c>
@@ -17136,7 +17137,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="38" ht="18" hidden="1" spans="1:21">
+    <row r="38" ht="18" spans="1:21">
       <c r="A38" s="3" t="s">
         <v>431</v>
       </c>
@@ -17201,7 +17202,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="39" ht="18" hidden="1" spans="1:21">
+    <row r="39" ht="18" spans="1:21">
       <c r="A39" s="3" t="s">
         <v>440</v>
       </c>
@@ -17266,7 +17267,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="40" ht="18" hidden="1" spans="1:21">
+    <row r="40" ht="18" spans="1:21">
       <c r="A40" s="3" t="s">
         <v>450</v>
       </c>
@@ -17331,7 +17332,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="41" ht="18" hidden="1" spans="1:21">
+    <row r="41" ht="18" spans="1:21">
       <c r="A41" s="3" t="s">
         <v>459</v>
       </c>
@@ -17396,7 +17397,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="42" ht="18" hidden="1" spans="1:21">
+    <row r="42" ht="18" spans="1:21">
       <c r="A42" s="3" t="s">
         <v>470</v>
       </c>
@@ -17461,7 +17462,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="43" ht="18" hidden="1" spans="1:21">
+    <row r="43" ht="18" spans="1:21">
       <c r="A43" s="3" t="s">
         <v>479</v>
       </c>
@@ -17526,7 +17527,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="44" ht="18" hidden="1" spans="1:21">
+    <row r="44" ht="18" spans="1:21">
       <c r="A44" s="3" t="s">
         <v>488</v>
       </c>
@@ -17591,7 +17592,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="45" ht="18" hidden="1" spans="1:21">
+    <row r="45" ht="18" spans="1:21">
       <c r="A45" s="3" t="s">
         <v>497</v>
       </c>
@@ -17656,7 +17657,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="46" ht="18" hidden="1" spans="1:21">
+    <row r="46" ht="18" spans="1:21">
       <c r="A46" s="3" t="s">
         <v>507</v>
       </c>
@@ -17721,7 +17722,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="47" ht="18" hidden="1" spans="1:21">
+    <row r="47" ht="18" spans="1:21">
       <c r="A47" s="3" t="s">
         <v>522</v>
       </c>
@@ -17786,7 +17787,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="48" ht="18" hidden="1" spans="1:21">
+    <row r="48" ht="18" spans="1:21">
       <c r="A48" s="3" t="s">
         <v>536</v>
       </c>
@@ -17851,7 +17852,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="49" ht="18" hidden="1" spans="1:21">
+    <row r="49" ht="18" spans="1:21">
       <c r="A49" s="3" t="s">
         <v>549</v>
       </c>
@@ -17916,7 +17917,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="50" ht="18" hidden="1" spans="1:21">
+    <row r="50" ht="18" spans="1:21">
       <c r="A50" s="3" t="s">
         <v>562</v>
       </c>
@@ -17981,7 +17982,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="51" ht="18" hidden="1" spans="1:21">
+    <row r="51" ht="18" spans="1:21">
       <c r="A51" s="3" t="s">
         <v>573</v>
       </c>
@@ -18046,7 +18047,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="52" ht="18" hidden="1" spans="1:21">
+    <row r="52" ht="18" spans="1:21">
       <c r="A52" s="3" t="s">
         <v>583</v>
       </c>
@@ -18111,7 +18112,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="53" ht="18" hidden="1" spans="1:21">
+    <row r="53" ht="18" spans="1:21">
       <c r="A53" s="3" t="s">
         <v>592</v>
       </c>
@@ -18176,7 +18177,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="54" ht="18" hidden="1" spans="1:21">
+    <row r="54" ht="18" spans="1:21">
       <c r="A54" s="3" t="s">
         <v>602</v>
       </c>
@@ -18241,7 +18242,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="55" ht="18" hidden="1" spans="1:21">
+    <row r="55" ht="18" spans="1:21">
       <c r="A55" s="3" t="s">
         <v>613</v>
       </c>
@@ -18306,7 +18307,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="56" ht="18" hidden="1" spans="1:21">
+    <row r="56" ht="18" spans="1:21">
       <c r="A56" s="3" t="s">
         <v>624</v>
       </c>
@@ -18371,7 +18372,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="57" ht="18" hidden="1" spans="1:21">
+    <row r="57" ht="18" spans="1:21">
       <c r="A57" s="3" t="s">
         <v>634</v>
       </c>
@@ -18436,7 +18437,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="58" ht="18" hidden="1" spans="1:21">
+    <row r="58" ht="18" spans="1:21">
       <c r="A58" s="3" t="s">
         <v>645</v>
       </c>
@@ -18501,7 +18502,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="59" ht="18" hidden="1" spans="1:21">
+    <row r="59" ht="18" spans="1:21">
       <c r="A59" s="3" t="s">
         <v>655</v>
       </c>
@@ -18566,7 +18567,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="60" ht="18" hidden="1" spans="1:21">
+    <row r="60" ht="18" spans="1:21">
       <c r="A60" s="3" t="s">
         <v>666</v>
       </c>
@@ -18631,7 +18632,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="61" ht="18" hidden="1" spans="1:21">
+    <row r="61" ht="18" spans="1:21">
       <c r="A61" s="3" t="s">
         <v>676</v>
       </c>
@@ -18696,7 +18697,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="62" ht="18" hidden="1" spans="1:21">
+    <row r="62" ht="18" spans="1:21">
       <c r="A62" s="3" t="s">
         <v>684</v>
       </c>
@@ -18761,7 +18762,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="63" ht="18" hidden="1" spans="1:21">
+    <row r="63" ht="18" spans="1:21">
       <c r="A63" s="3" t="s">
         <v>693</v>
       </c>
@@ -18826,7 +18827,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="64" ht="18" hidden="1" spans="1:21">
+    <row r="64" ht="18" spans="1:21">
       <c r="A64" s="3" t="s">
         <v>693</v>
       </c>
@@ -18891,7 +18892,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="65" ht="18" hidden="1" spans="1:21">
+    <row r="65" ht="18" spans="1:21">
       <c r="A65" s="3" t="s">
         <v>709</v>
       </c>
@@ -18956,7 +18957,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="66" ht="18" hidden="1" spans="1:21">
+    <row r="66" ht="18" spans="1:21">
       <c r="A66" s="3" t="s">
         <v>720</v>
       </c>
@@ -19021,7 +19022,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="67" ht="18" hidden="1" spans="1:21">
+    <row r="67" ht="18" spans="1:21">
       <c r="A67" s="3" t="s">
         <v>727</v>
       </c>
@@ -19086,7 +19087,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="68" ht="18" hidden="1" spans="1:21">
+    <row r="68" ht="18" spans="1:21">
       <c r="A68" s="3" t="s">
         <v>740</v>
       </c>
@@ -19151,7 +19152,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="69" ht="18" hidden="1" spans="1:21">
+    <row r="69" ht="18" spans="1:21">
       <c r="A69" s="3" t="s">
         <v>751</v>
       </c>
@@ -19216,7 +19217,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="70" ht="18" hidden="1" spans="1:21">
+    <row r="70" ht="18" spans="1:21">
       <c r="A70" s="3" t="s">
         <v>761</v>
       </c>
@@ -19281,7 +19282,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="71" ht="18" hidden="1" spans="1:21">
+    <row r="71" ht="18" spans="1:21">
       <c r="A71" s="3" t="s">
         <v>773</v>
       </c>
@@ -19346,7 +19347,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="72" ht="18" hidden="1" spans="1:21">
+    <row r="72" ht="18" spans="1:21">
       <c r="A72" s="3" t="s">
         <v>784</v>
       </c>
@@ -19411,7 +19412,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="73" ht="18" hidden="1" spans="1:21">
+    <row r="73" ht="18" spans="1:21">
       <c r="A73" s="3" t="s">
         <v>790</v>
       </c>
@@ -19476,7 +19477,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="74" ht="18" hidden="1" spans="1:21">
+    <row r="74" ht="18" spans="1:21">
       <c r="A74" s="3" t="s">
         <v>797</v>
       </c>
@@ -19541,7 +19542,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="75" ht="18" hidden="1" spans="1:21">
+    <row r="75" ht="18" spans="1:21">
       <c r="A75" s="3" t="s">
         <v>804</v>
       </c>
@@ -19606,7 +19607,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="76" ht="18" hidden="1" spans="1:21">
+    <row r="76" ht="18" spans="1:21">
       <c r="A76" s="3" t="s">
         <v>804</v>
       </c>
@@ -19671,7 +19672,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="77" ht="18" hidden="1" spans="1:21">
+    <row r="77" ht="18" spans="1:21">
       <c r="A77" s="3" t="s">
         <v>817</v>
       </c>
@@ -19736,7 +19737,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="78" ht="18" hidden="1" spans="1:21">
+    <row r="78" ht="18" spans="1:21">
       <c r="A78" s="3" t="s">
         <v>825</v>
       </c>
@@ -19801,7 +19802,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="79" ht="18" hidden="1" spans="1:21">
+    <row r="79" ht="18" spans="1:21">
       <c r="A79" s="3" t="s">
         <v>838</v>
       </c>
@@ -19866,7 +19867,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="80" ht="18" hidden="1" spans="1:21">
+    <row r="80" ht="18" spans="1:21">
       <c r="A80" s="3" t="s">
         <v>848</v>
       </c>
@@ -19931,7 +19932,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="81" ht="18" hidden="1" spans="1:21">
+    <row r="81" ht="18" spans="1:21">
       <c r="A81" s="3" t="s">
         <v>858</v>
       </c>
@@ -19996,7 +19997,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="82" ht="18" hidden="1" spans="1:21">
+    <row r="82" ht="18" spans="1:21">
       <c r="A82" s="3" t="s">
         <v>869</v>
       </c>
@@ -20061,7 +20062,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="83" ht="18" hidden="1" spans="1:21">
+    <row r="83" ht="18" spans="1:21">
       <c r="A83" s="3" t="s">
         <v>879</v>
       </c>
@@ -20126,7 +20127,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="84" ht="18" hidden="1" spans="1:21">
+    <row r="84" ht="18" spans="1:21">
       <c r="A84" s="3" t="s">
         <v>879</v>
       </c>
@@ -20191,7 +20192,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="85" ht="18" hidden="1" spans="1:21">
+    <row r="85" ht="18" spans="1:21">
       <c r="A85" s="3" t="s">
         <v>879</v>
       </c>
@@ -20256,7 +20257,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="86" ht="18" hidden="1" spans="1:21">
+    <row r="86" ht="18" spans="1:21">
       <c r="A86" s="3" t="s">
         <v>892</v>
       </c>
@@ -20321,7 +20322,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="87" ht="18" hidden="1" spans="1:21">
+    <row r="87" ht="18" spans="1:21">
       <c r="A87" s="3" t="s">
         <v>903</v>
       </c>
@@ -20386,7 +20387,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="88" ht="18" hidden="1" spans="1:21">
+    <row r="88" ht="18" spans="1:21">
       <c r="A88" s="3" t="s">
         <v>911</v>
       </c>
@@ -20451,7 +20452,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="89" ht="18" hidden="1" spans="1:21">
+    <row r="89" ht="18" spans="1:21">
       <c r="A89" s="3" t="s">
         <v>923</v>
       </c>
@@ -20516,7 +20517,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="90" ht="18" hidden="1" spans="1:21">
+    <row r="90" ht="18" spans="1:21">
       <c r="A90" s="3" t="s">
         <v>931</v>
       </c>
@@ -20581,7 +20582,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="91" ht="18" hidden="1" spans="1:21">
+    <row r="91" ht="18" spans="1:21">
       <c r="A91" s="3" t="s">
         <v>936</v>
       </c>
@@ -20646,7 +20647,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="92" ht="18" hidden="1" spans="1:21">
+    <row r="92" ht="18" spans="1:21">
       <c r="A92" s="3" t="s">
         <v>949</v>
       </c>
@@ -20711,7 +20712,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="93" ht="18" hidden="1" spans="1:21">
+    <row r="93" ht="18" spans="1:21">
       <c r="A93" s="3" t="s">
         <v>960</v>
       </c>
@@ -20776,7 +20777,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="94" ht="18" hidden="1" spans="1:21">
+    <row r="94" ht="18" spans="1:21">
       <c r="A94" s="3" t="s">
         <v>960</v>
       </c>
@@ -20841,7 +20842,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="95" ht="18" hidden="1" spans="1:21">
+    <row r="95" ht="18" spans="1:21">
       <c r="A95" s="3" t="s">
         <v>975</v>
       </c>
@@ -20906,7 +20907,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="96" ht="18" hidden="1" spans="1:21">
+    <row r="96" ht="18" spans="1:21">
       <c r="A96" s="3" t="s">
         <v>984</v>
       </c>
@@ -20971,7 +20972,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="97" ht="18" hidden="1" spans="1:21">
+    <row r="97" ht="18" spans="1:21">
       <c r="A97" s="3" t="s">
         <v>998</v>
       </c>
@@ -21036,7 +21037,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="98" ht="18" hidden="1" spans="1:21">
+    <row r="98" ht="18" spans="1:21">
       <c r="A98" s="3" t="s">
         <v>1010</v>
       </c>
@@ -21101,7 +21102,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="99" ht="18" hidden="1" spans="1:21">
+    <row r="99" ht="18" spans="1:21">
       <c r="A99" s="3" t="s">
         <v>1021</v>
       </c>
@@ -21166,7 +21167,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="100" ht="18" hidden="1" spans="1:21">
+    <row r="100" ht="18" spans="1:21">
       <c r="A100" s="3" t="s">
         <v>1032</v>
       </c>
@@ -21231,7 +21232,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="101" ht="18" hidden="1" spans="1:21">
+    <row r="101" ht="18" spans="1:21">
       <c r="A101" s="3" t="s">
         <v>1041</v>
       </c>
@@ -21296,7 +21297,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="102" ht="18" hidden="1" spans="1:21">
+    <row r="102" ht="18" spans="1:21">
       <c r="A102" s="3" t="s">
         <v>1052</v>
       </c>
@@ -21361,7 +21362,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="103" ht="18" hidden="1" spans="1:21">
+    <row r="103" ht="18" spans="1:21">
       <c r="A103" s="3" t="s">
         <v>1065</v>
       </c>
@@ -21426,7 +21427,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="104" ht="18" hidden="1" spans="1:21">
+    <row r="104" ht="18" spans="1:21">
       <c r="A104" s="3" t="s">
         <v>1076</v>
       </c>
@@ -21491,7 +21492,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="105" ht="18" hidden="1" spans="1:21">
+    <row r="105" ht="18" spans="1:21">
       <c r="A105" s="3" t="s">
         <v>1088</v>
       </c>
@@ -21556,7 +21557,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="106" ht="18" hidden="1" spans="1:21">
+    <row r="106" ht="18" spans="1:21">
       <c r="A106" s="3" t="s">
         <v>1100</v>
       </c>
@@ -21621,7 +21622,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="107" ht="18" hidden="1" spans="1:21">
+    <row r="107" ht="18" spans="1:21">
       <c r="A107" s="3" t="s">
         <v>1112</v>
       </c>
@@ -21686,7 +21687,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="108" ht="18" hidden="1" spans="1:21">
+    <row r="108" ht="18" spans="1:21">
       <c r="A108" s="3" t="s">
         <v>1122</v>
       </c>
@@ -21751,7 +21752,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="109" ht="18" hidden="1" spans="1:21">
+    <row r="109" ht="18" spans="1:21">
       <c r="A109" s="3" t="s">
         <v>1130</v>
       </c>
@@ -21881,7 +21882,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="111" ht="18" hidden="1" spans="1:21">
+    <row r="111" ht="18" spans="1:21">
       <c r="A111" s="3" t="s">
         <v>1152</v>
       </c>
@@ -21946,7 +21947,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="112" ht="18" hidden="1" spans="1:21">
+    <row r="112" ht="18" spans="1:21">
       <c r="A112" s="3" t="s">
         <v>1164</v>
       </c>
@@ -22011,7 +22012,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="113" ht="18" hidden="1" spans="1:21">
+    <row r="113" ht="18" spans="1:21">
       <c r="A113" s="3" t="s">
         <v>1176</v>
       </c>
@@ -22076,7 +22077,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="114" ht="18" hidden="1" spans="1:21">
+    <row r="114" ht="18" spans="1:21">
       <c r="A114" s="9" t="s">
         <v>1186</v>
       </c>
@@ -22141,7 +22142,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="115" ht="18" hidden="1" spans="1:21">
+    <row r="115" ht="18" spans="1:21">
       <c r="A115" s="9" t="s">
         <v>1186</v>
       </c>
@@ -22206,7 +22207,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="116" ht="18" hidden="1" spans="1:21">
+    <row r="116" ht="18" spans="1:21">
       <c r="A116" s="3" t="s">
         <v>1197</v>
       </c>
@@ -22271,7 +22272,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="117" ht="18" hidden="1" spans="1:21">
+    <row r="117" ht="18" spans="1:21">
       <c r="A117" s="3" t="s">
         <v>1209</v>
       </c>
@@ -22336,7 +22337,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="118" ht="18" hidden="1" spans="1:21">
+    <row r="118" ht="18" spans="1:21">
       <c r="A118" s="3" t="s">
         <v>1219</v>
       </c>
@@ -22401,7 +22402,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="119" ht="18" hidden="1" spans="1:21">
+    <row r="119" ht="18" spans="1:21">
       <c r="A119" s="3" t="s">
         <v>1227</v>
       </c>
@@ -22466,7 +22467,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="120" ht="18" hidden="1" spans="1:21">
+    <row r="120" ht="18" spans="1:21">
       <c r="A120" s="3" t="s">
         <v>1238</v>
       </c>
@@ -22596,7 +22597,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="122" ht="18" hidden="1" spans="1:21">
+    <row r="122" ht="18" spans="1:21">
       <c r="A122" s="3" t="s">
         <v>1255</v>
       </c>
@@ -22661,7 +22662,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="123" ht="18" hidden="1" spans="1:21">
+    <row r="123" ht="18" spans="1:21">
       <c r="A123" s="3" t="s">
         <v>1265</v>
       </c>
@@ -22726,7 +22727,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="124" ht="18" hidden="1" spans="1:21">
+    <row r="124" ht="18" spans="1:21">
       <c r="A124" s="3" t="s">
         <v>1265</v>
       </c>
@@ -22791,7 +22792,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="125" ht="18" hidden="1" spans="1:21">
+    <row r="125" ht="18" spans="1:21">
       <c r="A125" s="3" t="s">
         <v>1281</v>
       </c>
@@ -22986,7 +22987,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="128" ht="18" hidden="1" spans="1:21">
+    <row r="128" ht="18" spans="1:21">
       <c r="A128" s="3" t="s">
         <v>1309</v>
       </c>
@@ -23051,7 +23052,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="129" ht="18" hidden="1" spans="1:21">
+    <row r="129" ht="18" spans="1:21">
       <c r="A129" s="3" t="s">
         <v>1318</v>
       </c>
@@ -23116,7 +23117,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="130" ht="18" hidden="1" spans="1:21">
+    <row r="130" ht="18" spans="1:21">
       <c r="A130" s="3" t="s">
         <v>1326</v>
       </c>
@@ -23181,7 +23182,7 @@
         <v>1334</v>
       </c>
     </row>
-    <row r="131" ht="18" hidden="1" spans="1:21">
+    <row r="131" ht="18" spans="1:21">
       <c r="A131" s="3" t="s">
         <v>1335</v>
       </c>
@@ -23246,7 +23247,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="132" ht="18" hidden="1" spans="1:21">
+    <row r="132" ht="18" spans="1:21">
       <c r="A132" s="3" t="s">
         <v>1341</v>
       </c>
@@ -23376,7 +23377,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="134" ht="18" hidden="1" spans="1:21">
+    <row r="134" ht="18" spans="1:21">
       <c r="A134" s="3" t="s">
         <v>1361</v>
       </c>
@@ -23441,7 +23442,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="135" ht="18" hidden="1" spans="1:21">
+    <row r="135" ht="18" spans="1:21">
       <c r="A135" s="3" t="s">
         <v>1374</v>
       </c>
@@ -23506,7 +23507,7 @@
         <v>1382</v>
       </c>
     </row>
-    <row r="136" ht="18" hidden="1" spans="1:21">
+    <row r="136" ht="18" spans="1:21">
       <c r="A136" s="3" t="s">
         <v>1383</v>
       </c>
@@ -23571,7 +23572,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="137" ht="18" hidden="1" spans="1:21">
+    <row r="137" ht="18" spans="1:21">
       <c r="A137" s="9" t="s">
         <v>1395</v>
       </c>
@@ -23636,7 +23637,7 @@
         <v>1403</v>
       </c>
     </row>
-    <row r="138" ht="18" hidden="1" spans="1:21">
+    <row r="138" ht="18" spans="1:21">
       <c r="A138" s="9" t="s">
         <v>1395</v>
       </c>
@@ -23701,7 +23702,7 @@
         <v>1403</v>
       </c>
     </row>
-    <row r="139" ht="18" hidden="1" spans="1:21">
+    <row r="139" ht="18" spans="1:21">
       <c r="A139" s="9" t="s">
         <v>1395</v>
       </c>
@@ -23766,7 +23767,7 @@
         <v>1403</v>
       </c>
     </row>
-    <row r="140" ht="18" hidden="1" spans="1:21">
+    <row r="140" ht="18" spans="1:21">
       <c r="A140" s="3" t="s">
         <v>1408</v>
       </c>
@@ -23831,7 +23832,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="141" ht="18" hidden="1" spans="1:21">
+    <row r="141" ht="18" spans="1:21">
       <c r="A141" s="3" t="s">
         <v>1417</v>
       </c>
@@ -23896,7 +23897,7 @@
         <v>1424</v>
       </c>
     </row>
-    <row r="142" ht="18" hidden="1" spans="1:21">
+    <row r="142" ht="18" spans="1:21">
       <c r="A142" s="3" t="s">
         <v>1425</v>
       </c>
@@ -23961,7 +23962,7 @@
         <v>1432</v>
       </c>
     </row>
-    <row r="143" ht="18" hidden="1" spans="1:21">
+    <row r="143" ht="18" spans="1:21">
       <c r="A143" s="3" t="s">
         <v>1433</v>
       </c>
@@ -24026,7 +24027,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="144" ht="18" hidden="1" spans="1:21">
+    <row r="144" ht="18" spans="1:21">
       <c r="A144" s="3" t="s">
         <v>1441</v>
       </c>
@@ -24091,7 +24092,7 @@
         <v>1447</v>
       </c>
     </row>
-    <row r="145" ht="18" hidden="1" spans="1:21">
+    <row r="145" ht="18" spans="1:21">
       <c r="A145" s="3" t="s">
         <v>1448</v>
       </c>
@@ -24156,7 +24157,7 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="146" ht="18" hidden="1" spans="1:21">
+    <row r="146" ht="18" spans="1:21">
       <c r="A146" s="3" t="s">
         <v>1460</v>
       </c>
@@ -24221,7 +24222,7 @@
         <v>1469</v>
       </c>
     </row>
-    <row r="147" ht="18" hidden="1" spans="1:21">
+    <row r="147" ht="18" spans="1:21">
       <c r="A147" s="3" t="s">
         <v>1470</v>
       </c>
@@ -24286,7 +24287,7 @@
         <v>1479</v>
       </c>
     </row>
-    <row r="148" ht="18" hidden="1" spans="1:21">
+    <row r="148" ht="18" spans="1:21">
       <c r="A148" s="3" t="s">
         <v>1480</v>
       </c>
@@ -24351,7 +24352,7 @@
         <v>1488</v>
       </c>
     </row>
-    <row r="149" ht="18" hidden="1" spans="1:21">
+    <row r="149" ht="18" spans="1:21">
       <c r="A149" s="3" t="s">
         <v>1489</v>
       </c>
@@ -24416,7 +24417,7 @@
         <v>1497</v>
       </c>
     </row>
-    <row r="150" ht="18" hidden="1" spans="1:21">
+    <row r="150" ht="18" spans="1:21">
       <c r="A150" s="3" t="s">
         <v>1498</v>
       </c>
@@ -24481,7 +24482,7 @@
         <v>1504</v>
       </c>
     </row>
-    <row r="151" ht="18" hidden="1" spans="1:21">
+    <row r="151" ht="18" spans="1:21">
       <c r="A151" s="3" t="s">
         <v>1505</v>
       </c>
@@ -24546,7 +24547,7 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="152" ht="18" hidden="1" spans="1:21">
+    <row r="152" ht="18" spans="1:21">
       <c r="A152" s="3" t="s">
         <v>1513</v>
       </c>
@@ -24611,7 +24612,7 @@
         <v>1521</v>
       </c>
     </row>
-    <row r="153" ht="18" hidden="1" spans="1:21">
+    <row r="153" ht="18" spans="1:21">
       <c r="A153" s="3" t="s">
         <v>1522</v>
       </c>
@@ -24741,7 +24742,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="155" ht="18" hidden="1" spans="1:21">
+    <row r="155" ht="18" spans="1:21">
       <c r="A155" s="3" t="s">
         <v>1540</v>
       </c>
@@ -24806,7 +24807,7 @@
         <v>1548</v>
       </c>
     </row>
-    <row r="156" ht="18" hidden="1" spans="1:21">
+    <row r="156" ht="18" spans="1:21">
       <c r="A156" s="3" t="s">
         <v>1549</v>
       </c>
@@ -24936,7 +24937,7 @@
         <v>1562</v>
       </c>
     </row>
-    <row r="158" ht="18" hidden="1" spans="1:21">
+    <row r="158" ht="18" spans="1:21">
       <c r="A158" s="3" t="s">
         <v>1563</v>
       </c>
@@ -25001,7 +25002,7 @@
         <v>1571</v>
       </c>
     </row>
-    <row r="159" ht="18" hidden="1" spans="1:21">
+    <row r="159" ht="18" spans="1:21">
       <c r="A159" s="3" t="s">
         <v>1572</v>
       </c>
@@ -25066,7 +25067,7 @@
         <v>1578</v>
       </c>
     </row>
-    <row r="160" ht="18" hidden="1" spans="1:21">
+    <row r="160" ht="18" spans="1:21">
       <c r="A160" s="3" t="s">
         <v>1579</v>
       </c>
@@ -25131,7 +25132,7 @@
         <v>1587</v>
       </c>
     </row>
-    <row r="161" ht="18" hidden="1" spans="1:21">
+    <row r="161" ht="18" spans="1:21">
       <c r="A161" s="3" t="s">
         <v>1588</v>
       </c>
@@ -25196,7 +25197,7 @@
         <v>1594</v>
       </c>
     </row>
-    <row r="162" ht="18" hidden="1" spans="1:21">
+    <row r="162" ht="18" spans="1:21">
       <c r="A162" s="3" t="s">
         <v>1595</v>
       </c>
@@ -25261,7 +25262,7 @@
         <v>1602</v>
       </c>
     </row>
-    <row r="163" ht="18" hidden="1" spans="1:21">
+    <row r="163" ht="18" spans="1:21">
       <c r="A163" s="3" t="s">
         <v>1603</v>
       </c>
@@ -25326,7 +25327,7 @@
         <v>1612</v>
       </c>
     </row>
-    <row r="164" ht="18" hidden="1" spans="1:21">
+    <row r="164" ht="18" spans="1:21">
       <c r="A164" s="3" t="s">
         <v>1613</v>
       </c>
@@ -25391,7 +25392,7 @@
         <v>1625</v>
       </c>
     </row>
-    <row r="165" ht="18" hidden="1" spans="1:21">
+    <row r="165" ht="18" spans="1:21">
       <c r="A165" s="3" t="s">
         <v>1626</v>
       </c>
@@ -25456,7 +25457,7 @@
         <v>1634</v>
       </c>
     </row>
-    <row r="166" ht="18" hidden="1" spans="1:21">
+    <row r="166" ht="18" spans="1:21">
       <c r="A166" s="3" t="s">
         <v>1635</v>
       </c>
@@ -25521,7 +25522,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="167" ht="18" hidden="1" spans="1:21">
+    <row r="167" ht="18" spans="1:21">
       <c r="A167" s="3" t="s">
         <v>1642</v>
       </c>
@@ -25586,7 +25587,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="168" ht="18" hidden="1" spans="1:21">
+    <row r="168" ht="18" spans="1:21">
       <c r="A168" s="3" t="s">
         <v>1652</v>
       </c>
@@ -25651,7 +25652,7 @@
         <v>1660</v>
       </c>
     </row>
-    <row r="169" ht="18" hidden="1" spans="1:21">
+    <row r="169" ht="18" spans="1:21">
       <c r="A169" s="3" t="s">
         <v>1661</v>
       </c>
@@ -25716,7 +25717,7 @@
         <v>1670</v>
       </c>
     </row>
-    <row r="170" ht="18" hidden="1" spans="1:21">
+    <row r="170" ht="18" spans="1:21">
       <c r="A170" s="3" t="s">
         <v>1671</v>
       </c>
@@ -25781,7 +25782,7 @@
         <v>1678</v>
       </c>
     </row>
-    <row r="171" ht="18" hidden="1" spans="1:21">
+    <row r="171" ht="18" spans="1:21">
       <c r="A171" s="3" t="s">
         <v>1671</v>
       </c>
@@ -25846,7 +25847,7 @@
         <v>1678</v>
       </c>
     </row>
-    <row r="172" ht="18" hidden="1" spans="1:21">
+    <row r="172" ht="18" spans="1:21">
       <c r="A172" s="3" t="s">
         <v>1684</v>
       </c>
@@ -25911,7 +25912,7 @@
         <v>1693</v>
       </c>
     </row>
-    <row r="173" ht="18" hidden="1" spans="1:21">
+    <row r="173" ht="18" spans="1:21">
       <c r="A173" s="3" t="s">
         <v>1694</v>
       </c>
@@ -26041,7 +26042,7 @@
         <v>1715</v>
       </c>
     </row>
-    <row r="175" ht="18" hidden="1" spans="1:21">
+    <row r="175" ht="18" spans="1:21">
       <c r="A175" s="3" t="s">
         <v>1716</v>
       </c>
@@ -26106,7 +26107,7 @@
         <v>1724</v>
       </c>
     </row>
-    <row r="176" ht="18" hidden="1" spans="1:21">
+    <row r="176" ht="18" spans="1:21">
       <c r="A176" s="3" t="s">
         <v>1725</v>
       </c>
@@ -26171,7 +26172,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="177" ht="18" hidden="1" spans="1:21">
+    <row r="177" ht="18" spans="1:21">
       <c r="A177" s="3" t="s">
         <v>1736</v>
       </c>
@@ -26236,7 +26237,7 @@
         <v>1745</v>
       </c>
     </row>
-    <row r="178" ht="18" hidden="1" spans="1:21">
+    <row r="178" ht="18" spans="1:21">
       <c r="A178" s="3" t="s">
         <v>1746</v>
       </c>
@@ -26301,7 +26302,7 @@
         <v>1753</v>
       </c>
     </row>
-    <row r="179" ht="18" hidden="1" spans="1:21">
+    <row r="179" ht="18" spans="1:21">
       <c r="A179" s="3" t="s">
         <v>1754</v>
       </c>
@@ -26366,7 +26367,7 @@
         <v>1760</v>
       </c>
     </row>
-    <row r="180" ht="18" hidden="1" spans="1:21">
+    <row r="180" ht="18" spans="1:21">
       <c r="A180" s="3" t="s">
         <v>1761</v>
       </c>
@@ -26431,7 +26432,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="181" ht="18" hidden="1" spans="1:21">
+    <row r="181" ht="18" spans="1:21">
       <c r="A181" s="3" t="s">
         <v>1772</v>
       </c>
@@ -26496,7 +26497,7 @@
         <v>1781</v>
       </c>
     </row>
-    <row r="182" ht="18" hidden="1" spans="1:21">
+    <row r="182" ht="18" spans="1:21">
       <c r="A182" s="3" t="s">
         <v>1782</v>
       </c>
@@ -26561,7 +26562,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="183" ht="18" hidden="1" spans="1:21">
+    <row r="183" ht="18" spans="1:21">
       <c r="A183" s="3" t="s">
         <v>1790</v>
       </c>
@@ -26691,7 +26692,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="185" ht="18" hidden="1" spans="1:21">
+    <row r="185" ht="18" spans="1:21">
       <c r="A185" s="3" t="s">
         <v>1811</v>
       </c>
@@ -26756,7 +26757,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="186" ht="18" hidden="1" spans="1:21">
+    <row r="186" ht="18" spans="1:21">
       <c r="A186" s="3" t="s">
         <v>1819</v>
       </c>
@@ -26821,7 +26822,7 @@
         <v>1830</v>
       </c>
     </row>
-    <row r="187" ht="18" hidden="1" spans="1:21">
+    <row r="187" ht="18" spans="1:21">
       <c r="A187" s="3" t="s">
         <v>1831</v>
       </c>
@@ -26886,7 +26887,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="188" ht="18" hidden="1" spans="1:21">
+    <row r="188" ht="18" spans="1:21">
       <c r="A188" s="9" t="s">
         <v>1840</v>
       </c>
@@ -26951,7 +26952,7 @@
         <v>1847</v>
       </c>
     </row>
-    <row r="189" ht="18" hidden="1" spans="1:21">
+    <row r="189" ht="18" spans="1:21">
       <c r="A189" s="9" t="s">
         <v>1840</v>
       </c>
@@ -27016,7 +27017,7 @@
         <v>1847</v>
       </c>
     </row>
-    <row r="190" ht="18" hidden="1" spans="1:21">
+    <row r="190" ht="18" spans="1:21">
       <c r="A190" s="3" t="s">
         <v>1851</v>
       </c>
@@ -27081,7 +27082,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="191" ht="18" hidden="1" spans="1:21">
+    <row r="191" ht="18" spans="1:21">
       <c r="A191" s="3" t="s">
         <v>1861</v>
       </c>
@@ -27146,7 +27147,7 @@
         <v>1871</v>
       </c>
     </row>
-    <row r="192" ht="18" hidden="1" spans="1:21">
+    <row r="192" ht="18" spans="1:21">
       <c r="A192" s="3" t="s">
         <v>1872</v>
       </c>
@@ -27211,7 +27212,7 @@
         <v>1881</v>
       </c>
     </row>
-    <row r="193" ht="18" hidden="1" spans="1:21">
+    <row r="193" ht="18" spans="1:21">
       <c r="A193" s="3" t="s">
         <v>1882</v>
       </c>
@@ -27276,7 +27277,7 @@
         <v>1891</v>
       </c>
     </row>
-    <row r="194" ht="18" hidden="1" spans="1:21">
+    <row r="194" ht="18" spans="1:21">
       <c r="A194" s="3" t="s">
         <v>1892</v>
       </c>
@@ -27341,7 +27342,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="195" ht="18" hidden="1" spans="1:21">
+    <row r="195" ht="18" spans="1:21">
       <c r="A195" s="3" t="s">
         <v>1900</v>
       </c>
@@ -27471,7 +27472,7 @@
         <v>1914</v>
       </c>
     </row>
-    <row r="197" ht="18" hidden="1" spans="1:21">
+    <row r="197" ht="18" spans="1:21">
       <c r="A197" s="3" t="s">
         <v>1915</v>
       </c>
@@ -27536,7 +27537,7 @@
         <v>1923</v>
       </c>
     </row>
-    <row r="198" ht="18" hidden="1" spans="1:21">
+    <row r="198" ht="18" spans="1:21">
       <c r="A198" s="3" t="s">
         <v>1924</v>
       </c>
@@ -27601,7 +27602,7 @@
         <v>1935</v>
       </c>
     </row>
-    <row r="199" ht="18" hidden="1" spans="1:21">
+    <row r="199" ht="18" spans="1:21">
       <c r="A199" s="3" t="s">
         <v>1936</v>
       </c>
@@ -27731,7 +27732,7 @@
         <v>1950</v>
       </c>
     </row>
-    <row r="201" ht="18" hidden="1" spans="1:21">
+    <row r="201" ht="18" spans="1:21">
       <c r="A201" s="3" t="s">
         <v>1951</v>
       </c>
@@ -27926,7 +27927,7 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="204" ht="18" hidden="1" spans="1:21">
+    <row r="204" ht="18" spans="1:21">
       <c r="A204" s="3" t="s">
         <v>1979</v>
       </c>
@@ -27991,7 +27992,7 @@
         <v>1988</v>
       </c>
     </row>
-    <row r="205" ht="18" hidden="1" spans="1:21">
+    <row r="205" ht="18" spans="1:21">
       <c r="A205" s="3" t="s">
         <v>1989</v>
       </c>
@@ -28056,7 +28057,7 @@
         <v>1997</v>
       </c>
     </row>
-    <row r="206" ht="18" hidden="1" spans="1:21">
+    <row r="206" ht="18" spans="1:21">
       <c r="A206" s="3" t="s">
         <v>1998</v>
       </c>
@@ -28121,7 +28122,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="207" ht="18" hidden="1" spans="1:21">
+    <row r="207" ht="18" spans="1:21">
       <c r="A207" s="3" t="s">
         <v>2006</v>
       </c>
@@ -28186,7 +28187,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="208" ht="18" hidden="1" spans="1:21">
+    <row r="208" ht="18" spans="1:21">
       <c r="A208" s="3" t="s">
         <v>2017</v>
       </c>
@@ -28251,7 +28252,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="209" ht="18" hidden="1" spans="1:21">
+    <row r="209" ht="18" spans="1:21">
       <c r="A209" s="3" t="s">
         <v>2017</v>
       </c>
@@ -28381,7 +28382,7 @@
         <v>2039</v>
       </c>
     </row>
-    <row r="211" ht="18" hidden="1" spans="1:21">
+    <row r="211" ht="18" spans="1:21">
       <c r="A211" s="3" t="s">
         <v>2040</v>
       </c>
@@ -28446,7 +28447,7 @@
         <v>2049</v>
       </c>
     </row>
-    <row r="212" ht="18" hidden="1" spans="1:21">
+    <row r="212" ht="18" spans="1:21">
       <c r="A212" s="3" t="s">
         <v>2050</v>
       </c>
@@ -28511,7 +28512,7 @@
         <v>2057</v>
       </c>
     </row>
-    <row r="213" ht="18" hidden="1" spans="1:21">
+    <row r="213" ht="18" spans="1:21">
       <c r="A213" s="3" t="s">
         <v>2058</v>
       </c>
@@ -28576,7 +28577,7 @@
         <v>2064</v>
       </c>
     </row>
-    <row r="214" ht="18" hidden="1" spans="1:21">
+    <row r="214" ht="18" spans="1:21">
       <c r="A214" s="3" t="s">
         <v>2065</v>
       </c>
@@ -28641,7 +28642,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="215" ht="18" hidden="1" spans="1:21">
+    <row r="215" ht="18" spans="1:21">
       <c r="A215" s="3" t="s">
         <v>2076</v>
       </c>
@@ -28706,7 +28707,7 @@
         <v>2084</v>
       </c>
     </row>
-    <row r="216" ht="18" hidden="1" spans="1:21">
+    <row r="216" ht="18" spans="1:21">
       <c r="A216" s="3" t="s">
         <v>2076</v>
       </c>
@@ -28771,7 +28772,7 @@
         <v>2084</v>
       </c>
     </row>
-    <row r="217" ht="18" hidden="1" spans="1:21">
+    <row r="217" ht="18" spans="1:21">
       <c r="A217" s="3" t="s">
         <v>2092</v>
       </c>
@@ -28836,7 +28837,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="218" ht="18" hidden="1" spans="1:21">
+    <row r="218" ht="18" spans="1:21">
       <c r="A218" s="3" t="s">
         <v>2101</v>
       </c>
@@ -28966,7 +28967,7 @@
         <v>2113</v>
       </c>
     </row>
-    <row r="220" ht="18" hidden="1" spans="1:21">
+    <row r="220" ht="18" spans="1:21">
       <c r="A220" s="3" t="s">
         <v>2114</v>
       </c>
@@ -29031,7 +29032,7 @@
         <v>2118</v>
       </c>
     </row>
-    <row r="221" ht="18" hidden="1" spans="1:21">
+    <row r="221" ht="18" spans="1:21">
       <c r="A221" s="3" t="s">
         <v>2119</v>
       </c>
@@ -29096,7 +29097,7 @@
         <v>2126</v>
       </c>
     </row>
-    <row r="222" ht="18" hidden="1" spans="1:21">
+    <row r="222" ht="18" spans="1:21">
       <c r="A222" s="3" t="s">
         <v>2127</v>
       </c>
@@ -29161,7 +29162,7 @@
         <v>2137</v>
       </c>
     </row>
-    <row r="223" ht="18" hidden="1" spans="1:21">
+    <row r="223" ht="18" spans="1:21">
       <c r="A223" s="3" t="s">
         <v>2138</v>
       </c>
@@ -29226,7 +29227,7 @@
         <v>2143</v>
       </c>
     </row>
-    <row r="224" ht="18" hidden="1" spans="1:21">
+    <row r="224" ht="18" spans="1:21">
       <c r="A224" s="3" t="s">
         <v>2144</v>
       </c>
@@ -29291,7 +29292,7 @@
         <v>2152</v>
       </c>
     </row>
-    <row r="225" ht="18" hidden="1" spans="1:21">
+    <row r="225" ht="18" spans="1:21">
       <c r="A225" s="3" t="s">
         <v>2153</v>
       </c>
@@ -29356,7 +29357,7 @@
         <v>2159</v>
       </c>
     </row>
-    <row r="226" ht="18" hidden="1" spans="1:21">
+    <row r="226" ht="18" spans="1:21">
       <c r="A226" s="3" t="s">
         <v>2160</v>
       </c>
@@ -29421,7 +29422,7 @@
         <v>2165</v>
       </c>
     </row>
-    <row r="227" ht="18" hidden="1" spans="1:21">
+    <row r="227" ht="18" spans="1:21">
       <c r="A227" s="3" t="s">
         <v>2166</v>
       </c>
@@ -29486,7 +29487,7 @@
         <v>2176</v>
       </c>
     </row>
-    <row r="228" ht="18" hidden="1" spans="1:21">
+    <row r="228" ht="18" spans="1:21">
       <c r="A228" s="3" t="s">
         <v>2166</v>
       </c>
@@ -29551,7 +29552,7 @@
         <v>2176</v>
       </c>
     </row>
-    <row r="229" ht="18" hidden="1" spans="1:21">
+    <row r="229" ht="18" spans="1:21">
       <c r="A229" s="3" t="s">
         <v>2183</v>
       </c>
@@ -29616,7 +29617,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="230" ht="18" hidden="1" spans="1:21">
+    <row r="230" ht="18" spans="1:21">
       <c r="A230" s="3" t="s">
         <v>2191</v>
       </c>
@@ -29681,7 +29682,7 @@
         <v>2196</v>
       </c>
     </row>
-    <row r="231" ht="18" hidden="1" spans="1:21">
+    <row r="231" ht="18" spans="1:21">
       <c r="A231" s="3" t="s">
         <v>2197</v>
       </c>
@@ -29746,7 +29747,7 @@
         <v>2204</v>
       </c>
     </row>
-    <row r="232" ht="18" hidden="1" spans="1:21">
+    <row r="232" ht="18" spans="1:21">
       <c r="A232" s="3" t="s">
         <v>2205</v>
       </c>
@@ -29876,7 +29877,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="234" ht="18" hidden="1" spans="1:21">
+    <row r="234" ht="18" spans="1:21">
       <c r="A234" s="3" t="s">
         <v>2221</v>
       </c>
@@ -29941,7 +29942,7 @@
         <v>2226</v>
       </c>
     </row>
-    <row r="235" ht="18" hidden="1" spans="1:21">
+    <row r="235" ht="18" spans="1:21">
       <c r="A235" s="3" t="s">
         <v>2227</v>
       </c>
@@ -30006,7 +30007,7 @@
         <v>2235</v>
       </c>
     </row>
-    <row r="236" ht="18" hidden="1" spans="1:21">
+    <row r="236" ht="18" spans="1:21">
       <c r="A236" s="3" t="s">
         <v>2236</v>
       </c>
@@ -30071,7 +30072,7 @@
         <v>2243</v>
       </c>
     </row>
-    <row r="237" ht="18" hidden="1" spans="1:21">
+    <row r="237" ht="18" spans="1:21">
       <c r="A237" s="3" t="s">
         <v>2244</v>
       </c>
@@ -30136,7 +30137,7 @@
         <v>2252</v>
       </c>
     </row>
-    <row r="238" ht="18" hidden="1" spans="1:21">
+    <row r="238" ht="18" spans="1:21">
       <c r="A238" s="3" t="s">
         <v>2244</v>
       </c>
@@ -30201,7 +30202,7 @@
         <v>2252</v>
       </c>
     </row>
-    <row r="239" ht="18" hidden="1" spans="1:21">
+    <row r="239" ht="18" spans="1:21">
       <c r="A239" s="3" t="s">
         <v>2258</v>
       </c>
@@ -30266,7 +30267,7 @@
         <v>2263</v>
       </c>
     </row>
-    <row r="240" ht="18" hidden="1" spans="1:21">
+    <row r="240" ht="18" spans="1:21">
       <c r="A240" s="3" t="s">
         <v>2264</v>
       </c>
@@ -30331,7 +30332,7 @@
         <v>2270</v>
       </c>
     </row>
-    <row r="241" ht="18" hidden="1" spans="1:21">
+    <row r="241" ht="18" spans="1:21">
       <c r="A241" s="3" t="s">
         <v>2271</v>
       </c>
@@ -30396,7 +30397,7 @@
         <v>2278</v>
       </c>
     </row>
-    <row r="242" ht="18" hidden="1" spans="1:21">
+    <row r="242" ht="18" spans="1:21">
       <c r="A242" s="3" t="s">
         <v>2279</v>
       </c>
@@ -30461,7 +30462,7 @@
         <v>2287</v>
       </c>
     </row>
-    <row r="243" ht="18" hidden="1" spans="1:21">
+    <row r="243" ht="18" spans="1:21">
       <c r="A243" s="3" t="s">
         <v>2288</v>
       </c>
@@ -30526,7 +30527,7 @@
         <v>2297</v>
       </c>
     </row>
-    <row r="244" ht="18" hidden="1" spans="1:21">
+    <row r="244" ht="18" spans="1:21">
       <c r="A244" s="3" t="s">
         <v>2298</v>
       </c>
@@ -30591,7 +30592,7 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="245" ht="18" hidden="1" spans="1:21">
+    <row r="245" ht="18" spans="1:21">
       <c r="A245" s="3" t="s">
         <v>2306</v>
       </c>
@@ -30656,7 +30657,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="246" ht="18" hidden="1" spans="1:21">
+    <row r="246" ht="18" spans="1:21">
       <c r="A246" s="3" t="s">
         <v>2315</v>
       </c>
@@ -30786,7 +30787,7 @@
         <v>2326</v>
       </c>
     </row>
-    <row r="248" ht="18" hidden="1" spans="1:21">
+    <row r="248" ht="18" spans="1:21">
       <c r="A248" s="3" t="s">
         <v>2327</v>
       </c>
@@ -30851,7 +30852,7 @@
         <v>2333</v>
       </c>
     </row>
-    <row r="249" ht="18" hidden="1" spans="1:21">
+    <row r="249" ht="18" spans="1:21">
       <c r="A249" s="3" t="s">
         <v>2334</v>
       </c>
@@ -30916,7 +30917,7 @@
         <v>2340</v>
       </c>
     </row>
-    <row r="250" ht="18" hidden="1" spans="1:21">
+    <row r="250" ht="18" spans="1:21">
       <c r="A250" s="3" t="s">
         <v>2341</v>
       </c>
@@ -30981,7 +30982,7 @@
         <v>2350</v>
       </c>
     </row>
-    <row r="251" ht="18" hidden="1" spans="1:21">
+    <row r="251" ht="18" spans="1:21">
       <c r="A251" s="3" t="s">
         <v>2341</v>
       </c>
@@ -31046,7 +31047,7 @@
         <v>2350</v>
       </c>
     </row>
-    <row r="252" ht="18" hidden="1" spans="1:21">
+    <row r="252" ht="18" spans="1:21">
       <c r="A252" s="3" t="s">
         <v>2356</v>
       </c>
@@ -31111,7 +31112,7 @@
         <v>2361</v>
       </c>
     </row>
-    <row r="253" ht="18" hidden="1" spans="1:21">
+    <row r="253" ht="18" spans="1:21">
       <c r="A253" s="3" t="s">
         <v>2362</v>
       </c>
@@ -31176,7 +31177,7 @@
         <v>2369</v>
       </c>
     </row>
-    <row r="254" ht="18" hidden="1" spans="1:21">
+    <row r="254" ht="18" spans="1:21">
       <c r="A254" s="3" t="s">
         <v>2370</v>
       </c>
@@ -31241,7 +31242,7 @@
         <v>2379</v>
       </c>
     </row>
-    <row r="255" ht="18" hidden="1" spans="1:21">
+    <row r="255" ht="18" spans="1:21">
       <c r="A255" s="3" t="s">
         <v>2370</v>
       </c>
@@ -31306,7 +31307,7 @@
         <v>2379</v>
       </c>
     </row>
-    <row r="256" ht="18" hidden="1" spans="1:21">
+    <row r="256" ht="18" spans="1:21">
       <c r="A256" s="3" t="s">
         <v>2370</v>
       </c>
@@ -31371,7 +31372,7 @@
         <v>2379</v>
       </c>
     </row>
-    <row r="257" ht="18" hidden="1" spans="1:21">
+    <row r="257" ht="18" spans="1:21">
       <c r="A257" s="3" t="s">
         <v>2390</v>
       </c>
@@ -31436,7 +31437,7 @@
         <v>2395</v>
       </c>
     </row>
-    <row r="258" ht="18" hidden="1" spans="1:21">
+    <row r="258" ht="18" spans="1:21">
       <c r="A258" s="3" t="s">
         <v>2396</v>
       </c>
@@ -31501,7 +31502,7 @@
         <v>2402</v>
       </c>
     </row>
-    <row r="259" ht="18" hidden="1" spans="1:21">
+    <row r="259" ht="18" spans="1:21">
       <c r="A259" s="3" t="s">
         <v>2403</v>
       </c>
@@ -31566,7 +31567,7 @@
         <v>2410</v>
       </c>
     </row>
-    <row r="260" ht="18" hidden="1" spans="1:21">
+    <row r="260" ht="18" spans="1:21">
       <c r="A260" s="3" t="s">
         <v>2411</v>
       </c>
@@ -31631,7 +31632,7 @@
         <v>2420</v>
       </c>
     </row>
-    <row r="261" ht="18" hidden="1" spans="1:21">
+    <row r="261" ht="18" spans="1:21">
       <c r="A261" s="9" t="s">
         <v>2421</v>
       </c>
@@ -31761,7 +31762,7 @@
         <v>2434</v>
       </c>
     </row>
-    <row r="263" ht="18" hidden="1" spans="1:21">
+    <row r="263" ht="18" spans="1:21">
       <c r="A263" s="9" t="s">
         <v>2435</v>
       </c>
@@ -31826,7 +31827,7 @@
         <v>2438</v>
       </c>
     </row>
-    <row r="264" ht="18" hidden="1" spans="1:21">
+    <row r="264" ht="18" spans="1:21">
       <c r="A264" s="9" t="s">
         <v>2439</v>
       </c>
@@ -31891,7 +31892,7 @@
         <v>2444</v>
       </c>
     </row>
-    <row r="265" ht="18" hidden="1" spans="1:21">
+    <row r="265" ht="18" spans="1:21">
       <c r="A265" s="9" t="s">
         <v>2439</v>
       </c>
@@ -31956,7 +31957,7 @@
         <v>2444</v>
       </c>
     </row>
-    <row r="266" ht="18" hidden="1" spans="1:21">
+    <row r="266" ht="18" spans="1:21">
       <c r="A266" s="9" t="s">
         <v>2447</v>
       </c>
@@ -32021,7 +32022,7 @@
         <v>2451</v>
       </c>
     </row>
-    <row r="267" ht="18" hidden="1" spans="1:21">
+    <row r="267" ht="18" spans="1:21">
       <c r="A267" s="9" t="s">
         <v>2452</v>
       </c>
@@ -32084,7 +32085,7 @@
       </c>
       <c r="U267" s="3"/>
     </row>
-    <row r="268" ht="18" hidden="1" spans="1:21">
+    <row r="268" ht="18" spans="1:21">
       <c r="A268" s="9" t="s">
         <v>2456</v>
       </c>
@@ -32149,7 +32150,7 @@
         <v>2460</v>
       </c>
     </row>
-    <row r="269" ht="18" hidden="1" spans="1:21">
+    <row r="269" ht="18" spans="1:21">
       <c r="A269" s="9" t="s">
         <v>2461</v>
       </c>
@@ -32212,7 +32213,7 @@
       </c>
       <c r="U269" s="3"/>
     </row>
-    <row r="270" ht="18" hidden="1" spans="1:21">
+    <row r="270" ht="18" spans="1:21">
       <c r="A270" s="9" t="s">
         <v>2468</v>
       </c>
@@ -32275,7 +32276,7 @@
       </c>
       <c r="U270" s="3"/>
     </row>
-    <row r="271" ht="18" hidden="1" spans="1:21">
+    <row r="271" ht="18" spans="1:21">
       <c r="A271" s="9" t="s">
         <v>2468</v>
       </c>
@@ -32338,7 +32339,7 @@
       </c>
       <c r="U271" s="3"/>
     </row>
-    <row r="272" ht="18" hidden="1" spans="1:21">
+    <row r="272" ht="18" spans="1:21">
       <c r="A272" s="9" t="s">
         <v>2474</v>
       </c>
@@ -32403,17 +32404,6 @@
     </row>
   </sheetData>
   <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:U272" etc:filterBottomFollowUsedRange="0">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="Hydrogenation reaction"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="7">
-      <filters>
-        <filter val="C₈-C₁₆ Hydrocarbons"/>
-        <filter val="C₈-C₁₆ n-Alkanes"/>
-      </filters>
-    </filterColumn>
     <extLst/>
   </autoFilter>
   <conditionalFormatting sqref="A115">

--- a/12-21-entities-DeepSeek-chat.xlsx
+++ b/12-21-entities-DeepSeek-chat.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5436" uniqueCount="2394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5436" uniqueCount="2397">
   <si>
     <t>File</t>
   </si>
@@ -4301,10 +4301,10 @@
     <t>Loblolly pine</t>
   </si>
   <si>
-    <t>Pt-related, Al-related</t>
-  </si>
-  <si>
-    <t>0.5 wt% Pt on 85% anatase/15% rutile TiO₂, SiO₂/Al₂O₃ ratio approximately 30 mol/mol</t>
+    <t>Ni-Mo-related</t>
+  </si>
+  <si>
+    <t>NiMo/Al₂O₃</t>
   </si>
   <si>
     <t>500-525°C</t>
@@ -6026,10 +6026,10 @@
     <t>Lignin pyrolysis oil</t>
   </si>
   <si>
-    <t>Ru-related, Ru-Re-related</t>
-  </si>
-  <si>
-    <t>5 wt% Ru/C, 4 wt% Ru and 3.64 wt% Re/C</t>
+    <t>Ru-Re-related</t>
+  </si>
+  <si>
+    <t>4 wt% Ru-3.64 wt% Re/C</t>
   </si>
   <si>
     <t>C₈-C₁₄ Branched Cycloalkanes</t>
@@ -6262,10 +6262,10 @@
     <t>Castor oil</t>
   </si>
   <si>
-    <t>Ni-related, Ni-Ag-related</t>
-  </si>
-  <si>
-    <t>Ni/SAPO-11, NiAg/SAPO-11</t>
+    <t>Ni-Ag-related</t>
+  </si>
+  <si>
+    <t>NiAg/SAPO-11</t>
   </si>
   <si>
     <t>C₈-C₁₅ alkanes (aviation fuel)</t>
@@ -6427,9 +6427,6 @@
     </r>
   </si>
   <si>
-    <t>Ni-Mo-related</t>
-  </si>
-  <si>
     <t>Ni (4.0 wt %), Mo (12 wt %) on modified USY</t>
   </si>
   <si>
@@ -6483,7 +6480,7 @@
     <t>Mixed fatty acids</t>
   </si>
   <si>
-    <t>Ni-ZSM-5 (with different Ni loading or Si/Al ratio)</t>
+    <t>10 wt% Ni/ZSM-5</t>
   </si>
   <si>
     <t>Aromatic hydrocarbons (toluene C₇H₈, ethylbenzene C₈H₁₀, xylenes C₈H₁₀, propylbenzene C₉H₁₂, 1-ethyl-2-methylbenzene C₉H₁₂), alkanes, olefins, cyclic hydrocarbons</t>
@@ -6772,7 +6769,7 @@
     <t>Soy methyl ester</t>
   </si>
   <si>
-    <t>Ni/γ-Al₂O₃, Ni/Beta</t>
+    <t>Ni/γ-Al₂O₃</t>
   </si>
   <si>
     <t>270-300°C</t>
@@ -6825,12 +6822,6 @@
     <t>Palm oil derived hydroalkanes</t>
   </si>
   <si>
-    <t>Ni-Ag-related</t>
-  </si>
-  <si>
-    <t>NiAg/SAPO-11</t>
-  </si>
-  <si>
     <t>H₂:Oil = 13.6:1 (mol/mol)</t>
   </si>
   <si>
@@ -7600,7 +7591,7 @@
     </r>
   </si>
   <si>
-    <t>Ni species immobilized on hierarchical porous ZSM-22 (HZ-x)</t>
+    <t>Ni on ZSM-22</t>
   </si>
   <si>
     <t>H₂:Oil = 400:1</t>
@@ -7812,7 +7803,7 @@
     <t>Aromatic-rich oil</t>
   </si>
   <si>
-    <t>Ni nanoparticles on M-Beta zeolite support (10.3 wt% Ni)</t>
+    <t>10.3 wt% Ni-Beta</t>
   </si>
   <si>
     <t>C₈-C₁₄ branched cycloalkanes mixture</t>
@@ -8062,6 +8053,9 @@
     </r>
   </si>
   <si>
+    <t>TEOS-modified Ni/ZSM-5</t>
+  </si>
+  <si>
     <t>C₉-C₁₅ alkanes (aviation-fuel-range)</t>
   </si>
   <si>
@@ -8171,7 +8165,7 @@
     </r>
   </si>
   <si>
-    <t>Fe(3)-Cu(13)/SiO₂-Al₂O₃</t>
+    <t>Fe-Cu/SiO₂-Al₂O₃</t>
   </si>
   <si>
     <t>2.07 MPa</t>
@@ -8368,6 +8362,9 @@
     <t>Long-chain unsaturated fatty acid methyl esters</t>
   </si>
   <si>
+    <t>10 wt% Ni/HZSM-5 (Si/Al = 25)</t>
+  </si>
+  <si>
     <t>C₅-C₁₈ n-Alkanes</t>
   </si>
   <si>
@@ -10195,7 +10192,7 @@
     <t>Palmitic acid</t>
   </si>
   <si>
-    <t>Ni/H-MCM-49 (5 wt% loading NiO)</t>
+    <t>5 wt% NiO/H-MCM-49</t>
   </si>
   <si>
     <t>C₈-C₁₆ alkanes (specifically C₁₂H₂₆, C₁₃H₂₈, C₁₄H₃₀, C₁₅H₃₂, C₁₆H₃₄)</t>
@@ -10239,7 +10236,10 @@
     </r>
   </si>
   <si>
-    <t>Gases</t>
+    <t>Ni/Des-H-Beta</t>
+  </si>
+  <si>
+    <t>C₅-C₁₅ n-Alkanes</t>
   </si>
   <si>
     <t>WHSV 4 h⁻¹</t>
@@ -10542,7 +10542,7 @@
     <t>Lauric acid</t>
   </si>
   <si>
-    <t>1.5 wt% Pd supported on SBA-15, HZSM-5, or USY</t>
+    <t>Pd/SBA-15</t>
   </si>
   <si>
     <t>PKO:PS Foam = 2.5:1 (wt/wt)</t>
@@ -10840,6 +10840,9 @@
     <t>10.1016/j.apcatb.2015.01.022</t>
   </si>
   <si>
+    <t>Ni/H-ZSM-5</t>
+  </si>
+  <si>
     <t>5,5'-(butane-1,1-diyl)bis(2-methylfuran) (C₁₄H₁₈O₂)</t>
   </si>
   <si>
@@ -11199,7 +11202,7 @@
     </r>
   </si>
   <si>
-    <t>S₁ = ZSM-5/SAPO-11</t>
+    <t>ZSM-5/SAPO-11</t>
   </si>
   <si>
     <t>Alternative jet fuel (alkanes C₁₁–C₂₉ and aromatics C₁₈–C₂₄)</t>
@@ -11252,7 +11255,7 @@
     </r>
   </si>
   <si>
-    <t>10 wt% Ni, ZSM-5, SAPO-11</t>
+    <t>10 wt% Ni/ZSM-5.SAPO-11</t>
   </si>
   <si>
     <t>Alternative jet fuel (C₈-C₁₅ hydrocarbons)</t>
@@ -11296,7 +11299,7 @@
     </r>
   </si>
   <si>
-    <t>carbon nanotubes (CNTs), H-ZSM-5</t>
+    <t>Co-Mo/CNT-H-ZSM-5</t>
   </si>
   <si>
     <t>n-C₈-C₁₆ alkanes</t>
@@ -12231,6 +12234,9 @@
     </r>
   </si>
   <si>
+    <t>Ni/HZSM-400</t>
+  </si>
+  <si>
     <t>Valeric acid (C₅H₁₀O₂)</t>
   </si>
   <si>
@@ -12875,7 +12881,7 @@
     </r>
   </si>
   <si>
-    <t>10 wt% Co on ZSM-5</t>
+    <t>10 wt% Co/ZSM-5</t>
   </si>
   <si>
     <t>n-Alkanes (C₇-C₁₈)</t>
@@ -13336,6 +13342,9 @@
   </si>
   <si>
     <t>Ru modified Co/SiO2/HZSM-5 catalysts for jet fuel-range hydrocarbons synthesis</t>
+  </si>
+  <si>
+    <t>Ru-Co-related</t>
   </si>
   <si>
     <t>Ru-Co/SiO2/HZSM-5</t>
@@ -13547,7 +13556,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -13563,6 +13572,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13904,7 +13919,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -13928,16 +13943,16 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -13946,89 +13961,89 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -14048,10 +14063,13 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -14411,8 +14429,8 @@
   <sheetPr/>
   <dimension ref="A1:U272"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A249" workbookViewId="0">
-      <selection activeCell="C267" sqref="C267"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:U272"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="51.6283185840708" defaultRowHeight="13.5"/>
@@ -19120,7 +19138,7 @@
       <c r="F73" s="3" t="s">
         <v>790</v>
       </c>
-      <c r="G73" s="3" t="s">
+      <c r="G73" s="9" t="s">
         <v>791</v>
       </c>
       <c r="H73" s="5" t="s">
@@ -21496,7 +21514,7 @@
       <c r="R109" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="S109" s="9" t="s">
+      <c r="S109" s="10" t="s">
         <v>1118</v>
       </c>
       <c r="T109" s="3" t="s">
@@ -22299,10 +22317,10 @@
         <v>888</v>
       </c>
       <c r="F122" s="3" t="s">
+        <v>790</v>
+      </c>
+      <c r="G122" s="3" t="s">
         <v>1224</v>
-      </c>
-      <c r="G122" s="3" t="s">
-        <v>1225</v>
       </c>
       <c r="H122" s="4" t="s">
         <v>1138</v>
@@ -22314,10 +22332,10 @@
         <v>63</v>
       </c>
       <c r="K122" s="3" t="s">
+        <v>1225</v>
+      </c>
+      <c r="L122" s="3" t="s">
         <v>1226</v>
-      </c>
-      <c r="L122" s="3" t="s">
-        <v>1227</v>
       </c>
       <c r="M122" s="3" t="s">
         <v>31</v>
@@ -22335,21 +22353,21 @@
         <v>34</v>
       </c>
       <c r="R122" s="3" t="s">
+        <v>1227</v>
+      </c>
+      <c r="S122" s="3" t="s">
         <v>1228</v>
       </c>
-      <c r="S122" s="3" t="s">
+      <c r="T122" s="3" t="s">
         <v>1229</v>
       </c>
-      <c r="T122" s="3" t="s">
+      <c r="U122" s="3" t="s">
         <v>1230</v>
-      </c>
-      <c r="U122" s="3" t="s">
-        <v>1231</v>
       </c>
     </row>
     <row r="123" ht="18" spans="1:21">
       <c r="A123" s="3" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="B123" s="3" t="s">
         <v>1135</v>
@@ -22361,19 +22379,19 @@
         <v>41</v>
       </c>
       <c r="E123" s="3" t="s">
+        <v>1232</v>
+      </c>
+      <c r="F123" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="G123" s="11" t="s">
         <v>1233</v>
-      </c>
-      <c r="F123" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="G123" s="10" t="s">
-        <v>1234</v>
       </c>
       <c r="H123" s="4" t="s">
         <v>315</v>
       </c>
       <c r="I123" s="3" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="J123" s="3" t="s">
         <v>63</v>
@@ -22382,13 +22400,13 @@
         <v>31</v>
       </c>
       <c r="L123" s="3" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="M123" s="3" t="s">
         <v>198</v>
       </c>
       <c r="N123" s="3" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="O123" s="3" t="s">
         <v>107</v>
@@ -22403,7 +22421,7 @@
         <v>31</v>
       </c>
       <c r="S123" s="3" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="T123" s="3" t="s">
         <v>1093</v>
@@ -22414,7 +22432,7 @@
     </row>
     <row r="124" ht="18" spans="1:21">
       <c r="A124" s="3" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="B124" s="3" t="s">
         <v>1135</v>
@@ -22426,34 +22444,34 @@
         <v>195</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="F124" s="3" t="s">
         <v>193</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="H124" s="4" t="s">
         <v>1138</v>
       </c>
       <c r="I124" s="3" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="J124" s="3" t="s">
         <v>63</v>
       </c>
       <c r="K124" s="3" t="s">
+        <v>1242</v>
+      </c>
+      <c r="L124" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M124" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N124" s="3" t="s">
         <v>1243</v>
-      </c>
-      <c r="L124" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="M124" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="N124" s="3" t="s">
-        <v>1244</v>
       </c>
       <c r="O124" s="3" t="s">
         <v>124</v>
@@ -22468,18 +22486,18 @@
         <v>31</v>
       </c>
       <c r="S124" s="3" t="s">
+        <v>1244</v>
+      </c>
+      <c r="T124" s="3" t="s">
         <v>1245</v>
       </c>
-      <c r="T124" s="3" t="s">
+      <c r="U124" s="3" t="s">
         <v>1246</v>
-      </c>
-      <c r="U124" s="3" t="s">
-        <v>1247</v>
       </c>
     </row>
     <row r="125" ht="18" spans="1:21">
       <c r="A125" s="3" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="B125" s="3" t="s">
         <v>1135</v>
@@ -22497,28 +22515,28 @@
         <v>193</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="H125" s="4" t="s">
         <v>61</v>
       </c>
       <c r="I125" s="3" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="J125" s="3" t="s">
         <v>63</v>
       </c>
       <c r="K125" s="3" t="s">
+        <v>1250</v>
+      </c>
+      <c r="L125" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M125" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N125" s="3" t="s">
         <v>1251</v>
-      </c>
-      <c r="L125" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="M125" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="N125" s="3" t="s">
-        <v>1252</v>
       </c>
       <c r="O125" s="3" t="s">
         <v>124</v>
@@ -22533,18 +22551,18 @@
         <v>31</v>
       </c>
       <c r="S125" s="3" t="s">
+        <v>1252</v>
+      </c>
+      <c r="T125" s="3" t="s">
         <v>1253</v>
       </c>
-      <c r="T125" s="3" t="s">
+      <c r="U125" s="3" t="s">
         <v>1254</v>
-      </c>
-      <c r="U125" s="3" t="s">
-        <v>1255</v>
       </c>
     </row>
     <row r="126" ht="18" spans="1:21">
       <c r="A126" s="3" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="B126" s="3" t="s">
         <v>1135</v>
@@ -22556,34 +22574,34 @@
         <v>41</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="F126" s="3" t="s">
         <v>193</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="H126" s="4" t="s">
         <v>163</v>
       </c>
       <c r="I126" s="3" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="J126" s="3" t="s">
         <v>63</v>
       </c>
       <c r="K126" s="3" t="s">
+        <v>1258</v>
+      </c>
+      <c r="L126" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M126" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N126" s="3" t="s">
         <v>1259</v>
-      </c>
-      <c r="L126" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="M126" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="N126" s="3" t="s">
-        <v>1260</v>
       </c>
       <c r="O126" s="3" t="s">
         <v>124</v>
@@ -22598,18 +22616,18 @@
         <v>31</v>
       </c>
       <c r="S126" s="3" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="T126" s="3" t="s">
+        <v>1253</v>
+      </c>
+      <c r="U126" s="3" t="s">
         <v>1254</v>
-      </c>
-      <c r="U126" s="3" t="s">
-        <v>1255</v>
       </c>
     </row>
     <row r="127" ht="18" spans="1:21">
       <c r="A127" s="3" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="B127" s="3" t="s">
         <v>1135</v>
@@ -22621,34 +22639,34 @@
         <v>195</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="F127" s="3" t="s">
         <v>43</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="H127" s="4" t="s">
         <v>275</v>
       </c>
       <c r="I127" s="3" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="J127" s="3" t="s">
         <v>63</v>
       </c>
       <c r="K127" s="3" t="s">
+        <v>1264</v>
+      </c>
+      <c r="L127" s="3" t="s">
         <v>1265</v>
       </c>
-      <c r="L127" s="3" t="s">
-        <v>1266</v>
-      </c>
       <c r="M127" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N127" s="3" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="O127" s="3" t="s">
         <v>107</v>
@@ -22657,24 +22675,24 @@
         <v>31</v>
       </c>
       <c r="Q127" s="3" t="s">
+        <v>1266</v>
+      </c>
+      <c r="R127" s="3" t="s">
         <v>1267</v>
       </c>
-      <c r="R127" s="3" t="s">
+      <c r="S127" s="3" t="s">
         <v>1268</v>
       </c>
-      <c r="S127" s="3" t="s">
+      <c r="T127" s="3" t="s">
         <v>1269</v>
       </c>
-      <c r="T127" s="3" t="s">
+      <c r="U127" s="3" t="s">
         <v>1270</v>
-      </c>
-      <c r="U127" s="3" t="s">
-        <v>1271</v>
       </c>
     </row>
     <row r="128" ht="18" spans="1:21">
       <c r="A128" s="3" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="B128" s="3" t="s">
         <v>1135</v>
@@ -22683,22 +22701,22 @@
         <v>2019</v>
       </c>
       <c r="D128" s="3" t="s">
+        <v>1272</v>
+      </c>
+      <c r="E128" s="3" t="s">
         <v>1273</v>
       </c>
-      <c r="E128" s="3" t="s">
+      <c r="F128" s="3" t="s">
+        <v>790</v>
+      </c>
+      <c r="G128" s="3" t="s">
         <v>1274</v>
-      </c>
-      <c r="F128" s="3" t="s">
-        <v>1224</v>
-      </c>
-      <c r="G128" s="3" t="s">
-        <v>1275</v>
       </c>
       <c r="H128" s="4" t="s">
         <v>537</v>
       </c>
       <c r="I128" s="3" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="J128" s="3" t="s">
         <v>63</v>
@@ -22725,21 +22743,21 @@
         <v>34</v>
       </c>
       <c r="R128" s="3" t="s">
+        <v>1276</v>
+      </c>
+      <c r="S128" s="3" t="s">
         <v>1277</v>
       </c>
-      <c r="S128" s="3" t="s">
+      <c r="T128" s="3" t="s">
         <v>1278</v>
       </c>
-      <c r="T128" s="3" t="s">
+      <c r="U128" s="3" t="s">
         <v>1279</v>
-      </c>
-      <c r="U128" s="3" t="s">
-        <v>1280</v>
       </c>
     </row>
     <row r="129" ht="18" spans="1:21">
       <c r="A129" s="3" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="B129" s="3" t="s">
         <v>1135</v>
@@ -22751,19 +22769,19 @@
         <v>458</v>
       </c>
       <c r="E129" s="3" t="s">
+        <v>1280</v>
+      </c>
+      <c r="F129" s="3" t="s">
+        <v>790</v>
+      </c>
+      <c r="G129" s="3" t="s">
         <v>1281</v>
-      </c>
-      <c r="F129" s="3" t="s">
-        <v>1224</v>
-      </c>
-      <c r="G129" s="3" t="s">
-        <v>1282</v>
       </c>
       <c r="H129" s="4" t="s">
         <v>523</v>
       </c>
       <c r="I129" s="3" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="J129" s="3" t="s">
         <v>63</v>
@@ -22793,18 +22811,18 @@
         <v>31</v>
       </c>
       <c r="S129" s="3" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="T129" s="3" t="s">
+        <v>1278</v>
+      </c>
+      <c r="U129" s="3" t="s">
         <v>1279</v>
-      </c>
-      <c r="U129" s="3" t="s">
-        <v>1280</v>
       </c>
     </row>
     <row r="130" ht="18" spans="1:21">
       <c r="A130" s="3" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="B130" s="3" t="s">
         <v>1135</v>
@@ -22816,13 +22834,13 @@
         <v>41</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="F130" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G130" s="3" t="s">
-        <v>1287</v>
+      <c r="G130" s="9" t="s">
+        <v>1286</v>
       </c>
       <c r="H130" s="4" t="s">
         <v>867</v>
@@ -22843,33 +22861,33 @@
         <v>433</v>
       </c>
       <c r="N130" s="3" t="s">
+        <v>1287</v>
+      </c>
+      <c r="O130" s="3" t="s">
         <v>1288</v>
       </c>
-      <c r="O130" s="3" t="s">
+      <c r="P130" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q130" s="3" t="s">
         <v>1289</v>
       </c>
-      <c r="P130" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q130" s="3" t="s">
+      <c r="R130" s="3" t="s">
         <v>1290</v>
       </c>
-      <c r="R130" s="3" t="s">
+      <c r="S130" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="T130" s="3" t="s">
         <v>1291</v>
       </c>
-      <c r="S130" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="T130" s="3" t="s">
+      <c r="U130" s="3" t="s">
         <v>1292</v>
-      </c>
-      <c r="U130" s="3" t="s">
-        <v>1293</v>
       </c>
     </row>
     <row r="131" ht="18" spans="1:21">
       <c r="A131" s="3" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="B131" s="3" t="s">
         <v>1135</v>
@@ -22881,13 +22899,13 @@
         <v>41</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="F131" s="3" t="s">
-        <v>1296</v>
+        <v>1195</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>1297</v>
+        <v>1196</v>
       </c>
       <c r="H131" s="4" t="s">
         <v>163</v>
@@ -22902,7 +22920,7 @@
         <v>892</v>
       </c>
       <c r="L131" s="3" t="s">
-        <v>1298</v>
+        <v>1295</v>
       </c>
       <c r="M131" s="3" t="s">
         <v>31</v>
@@ -22923,18 +22941,18 @@
         <v>31</v>
       </c>
       <c r="S131" s="3" t="s">
-        <v>1299</v>
+        <v>1296</v>
       </c>
       <c r="T131" s="3" t="s">
-        <v>1300</v>
+        <v>1297</v>
       </c>
       <c r="U131" s="3" t="s">
-        <v>1301</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="132" ht="18" spans="1:21">
       <c r="A132" s="3" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
       <c r="B132" s="3" t="s">
         <v>1135</v>
@@ -22952,7 +22970,7 @@
         <v>193</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>1303</v>
+        <v>1300</v>
       </c>
       <c r="H132" s="4" t="s">
         <v>163</v>
@@ -22964,7 +22982,7 @@
         <v>63</v>
       </c>
       <c r="K132" s="3" t="s">
-        <v>1304</v>
+        <v>1301</v>
       </c>
       <c r="L132" s="3" t="s">
         <v>31</v>
@@ -22973,10 +22991,10 @@
         <v>31</v>
       </c>
       <c r="N132" s="3" t="s">
-        <v>1305</v>
+        <v>1302</v>
       </c>
       <c r="O132" s="3" t="s">
-        <v>1306</v>
+        <v>1303</v>
       </c>
       <c r="P132" s="3" t="s">
         <v>31</v>
@@ -22988,18 +23006,18 @@
         <v>31</v>
       </c>
       <c r="S132" s="3" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
       <c r="T132" s="3" t="s">
-        <v>1308</v>
+        <v>1305</v>
       </c>
       <c r="U132" s="3" t="s">
-        <v>1309</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="133" ht="18" spans="1:21">
       <c r="A133" s="3" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
       <c r="B133" s="3" t="s">
         <v>1135</v>
@@ -23017,13 +23035,13 @@
         <v>193</v>
       </c>
       <c r="G133" s="3" t="s">
-        <v>1311</v>
+        <v>1308</v>
       </c>
       <c r="H133" s="4" t="s">
         <v>471</v>
       </c>
       <c r="I133" s="3" t="s">
-        <v>1312</v>
+        <v>1309</v>
       </c>
       <c r="J133" s="3" t="s">
         <v>63</v>
@@ -23038,7 +23056,7 @@
         <v>305</v>
       </c>
       <c r="N133" s="3" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
       <c r="O133" s="3" t="s">
         <v>66</v>
@@ -23047,24 +23065,24 @@
         <v>31</v>
       </c>
       <c r="Q133" s="3" t="s">
+        <v>1311</v>
+      </c>
+      <c r="R133" s="3" t="s">
+        <v>1312</v>
+      </c>
+      <c r="S133" s="3" t="s">
+        <v>1313</v>
+      </c>
+      <c r="T133" s="3" t="s">
         <v>1314</v>
       </c>
-      <c r="R133" s="3" t="s">
+      <c r="U133" s="3" t="s">
         <v>1315</v>
-      </c>
-      <c r="S133" s="3" t="s">
-        <v>1316</v>
-      </c>
-      <c r="T133" s="3" t="s">
-        <v>1317</v>
-      </c>
-      <c r="U133" s="3" t="s">
-        <v>1318</v>
       </c>
     </row>
     <row r="134" ht="18" spans="1:21">
       <c r="A134" s="3" t="s">
-        <v>1319</v>
+        <v>1316</v>
       </c>
       <c r="B134" s="3" t="s">
         <v>1135</v>
@@ -23076,19 +23094,19 @@
         <v>41</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>1320</v>
+        <v>1317</v>
       </c>
       <c r="F134" s="3" t="s">
         <v>43</v>
       </c>
       <c r="G134" s="3" t="s">
-        <v>1321</v>
+        <v>1318</v>
       </c>
       <c r="H134" s="4" t="s">
         <v>61</v>
       </c>
       <c r="I134" s="3" t="s">
-        <v>1322</v>
+        <v>1319</v>
       </c>
       <c r="J134" s="3" t="s">
         <v>63</v>
@@ -23100,13 +23118,13 @@
         <v>31</v>
       </c>
       <c r="M134" s="3" t="s">
-        <v>1323</v>
+        <v>1320</v>
       </c>
       <c r="N134" s="3" t="s">
         <v>698</v>
       </c>
       <c r="O134" s="3" t="s">
-        <v>1306</v>
+        <v>1303</v>
       </c>
       <c r="P134" s="3" t="s">
         <v>496</v>
@@ -23118,18 +23136,18 @@
         <v>31</v>
       </c>
       <c r="S134" s="3" t="s">
-        <v>1324</v>
+        <v>1321</v>
       </c>
       <c r="T134" s="3" t="s">
-        <v>1325</v>
+        <v>1322</v>
       </c>
       <c r="U134" s="3" t="s">
-        <v>1326</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="135" ht="18" spans="1:21">
       <c r="A135" s="3" t="s">
-        <v>1327</v>
+        <v>1324</v>
       </c>
       <c r="B135" s="3" t="s">
         <v>1135</v>
@@ -23147,19 +23165,19 @@
         <v>645</v>
       </c>
       <c r="G135" s="3" t="s">
-        <v>1328</v>
+        <v>1325</v>
       </c>
       <c r="H135" s="4" t="s">
         <v>275</v>
       </c>
       <c r="I135" s="3" t="s">
-        <v>1329</v>
+        <v>1326</v>
       </c>
       <c r="J135" s="3" t="s">
         <v>63</v>
       </c>
       <c r="K135" s="3" t="s">
-        <v>1330</v>
+        <v>1327</v>
       </c>
       <c r="L135" s="3" t="s">
         <v>31</v>
@@ -23177,24 +23195,24 @@
         <v>31</v>
       </c>
       <c r="Q135" s="3" t="s">
+        <v>1328</v>
+      </c>
+      <c r="R135" s="3" t="s">
+        <v>1329</v>
+      </c>
+      <c r="S135" s="3" t="s">
+        <v>1330</v>
+      </c>
+      <c r="T135" s="3" t="s">
         <v>1331</v>
       </c>
-      <c r="R135" s="3" t="s">
+      <c r="U135" s="3" t="s">
         <v>1332</v>
-      </c>
-      <c r="S135" s="3" t="s">
-        <v>1333</v>
-      </c>
-      <c r="T135" s="3" t="s">
-        <v>1334</v>
-      </c>
-      <c r="U135" s="3" t="s">
-        <v>1335</v>
       </c>
     </row>
     <row r="136" ht="18" spans="1:21">
       <c r="A136" s="3" t="s">
-        <v>1336</v>
+        <v>1333</v>
       </c>
       <c r="B136" s="3" t="s">
         <v>1135</v>
@@ -23212,13 +23230,13 @@
         <v>43</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="H136" s="4" t="s">
         <v>315</v>
       </c>
       <c r="I136" s="3" t="s">
-        <v>1337</v>
+        <v>1334</v>
       </c>
       <c r="J136" s="3" t="s">
         <v>63</v>
@@ -23233,7 +23251,7 @@
         <v>183</v>
       </c>
       <c r="N136" s="3" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="O136" s="3" t="s">
         <v>107</v>
@@ -23242,24 +23260,24 @@
         <v>31</v>
       </c>
       <c r="Q136" s="3" t="s">
+        <v>1335</v>
+      </c>
+      <c r="R136" s="3" t="s">
+        <v>1336</v>
+      </c>
+      <c r="S136" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="T136" s="3" t="s">
+        <v>1337</v>
+      </c>
+      <c r="U136" s="3" t="s">
         <v>1338</v>
-      </c>
-      <c r="R136" s="3" t="s">
-        <v>1339</v>
-      </c>
-      <c r="S136" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="T136" s="3" t="s">
-        <v>1340</v>
-      </c>
-      <c r="U136" s="3" t="s">
-        <v>1341</v>
       </c>
     </row>
     <row r="137" ht="18" spans="1:21">
       <c r="A137" s="3" t="s">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="B137" s="3" t="s">
         <v>1135</v>
@@ -23271,13 +23289,13 @@
         <v>41</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>1343</v>
+        <v>1340</v>
       </c>
       <c r="F137" s="3" t="s">
         <v>193</v>
       </c>
       <c r="G137" s="3" t="s">
-        <v>1344</v>
+        <v>1341</v>
       </c>
       <c r="H137" s="4" t="s">
         <v>27</v>
@@ -23289,42 +23307,42 @@
         <v>63</v>
       </c>
       <c r="K137" s="3" t="s">
-        <v>1345</v>
+        <v>1342</v>
       </c>
       <c r="L137" s="3" t="s">
-        <v>1346</v>
+        <v>1343</v>
       </c>
       <c r="M137" s="3" t="s">
-        <v>1347</v>
+        <v>1344</v>
       </c>
       <c r="N137" s="3" t="s">
         <v>391</v>
       </c>
       <c r="O137" s="3" t="s">
+        <v>1345</v>
+      </c>
+      <c r="P137" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q137" s="3" t="s">
+        <v>1346</v>
+      </c>
+      <c r="R137" s="3" t="s">
+        <v>1347</v>
+      </c>
+      <c r="S137" s="3" t="s">
         <v>1348</v>
       </c>
-      <c r="P137" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q137" s="3" t="s">
+      <c r="T137" s="3" t="s">
         <v>1349</v>
       </c>
-      <c r="R137" s="3" t="s">
+      <c r="U137" s="3" t="s">
         <v>1350</v>
-      </c>
-      <c r="S137" s="3" t="s">
-        <v>1351</v>
-      </c>
-      <c r="T137" s="3" t="s">
-        <v>1352</v>
-      </c>
-      <c r="U137" s="3" t="s">
-        <v>1353</v>
       </c>
     </row>
     <row r="138" ht="18" spans="1:21">
       <c r="A138" s="3" t="s">
-        <v>1354</v>
+        <v>1351</v>
       </c>
       <c r="B138" s="3" t="s">
         <v>1135</v>
@@ -23339,13 +23357,13 @@
         <v>1194</v>
       </c>
       <c r="F138" s="3" t="s">
-        <v>1355</v>
+        <v>1352</v>
       </c>
       <c r="G138" s="3" t="s">
-        <v>1356</v>
+        <v>1353</v>
       </c>
       <c r="H138" s="4" t="s">
-        <v>1357</v>
+        <v>1354</v>
       </c>
       <c r="I138" s="3" t="s">
         <v>210</v>
@@ -23357,7 +23375,7 @@
         <v>31</v>
       </c>
       <c r="L138" s="3" t="s">
-        <v>1358</v>
+        <v>1355</v>
       </c>
       <c r="M138" s="3" t="s">
         <v>31</v>
@@ -23372,24 +23390,24 @@
         <v>31</v>
       </c>
       <c r="Q138" s="3" t="s">
+        <v>1356</v>
+      </c>
+      <c r="R138" s="3" t="s">
+        <v>1357</v>
+      </c>
+      <c r="S138" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="T138" s="3" t="s">
+        <v>1358</v>
+      </c>
+      <c r="U138" s="3" t="s">
         <v>1359</v>
-      </c>
-      <c r="R138" s="3" t="s">
-        <v>1360</v>
-      </c>
-      <c r="S138" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="T138" s="3" t="s">
-        <v>1361</v>
-      </c>
-      <c r="U138" s="3" t="s">
-        <v>1362</v>
       </c>
     </row>
     <row r="139" ht="18" spans="1:21">
       <c r="A139" s="3" t="s">
-        <v>1363</v>
+        <v>1360</v>
       </c>
       <c r="B139" s="3" t="s">
         <v>1135</v>
@@ -23398,37 +23416,37 @@
         <v>2020</v>
       </c>
       <c r="D139" s="3" t="s">
+        <v>1361</v>
+      </c>
+      <c r="E139" s="3" t="s">
+        <v>1361</v>
+      </c>
+      <c r="F139" s="3" t="s">
+        <v>1362</v>
+      </c>
+      <c r="G139" s="3" t="s">
+        <v>1363</v>
+      </c>
+      <c r="H139" s="4" t="s">
         <v>1364</v>
       </c>
-      <c r="E139" s="3" t="s">
-        <v>1364</v>
-      </c>
-      <c r="F139" s="3" t="s">
+      <c r="I139" s="3" t="s">
         <v>1365</v>
       </c>
-      <c r="G139" s="3" t="s">
+      <c r="J139" s="3" t="s">
         <v>1366</v>
       </c>
-      <c r="H139" s="4" t="s">
+      <c r="K139" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L139" s="3" t="s">
         <v>1367</v>
       </c>
-      <c r="I139" s="3" t="s">
+      <c r="M139" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N139" s="3" t="s">
         <v>1368</v>
-      </c>
-      <c r="J139" s="3" t="s">
-        <v>1369</v>
-      </c>
-      <c r="K139" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="L139" s="3" t="s">
-        <v>1370</v>
-      </c>
-      <c r="M139" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="N139" s="3" t="s">
-        <v>1371</v>
       </c>
       <c r="O139" s="3" t="s">
         <v>107</v>
@@ -23437,24 +23455,24 @@
         <v>496</v>
       </c>
       <c r="Q139" s="3" t="s">
+        <v>1369</v>
+      </c>
+      <c r="R139" s="3" t="s">
+        <v>1370</v>
+      </c>
+      <c r="S139" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="T139" s="3" t="s">
+        <v>1371</v>
+      </c>
+      <c r="U139" s="3" t="s">
         <v>1372</v>
-      </c>
-      <c r="R139" s="3" t="s">
-        <v>1373</v>
-      </c>
-      <c r="S139" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="T139" s="3" t="s">
-        <v>1374</v>
-      </c>
-      <c r="U139" s="3" t="s">
-        <v>1375</v>
       </c>
     </row>
     <row r="140" ht="18" spans="1:21">
       <c r="A140" s="3" t="s">
-        <v>1376</v>
+        <v>1373</v>
       </c>
       <c r="B140" s="3" t="s">
         <v>1135</v>
@@ -23472,13 +23490,13 @@
         <v>263</v>
       </c>
       <c r="G140" s="3" t="s">
-        <v>1377</v>
+        <v>1374</v>
       </c>
       <c r="H140" s="4" t="s">
-        <v>1378</v>
+        <v>1375</v>
       </c>
       <c r="I140" s="3" t="s">
-        <v>1379</v>
+        <v>1376</v>
       </c>
       <c r="J140" s="3" t="s">
         <v>63</v>
@@ -23499,27 +23517,27 @@
         <v>107</v>
       </c>
       <c r="P140" s="3" t="s">
+        <v>1377</v>
+      </c>
+      <c r="Q140" s="3" t="s">
+        <v>1378</v>
+      </c>
+      <c r="R140" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="S140" s="3" t="s">
+        <v>1379</v>
+      </c>
+      <c r="T140" s="3" t="s">
         <v>1380</v>
       </c>
-      <c r="Q140" s="3" t="s">
+      <c r="U140" s="3" t="s">
         <v>1381</v>
-      </c>
-      <c r="R140" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="S140" s="3" t="s">
-        <v>1382</v>
-      </c>
-      <c r="T140" s="3" t="s">
-        <v>1383</v>
-      </c>
-      <c r="U140" s="3" t="s">
-        <v>1384</v>
       </c>
     </row>
     <row r="141" ht="18" spans="1:21">
       <c r="A141" s="3" t="s">
-        <v>1385</v>
+        <v>1382</v>
       </c>
       <c r="B141" s="3" t="s">
         <v>1135</v>
@@ -23531,28 +23549,28 @@
         <v>195</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>1386</v>
+        <v>1383</v>
       </c>
       <c r="F141" s="3" t="s">
         <v>193</v>
       </c>
       <c r="G141" s="3" t="s">
-        <v>1387</v>
+        <v>1384</v>
       </c>
       <c r="H141" s="4" t="s">
-        <v>1388</v>
+        <v>1385</v>
       </c>
       <c r="I141" s="3" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
       <c r="J141" s="3" t="s">
         <v>63</v>
       </c>
       <c r="K141" s="3" t="s">
-        <v>1390</v>
+        <v>1387</v>
       </c>
       <c r="L141" s="3" t="s">
-        <v>1391</v>
+        <v>1388</v>
       </c>
       <c r="M141" s="3" t="s">
         <v>31</v>
@@ -23561,30 +23579,30 @@
         <v>557</v>
       </c>
       <c r="O141" s="3" t="s">
+        <v>1389</v>
+      </c>
+      <c r="P141" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q141" s="3" t="s">
+        <v>1390</v>
+      </c>
+      <c r="R141" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="S141" s="3" t="s">
+        <v>1391</v>
+      </c>
+      <c r="T141" s="3" t="s">
         <v>1392</v>
       </c>
-      <c r="P141" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q141" s="3" t="s">
+      <c r="U141" s="3" t="s">
         <v>1393</v>
-      </c>
-      <c r="R141" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="S141" s="3" t="s">
-        <v>1394</v>
-      </c>
-      <c r="T141" s="3" t="s">
-        <v>1395</v>
-      </c>
-      <c r="U141" s="3" t="s">
-        <v>1396</v>
       </c>
     </row>
     <row r="142" ht="18" spans="1:21">
       <c r="A142" s="8" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="B142" s="3" t="s">
         <v>1135</v>
@@ -23602,22 +23620,22 @@
         <v>193</v>
       </c>
       <c r="G142" s="3" t="s">
-        <v>1398</v>
+        <v>1395</v>
       </c>
       <c r="H142" s="4" t="s">
         <v>957</v>
       </c>
       <c r="I142" s="3" t="s">
-        <v>1399</v>
+        <v>1396</v>
       </c>
       <c r="J142" s="3" t="s">
-        <v>1400</v>
+        <v>1397</v>
       </c>
       <c r="K142" s="3" t="s">
         <v>31</v>
       </c>
       <c r="L142" s="3" t="s">
-        <v>1401</v>
+        <v>1398</v>
       </c>
       <c r="M142" s="3" t="s">
         <v>317</v>
@@ -23626,30 +23644,30 @@
         <v>123</v>
       </c>
       <c r="O142" s="3" t="s">
+        <v>1399</v>
+      </c>
+      <c r="P142" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q142" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R142" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="S142" s="3" t="s">
+        <v>1400</v>
+      </c>
+      <c r="T142" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="U142" s="3" t="s">
         <v>1402</v>
-      </c>
-      <c r="P142" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q142" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="R142" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="S142" s="3" t="s">
-        <v>1403</v>
-      </c>
-      <c r="T142" s="3" t="s">
-        <v>1404</v>
-      </c>
-      <c r="U142" s="3" t="s">
-        <v>1405</v>
       </c>
     </row>
     <row r="143" ht="18" spans="1:21">
       <c r="A143" s="8" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="B143" s="3" t="s">
         <v>1135</v>
@@ -23667,22 +23685,22 @@
         <v>193</v>
       </c>
       <c r="G143" s="3" t="s">
-        <v>1406</v>
+        <v>1403</v>
       </c>
       <c r="H143" s="4" t="s">
         <v>957</v>
       </c>
       <c r="I143" s="3" t="s">
-        <v>1399</v>
+        <v>1396</v>
       </c>
       <c r="J143" s="3" t="s">
-        <v>1400</v>
+        <v>1397</v>
       </c>
       <c r="K143" s="3" t="s">
         <v>31</v>
       </c>
       <c r="L143" s="3" t="s">
-        <v>1401</v>
+        <v>1398</v>
       </c>
       <c r="M143" s="3" t="s">
         <v>317</v>
@@ -23691,30 +23709,30 @@
         <v>123</v>
       </c>
       <c r="O143" s="3" t="s">
+        <v>1399</v>
+      </c>
+      <c r="P143" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q143" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R143" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="S143" s="3" t="s">
+        <v>1404</v>
+      </c>
+      <c r="T143" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="U143" s="3" t="s">
         <v>1402</v>
-      </c>
-      <c r="P143" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q143" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="R143" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="S143" s="3" t="s">
-        <v>1407</v>
-      </c>
-      <c r="T143" s="3" t="s">
-        <v>1404</v>
-      </c>
-      <c r="U143" s="3" t="s">
-        <v>1405</v>
       </c>
     </row>
     <row r="144" ht="18" spans="1:21">
       <c r="A144" s="8" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="B144" s="3" t="s">
         <v>1135</v>
@@ -23732,22 +23750,22 @@
         <v>193</v>
       </c>
       <c r="G144" s="3" t="s">
-        <v>1408</v>
+        <v>1405</v>
       </c>
       <c r="H144" s="4" t="s">
         <v>957</v>
       </c>
       <c r="I144" s="3" t="s">
-        <v>1399</v>
+        <v>1396</v>
       </c>
       <c r="J144" s="3" t="s">
-        <v>1400</v>
+        <v>1397</v>
       </c>
       <c r="K144" s="3" t="s">
         <v>31</v>
       </c>
       <c r="L144" s="3" t="s">
-        <v>1401</v>
+        <v>1398</v>
       </c>
       <c r="M144" s="3" t="s">
         <v>317</v>
@@ -23756,30 +23774,30 @@
         <v>123</v>
       </c>
       <c r="O144" s="3" t="s">
+        <v>1399</v>
+      </c>
+      <c r="P144" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q144" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R144" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="S144" s="3" t="s">
+        <v>1406</v>
+      </c>
+      <c r="T144" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="U144" s="3" t="s">
         <v>1402</v>
-      </c>
-      <c r="P144" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q144" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="R144" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="S144" s="3" t="s">
-        <v>1409</v>
-      </c>
-      <c r="T144" s="3" t="s">
-        <v>1404</v>
-      </c>
-      <c r="U144" s="3" t="s">
-        <v>1405</v>
       </c>
     </row>
     <row r="145" ht="18" spans="1:21">
       <c r="A145" s="3" t="s">
-        <v>1410</v>
+        <v>1407</v>
       </c>
       <c r="B145" s="3" t="s">
         <v>1135</v>
@@ -23791,7 +23809,7 @@
         <v>23</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>1411</v>
+        <v>1408</v>
       </c>
       <c r="F145" s="3" t="s">
         <v>193</v>
@@ -23803,7 +23821,7 @@
         <v>399</v>
       </c>
       <c r="I145" s="3" t="s">
-        <v>1412</v>
+        <v>1409</v>
       </c>
       <c r="J145" s="3" t="s">
         <v>63</v>
@@ -23821,30 +23839,30 @@
         <v>999</v>
       </c>
       <c r="O145" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="P145" s="3" t="s">
+        <v>1411</v>
+      </c>
+      <c r="Q145" s="3" t="s">
+        <v>1412</v>
+      </c>
+      <c r="R145" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="S145" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="T145" s="3" t="s">
         <v>1413</v>
       </c>
-      <c r="P145" s="3" t="s">
+      <c r="U145" s="3" t="s">
         <v>1414</v>
-      </c>
-      <c r="Q145" s="3" t="s">
-        <v>1415</v>
-      </c>
-      <c r="R145" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="S145" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="T145" s="3" t="s">
-        <v>1416</v>
-      </c>
-      <c r="U145" s="3" t="s">
-        <v>1417</v>
       </c>
     </row>
     <row r="146" ht="18" spans="1:21">
       <c r="A146" s="3" t="s">
-        <v>1418</v>
+        <v>1415</v>
       </c>
       <c r="B146" s="3" t="s">
         <v>1135</v>
@@ -23856,19 +23874,19 @@
         <v>760</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>1419</v>
+        <v>1416</v>
       </c>
       <c r="F146" s="3" t="s">
         <v>75</v>
       </c>
       <c r="G146" s="3" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
       <c r="H146" s="4" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
       <c r="I146" s="3" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
       <c r="J146" s="3" t="s">
         <v>63</v>
@@ -23886,7 +23904,7 @@
         <v>698</v>
       </c>
       <c r="O146" s="3" t="s">
-        <v>1306</v>
+        <v>1303</v>
       </c>
       <c r="P146" s="3" t="s">
         <v>496</v>
@@ -23895,21 +23913,21 @@
         <v>34</v>
       </c>
       <c r="R146" s="3" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
       <c r="S146" s="3" t="s">
         <v>31</v>
       </c>
       <c r="T146" s="3" t="s">
-        <v>1423</v>
+        <v>1420</v>
       </c>
       <c r="U146" s="3" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="147" ht="18" spans="1:21">
       <c r="A147" s="3" t="s">
-        <v>1425</v>
+        <v>1422</v>
       </c>
       <c r="B147" s="3" t="s">
         <v>1135</v>
@@ -23921,19 +23939,19 @@
         <v>115</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>1426</v>
+        <v>1423</v>
       </c>
       <c r="F147" s="3" t="s">
         <v>181</v>
       </c>
       <c r="G147" s="3" t="s">
-        <v>1427</v>
+        <v>1424</v>
       </c>
       <c r="H147" s="4" t="s">
-        <v>1367</v>
+        <v>1364</v>
       </c>
       <c r="I147" s="3" t="s">
-        <v>1428</v>
+        <v>1425</v>
       </c>
       <c r="J147" s="3" t="s">
         <v>63</v>
@@ -23960,21 +23978,21 @@
         <v>1189</v>
       </c>
       <c r="R147" s="3" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
       <c r="S147" s="3" t="s">
         <v>31</v>
       </c>
       <c r="T147" s="3" t="s">
-        <v>1430</v>
+        <v>1427</v>
       </c>
       <c r="U147" s="3" t="s">
-        <v>1431</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="148" ht="18" spans="1:21">
       <c r="A148" s="3" t="s">
-        <v>1432</v>
+        <v>1429</v>
       </c>
       <c r="B148" s="3" t="s">
         <v>1135</v>
@@ -23991,14 +24009,14 @@
       <c r="F148" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G148" s="3" t="s">
-        <v>1433</v>
+      <c r="G148" s="9" t="s">
+        <v>1430</v>
       </c>
       <c r="H148" s="4" t="s">
         <v>275</v>
       </c>
       <c r="I148" s="3" t="s">
-        <v>1329</v>
+        <v>1326</v>
       </c>
       <c r="J148" s="3" t="s">
         <v>63</v>
@@ -24007,13 +24025,13 @@
         <v>753</v>
       </c>
       <c r="L148" s="3" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
       <c r="M148" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N148" s="3" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
       <c r="O148" s="3" t="s">
         <v>107</v>
@@ -24028,18 +24046,18 @@
         <v>31</v>
       </c>
       <c r="S148" s="3" t="s">
-        <v>1436</v>
+        <v>1433</v>
       </c>
       <c r="T148" s="3" t="s">
-        <v>1437</v>
+        <v>1434</v>
       </c>
       <c r="U148" s="3" t="s">
-        <v>1438</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="149" ht="18" spans="1:21">
       <c r="A149" s="3" t="s">
-        <v>1439</v>
+        <v>1436</v>
       </c>
       <c r="B149" s="3" t="s">
         <v>1135</v>
@@ -24057,7 +24075,7 @@
         <v>43</v>
       </c>
       <c r="G149" s="3" t="s">
-        <v>1440</v>
+        <v>1437</v>
       </c>
       <c r="H149" s="4" t="s">
         <v>61</v>
@@ -24069,7 +24087,7 @@
         <v>63</v>
       </c>
       <c r="K149" s="3" t="s">
-        <v>1441</v>
+        <v>1438</v>
       </c>
       <c r="L149" s="3" t="s">
         <v>1217</v>
@@ -24078,7 +24096,7 @@
         <v>31</v>
       </c>
       <c r="N149" s="3" t="s">
-        <v>1442</v>
+        <v>1439</v>
       </c>
       <c r="O149" s="3" t="s">
         <v>124</v>
@@ -24090,21 +24108,21 @@
         <v>34</v>
       </c>
       <c r="R149" s="3" t="s">
-        <v>1443</v>
+        <v>1440</v>
       </c>
       <c r="S149" s="3" t="s">
         <v>31</v>
       </c>
       <c r="T149" s="3" t="s">
-        <v>1444</v>
+        <v>1441</v>
       </c>
       <c r="U149" s="3" t="s">
-        <v>1445</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="150" ht="18" spans="1:21">
       <c r="A150" s="3" t="s">
-        <v>1446</v>
+        <v>1443</v>
       </c>
       <c r="B150" s="3" t="s">
         <v>1135</v>
@@ -24116,28 +24134,28 @@
         <v>1128</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>1447</v>
+        <v>1444</v>
       </c>
       <c r="F150" s="3" t="s">
-        <v>1448</v>
+        <v>1445</v>
       </c>
       <c r="G150" s="3" t="s">
-        <v>1449</v>
+        <v>1446</v>
       </c>
       <c r="H150" s="4" t="s">
         <v>244</v>
       </c>
       <c r="I150" s="3" t="s">
-        <v>1450</v>
+        <v>1447</v>
       </c>
       <c r="J150" s="3" t="s">
         <v>63</v>
       </c>
       <c r="K150" s="3" t="s">
-        <v>1451</v>
+        <v>1448</v>
       </c>
       <c r="L150" s="3" t="s">
-        <v>1452</v>
+        <v>1449</v>
       </c>
       <c r="M150" s="3" t="s">
         <v>31</v>
@@ -24146,30 +24164,30 @@
         <v>277</v>
       </c>
       <c r="O150" s="3" t="s">
+        <v>1450</v>
+      </c>
+      <c r="P150" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q150" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R150" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="S150" s="3" t="s">
+        <v>1451</v>
+      </c>
+      <c r="T150" s="3" t="s">
+        <v>1452</v>
+      </c>
+      <c r="U150" s="3" t="s">
         <v>1453</v>
-      </c>
-      <c r="P150" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q150" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="R150" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="S150" s="3" t="s">
-        <v>1454</v>
-      </c>
-      <c r="T150" s="3" t="s">
-        <v>1455</v>
-      </c>
-      <c r="U150" s="3" t="s">
-        <v>1456</v>
       </c>
     </row>
     <row r="151" ht="18" spans="1:21">
       <c r="A151" s="3" t="s">
-        <v>1457</v>
+        <v>1454</v>
       </c>
       <c r="B151" s="3" t="s">
         <v>1135</v>
@@ -24181,25 +24199,25 @@
         <v>41</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>1458</v>
+        <v>1455</v>
       </c>
       <c r="F151" s="3" t="s">
         <v>193</v>
       </c>
       <c r="G151" s="3" t="s">
-        <v>1459</v>
+        <v>1456</v>
       </c>
       <c r="H151" s="4" t="s">
-        <v>1460</v>
+        <v>1457</v>
       </c>
       <c r="I151" s="3" t="s">
-        <v>1461</v>
+        <v>1458</v>
       </c>
       <c r="J151" s="3" t="s">
         <v>63</v>
       </c>
       <c r="K151" s="3" t="s">
-        <v>1462</v>
+        <v>1459</v>
       </c>
       <c r="L151" s="3" t="s">
         <v>31</v>
@@ -24208,7 +24226,7 @@
         <v>235</v>
       </c>
       <c r="N151" s="3" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="O151" s="3" t="s">
         <v>363</v>
@@ -24220,21 +24238,21 @@
         <v>34</v>
       </c>
       <c r="R151" s="3" t="s">
+        <v>1460</v>
+      </c>
+      <c r="S151" s="3" t="s">
+        <v>1461</v>
+      </c>
+      <c r="T151" s="3" t="s">
+        <v>1462</v>
+      </c>
+      <c r="U151" s="3" t="s">
         <v>1463</v>
-      </c>
-      <c r="S151" s="3" t="s">
-        <v>1464</v>
-      </c>
-      <c r="T151" s="3" t="s">
-        <v>1465</v>
-      </c>
-      <c r="U151" s="3" t="s">
-        <v>1466</v>
       </c>
     </row>
     <row r="152" ht="18" spans="1:21">
       <c r="A152" s="3" t="s">
-        <v>1467</v>
+        <v>1464</v>
       </c>
       <c r="B152" s="3" t="s">
         <v>1135</v>
@@ -24246,19 +24264,19 @@
         <v>41</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>1468</v>
+        <v>1465</v>
       </c>
       <c r="F152" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G152" s="3" t="s">
-        <v>1469</v>
+      <c r="G152" s="9" t="s">
+        <v>1466</v>
       </c>
       <c r="H152" s="4" t="s">
         <v>1153</v>
       </c>
       <c r="I152" s="3" t="s">
-        <v>1470</v>
+        <v>1467</v>
       </c>
       <c r="J152" s="3" t="s">
         <v>63</v>
@@ -24267,7 +24285,7 @@
         <v>31</v>
       </c>
       <c r="L152" s="3" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
       <c r="M152" s="3" t="s">
         <v>636</v>
@@ -24276,7 +24294,7 @@
         <v>50</v>
       </c>
       <c r="O152" s="3" t="s">
-        <v>1306</v>
+        <v>1303</v>
       </c>
       <c r="P152" s="3" t="s">
         <v>31</v>
@@ -24285,21 +24303,21 @@
         <v>1189</v>
       </c>
       <c r="R152" s="3" t="s">
+        <v>1469</v>
+      </c>
+      <c r="S152" s="3" t="s">
+        <v>1470</v>
+      </c>
+      <c r="T152" s="3" t="s">
+        <v>1471</v>
+      </c>
+      <c r="U152" s="3" t="s">
         <v>1472</v>
-      </c>
-      <c r="S152" s="3" t="s">
-        <v>1473</v>
-      </c>
-      <c r="T152" s="3" t="s">
-        <v>1474</v>
-      </c>
-      <c r="U152" s="3" t="s">
-        <v>1475</v>
       </c>
     </row>
     <row r="153" ht="18" spans="1:21">
       <c r="A153" s="3" t="s">
-        <v>1476</v>
+        <v>1473</v>
       </c>
       <c r="B153" s="3" t="s">
         <v>1135</v>
@@ -24311,19 +24329,19 @@
         <v>195</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>1477</v>
+        <v>1474</v>
       </c>
       <c r="F153" s="3" t="s">
         <v>181</v>
       </c>
       <c r="G153" s="3" t="s">
-        <v>1478</v>
+        <v>1475</v>
       </c>
       <c r="H153" s="4" t="s">
         <v>220</v>
       </c>
       <c r="I153" s="3" t="s">
-        <v>1479</v>
+        <v>1476</v>
       </c>
       <c r="J153" s="3" t="s">
         <v>63</v>
@@ -24341,30 +24359,30 @@
         <v>123</v>
       </c>
       <c r="O153" s="3" t="s">
+        <v>1477</v>
+      </c>
+      <c r="P153" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q153" s="3" t="s">
+        <v>1478</v>
+      </c>
+      <c r="R153" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="S153" s="3" t="s">
+        <v>1479</v>
+      </c>
+      <c r="T153" s="3" t="s">
         <v>1480</v>
       </c>
-      <c r="P153" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q153" s="3" t="s">
+      <c r="U153" s="3" t="s">
         <v>1481</v>
-      </c>
-      <c r="R153" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="S153" s="3" t="s">
-        <v>1482</v>
-      </c>
-      <c r="T153" s="3" t="s">
-        <v>1483</v>
-      </c>
-      <c r="U153" s="3" t="s">
-        <v>1484</v>
       </c>
     </row>
     <row r="154" ht="18" spans="1:21">
       <c r="A154" s="3" t="s">
-        <v>1485</v>
+        <v>1482</v>
       </c>
       <c r="B154" s="3" t="s">
         <v>1135</v>
@@ -24382,54 +24400,54 @@
         <v>193</v>
       </c>
       <c r="G154" s="3" t="s">
-        <v>1486</v>
+        <v>1483</v>
       </c>
       <c r="H154" s="4" t="s">
-        <v>1378</v>
+        <v>1375</v>
       </c>
       <c r="I154" s="3" t="s">
-        <v>1487</v>
+        <v>1484</v>
       </c>
       <c r="J154" s="3" t="s">
         <v>63</v>
       </c>
       <c r="K154" s="3" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
       <c r="L154" s="3" t="s">
-        <v>1346</v>
+        <v>1343</v>
       </c>
       <c r="M154" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N154" s="3" t="s">
-        <v>1489</v>
+        <v>1486</v>
       </c>
       <c r="O154" s="3" t="s">
         <v>107</v>
       </c>
       <c r="P154" s="3" t="s">
-        <v>1378</v>
+        <v>1375</v>
       </c>
       <c r="Q154" s="3" t="s">
-        <v>1490</v>
+        <v>1487</v>
       </c>
       <c r="R154" s="3" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
       <c r="S154" s="3" t="s">
         <v>31</v>
       </c>
       <c r="T154" s="3" t="s">
-        <v>1491</v>
+        <v>1488</v>
       </c>
       <c r="U154" s="3" t="s">
-        <v>1492</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="155" ht="18" spans="1:21">
       <c r="A155" s="3" t="s">
-        <v>1493</v>
+        <v>1490</v>
       </c>
       <c r="B155" s="3" t="s">
         <v>1135</v>
@@ -24444,16 +24462,16 @@
         <v>161</v>
       </c>
       <c r="F155" s="3" t="s">
-        <v>1224</v>
+        <v>790</v>
       </c>
       <c r="G155" s="3" t="s">
-        <v>1494</v>
+        <v>1491</v>
       </c>
       <c r="H155" s="4" t="s">
         <v>275</v>
       </c>
       <c r="I155" s="3" t="s">
-        <v>1495</v>
+        <v>1492</v>
       </c>
       <c r="J155" s="3" t="s">
         <v>63</v>
@@ -24465,7 +24483,7 @@
         <v>31</v>
       </c>
       <c r="M155" s="3" t="s">
-        <v>1496</v>
+        <v>1493</v>
       </c>
       <c r="N155" s="3" t="s">
         <v>65</v>
@@ -24483,18 +24501,18 @@
         <v>31</v>
       </c>
       <c r="S155" s="3" t="s">
-        <v>1497</v>
+        <v>1494</v>
       </c>
       <c r="T155" s="3" t="s">
-        <v>1498</v>
+        <v>1495</v>
       </c>
       <c r="U155" s="3" t="s">
-        <v>1499</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="156" ht="18" spans="1:21">
       <c r="A156" s="3" t="s">
-        <v>1500</v>
+        <v>1497</v>
       </c>
       <c r="B156" s="3" t="s">
         <v>1135</v>
@@ -24506,19 +24524,19 @@
         <v>115</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>1501</v>
+        <v>1498</v>
       </c>
       <c r="F156" s="3" t="s">
         <v>193</v>
       </c>
       <c r="G156" s="3" t="s">
-        <v>1502</v>
+        <v>1499</v>
       </c>
       <c r="H156" s="4" t="s">
         <v>148</v>
       </c>
       <c r="I156" s="3" t="s">
-        <v>1503</v>
+        <v>1500</v>
       </c>
       <c r="J156" s="3" t="s">
         <v>63</v>
@@ -24530,7 +24548,7 @@
         <v>31</v>
       </c>
       <c r="M156" s="3" t="s">
-        <v>1504</v>
+        <v>1501</v>
       </c>
       <c r="N156" s="3" t="s">
         <v>123</v>
@@ -24548,18 +24566,18 @@
         <v>31</v>
       </c>
       <c r="S156" s="3" t="s">
-        <v>1505</v>
+        <v>1502</v>
       </c>
       <c r="T156" s="3" t="s">
-        <v>1506</v>
+        <v>1503</v>
       </c>
       <c r="U156" s="3" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="157" ht="18" spans="1:21">
       <c r="A157" s="3" t="s">
-        <v>1508</v>
+        <v>1505</v>
       </c>
       <c r="B157" s="3" t="s">
         <v>1135</v>
@@ -24573,23 +24591,23 @@
       <c r="E157" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F157" s="10" t="s">
+      <c r="F157" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="G157" s="10" t="s">
-        <v>1234</v>
+      <c r="G157" s="11" t="s">
+        <v>1506</v>
       </c>
       <c r="H157" s="4" t="s">
         <v>1138</v>
       </c>
       <c r="I157" s="3" t="s">
-        <v>1509</v>
+        <v>1507</v>
       </c>
       <c r="J157" s="3" t="s">
         <v>63</v>
       </c>
       <c r="K157" s="3" t="s">
-        <v>1510</v>
+        <v>1508</v>
       </c>
       <c r="L157" s="3" t="s">
         <v>31</v>
@@ -24601,30 +24619,30 @@
         <v>658</v>
       </c>
       <c r="O157" s="3" t="s">
-        <v>1511</v>
+        <v>1509</v>
       </c>
       <c r="P157" s="3" t="s">
         <v>108</v>
       </c>
       <c r="Q157" s="3" t="s">
+        <v>1510</v>
+      </c>
+      <c r="R157" s="3" t="s">
+        <v>1511</v>
+      </c>
+      <c r="S157" s="3" t="s">
         <v>1512</v>
       </c>
-      <c r="R157" s="3" t="s">
+      <c r="T157" s="3" t="s">
         <v>1513</v>
       </c>
-      <c r="S157" s="3" t="s">
+      <c r="U157" s="3" t="s">
         <v>1514</v>
-      </c>
-      <c r="T157" s="3" t="s">
-        <v>1515</v>
-      </c>
-      <c r="U157" s="3" t="s">
-        <v>1516</v>
       </c>
     </row>
     <row r="158" ht="18" spans="1:21">
       <c r="A158" s="3" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
       <c r="B158" s="3" t="s">
         <v>1135</v>
@@ -24636,19 +24654,19 @@
         <v>131</v>
       </c>
       <c r="E158" s="3" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
       <c r="F158" s="3" t="s">
         <v>263</v>
       </c>
       <c r="G158" s="3" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="H158" s="4" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
       <c r="I158" s="3" t="s">
-        <v>1520</v>
+        <v>1518</v>
       </c>
       <c r="J158" s="3" t="s">
         <v>63</v>
@@ -24663,10 +24681,10 @@
         <v>998</v>
       </c>
       <c r="N158" s="3" t="s">
-        <v>1521</v>
+        <v>1519</v>
       </c>
       <c r="O158" s="3" t="s">
-        <v>1522</v>
+        <v>1520</v>
       </c>
       <c r="P158" s="3" t="s">
         <v>912</v>
@@ -24675,21 +24693,21 @@
         <v>34</v>
       </c>
       <c r="R158" s="3" t="s">
+        <v>1521</v>
+      </c>
+      <c r="S158" s="3" t="s">
+        <v>1522</v>
+      </c>
+      <c r="T158" s="3" t="s">
         <v>1523</v>
       </c>
-      <c r="S158" s="3" t="s">
+      <c r="U158" s="3" t="s">
         <v>1524</v>
-      </c>
-      <c r="T158" s="3" t="s">
-        <v>1525</v>
-      </c>
-      <c r="U158" s="3" t="s">
-        <v>1526</v>
       </c>
     </row>
     <row r="159" ht="18" spans="1:21">
       <c r="A159" s="3" t="s">
-        <v>1527</v>
+        <v>1525</v>
       </c>
       <c r="B159" s="3" t="s">
         <v>1135</v>
@@ -24707,7 +24725,7 @@
         <v>1007</v>
       </c>
       <c r="G159" s="3" t="s">
-        <v>1528</v>
+        <v>1526</v>
       </c>
       <c r="H159" s="4" t="s">
         <v>163</v>
@@ -24731,7 +24749,7 @@
         <v>557</v>
       </c>
       <c r="O159" s="3" t="s">
-        <v>1529</v>
+        <v>1527</v>
       </c>
       <c r="P159" s="3" t="s">
         <v>31</v>
@@ -24740,21 +24758,21 @@
         <v>678</v>
       </c>
       <c r="R159" s="3" t="s">
+        <v>1528</v>
+      </c>
+      <c r="S159" s="3" t="s">
+        <v>1529</v>
+      </c>
+      <c r="T159" s="3" t="s">
         <v>1530</v>
       </c>
-      <c r="S159" s="3" t="s">
+      <c r="U159" s="3" t="s">
         <v>1531</v>
-      </c>
-      <c r="T159" s="3" t="s">
-        <v>1532</v>
-      </c>
-      <c r="U159" s="3" t="s">
-        <v>1533</v>
       </c>
     </row>
     <row r="160" ht="18" spans="1:21">
       <c r="A160" s="3" t="s">
-        <v>1534</v>
+        <v>1532</v>
       </c>
       <c r="B160" s="3" t="s">
         <v>1135</v>
@@ -24766,13 +24784,13 @@
         <v>41</v>
       </c>
       <c r="E160" s="3" t="s">
-        <v>1535</v>
+        <v>1533</v>
       </c>
       <c r="F160" s="3" t="s">
         <v>43</v>
       </c>
       <c r="G160" s="3" t="s">
-        <v>1536</v>
+        <v>1534</v>
       </c>
       <c r="H160" s="4" t="s">
         <v>61</v>
@@ -24784,7 +24802,7 @@
         <v>63</v>
       </c>
       <c r="K160" s="3" t="s">
-        <v>1537</v>
+        <v>1535</v>
       </c>
       <c r="L160" s="3" t="s">
         <v>31</v>
@@ -24793,7 +24811,7 @@
         <v>31</v>
       </c>
       <c r="N160" s="3" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="O160" s="3" t="s">
         <v>124</v>
@@ -24802,24 +24820,24 @@
         <v>31</v>
       </c>
       <c r="Q160" s="3" t="s">
+        <v>1537</v>
+      </c>
+      <c r="R160" s="3" t="s">
+        <v>1538</v>
+      </c>
+      <c r="S160" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="T160" s="3" t="s">
         <v>1539</v>
       </c>
-      <c r="R160" s="3" t="s">
+      <c r="U160" s="3" t="s">
         <v>1540</v>
-      </c>
-      <c r="S160" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="T160" s="3" t="s">
-        <v>1541</v>
-      </c>
-      <c r="U160" s="3" t="s">
-        <v>1542</v>
       </c>
     </row>
     <row r="161" ht="18" spans="1:21">
       <c r="A161" s="3" t="s">
-        <v>1543</v>
+        <v>1541</v>
       </c>
       <c r="B161" s="3" t="s">
         <v>1135</v>
@@ -24837,13 +24855,13 @@
         <v>43</v>
       </c>
       <c r="G161" s="3" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="H161" s="4" t="s">
         <v>61</v>
       </c>
       <c r="I161" s="3" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
       <c r="J161" s="3" t="s">
         <v>63</v>
@@ -24867,24 +24885,24 @@
         <v>912</v>
       </c>
       <c r="Q161" s="3" t="s">
-        <v>1338</v>
+        <v>1335</v>
       </c>
       <c r="R161" s="3" t="s">
+        <v>1544</v>
+      </c>
+      <c r="S161" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="T161" s="3" t="s">
+        <v>1545</v>
+      </c>
+      <c r="U161" s="3" t="s">
         <v>1546</v>
-      </c>
-      <c r="S161" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="T161" s="3" t="s">
-        <v>1547</v>
-      </c>
-      <c r="U161" s="3" t="s">
-        <v>1548</v>
       </c>
     </row>
     <row r="162" ht="18" spans="1:21">
       <c r="A162" s="3" t="s">
-        <v>1549</v>
+        <v>1547</v>
       </c>
       <c r="B162" s="3" t="s">
         <v>1135</v>
@@ -24902,7 +24920,7 @@
         <v>43</v>
       </c>
       <c r="G162" s="3" t="s">
-        <v>1550</v>
+        <v>1548</v>
       </c>
       <c r="H162" s="4" t="s">
         <v>163</v>
@@ -24923,33 +24941,33 @@
         <v>31</v>
       </c>
       <c r="N162" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="O162" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="P162" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q162" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R162" s="3" t="s">
         <v>1551</v>
       </c>
-      <c r="O162" s="3" t="s">
+      <c r="S162" s="3" t="s">
         <v>1552</v>
       </c>
-      <c r="P162" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q162" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="R162" s="3" t="s">
+      <c r="T162" s="3" t="s">
         <v>1553</v>
       </c>
-      <c r="S162" s="3" t="s">
+      <c r="U162" s="3" t="s">
         <v>1554</v>
-      </c>
-      <c r="T162" s="3" t="s">
-        <v>1555</v>
-      </c>
-      <c r="U162" s="3" t="s">
-        <v>1556</v>
       </c>
     </row>
     <row r="163" ht="18" spans="1:21">
       <c r="A163" s="3" t="s">
-        <v>1557</v>
+        <v>1555</v>
       </c>
       <c r="B163" s="3" t="s">
         <v>1135</v>
@@ -24961,28 +24979,28 @@
         <v>41</v>
       </c>
       <c r="E163" s="3" t="s">
+        <v>1556</v>
+      </c>
+      <c r="F163" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="G163" s="11" t="s">
+        <v>1557</v>
+      </c>
+      <c r="H163" s="4" t="s">
         <v>1558</v>
       </c>
-      <c r="F163" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="G163" s="10" t="s">
-        <v>1234</v>
-      </c>
-      <c r="H163" s="4" t="s">
+      <c r="I163" s="3" t="s">
         <v>1559</v>
-      </c>
-      <c r="I163" s="3" t="s">
-        <v>1560</v>
       </c>
       <c r="J163" s="3" t="s">
         <v>63</v>
       </c>
       <c r="K163" s="3" t="s">
+        <v>1560</v>
+      </c>
+      <c r="L163" s="3" t="s">
         <v>1561</v>
-      </c>
-      <c r="L163" s="3" t="s">
-        <v>1562</v>
       </c>
       <c r="M163" s="3" t="s">
         <v>31</v>
@@ -24997,24 +25015,24 @@
         <v>31</v>
       </c>
       <c r="Q163" s="3" t="s">
+        <v>1562</v>
+      </c>
+      <c r="R163" s="3" t="s">
         <v>1563</v>
       </c>
-      <c r="R163" s="3" t="s">
+      <c r="S163" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="T163" s="3" t="s">
         <v>1564</v>
       </c>
-      <c r="S163" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="T163" s="3" t="s">
+      <c r="U163" s="3" t="s">
         <v>1565</v>
-      </c>
-      <c r="U163" s="3" t="s">
-        <v>1566</v>
       </c>
     </row>
     <row r="164" ht="18" spans="1:21">
       <c r="A164" s="3" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="B164" s="3" t="s">
         <v>1135</v>
@@ -25032,13 +25050,13 @@
         <v>181</v>
       </c>
       <c r="G164" s="3" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="H164" s="4" t="s">
         <v>108</v>
       </c>
       <c r="I164" s="3" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="J164" s="3" t="s">
         <v>63</v>
@@ -25068,18 +25086,18 @@
         <v>31</v>
       </c>
       <c r="S164" s="3" t="s">
+        <v>1569</v>
+      </c>
+      <c r="T164" s="3" t="s">
         <v>1570</v>
       </c>
-      <c r="T164" s="3" t="s">
+      <c r="U164" s="3" t="s">
         <v>1571</v>
-      </c>
-      <c r="U164" s="3" t="s">
-        <v>1572</v>
       </c>
     </row>
     <row r="165" ht="18" spans="1:21">
       <c r="A165" s="3" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="B165" s="3" t="s">
         <v>1135</v>
@@ -25091,19 +25109,19 @@
         <v>195</v>
       </c>
       <c r="E165" s="3" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="F165" s="3" t="s">
         <v>193</v>
       </c>
       <c r="G165" s="3" t="s">
+        <v>1574</v>
+      </c>
+      <c r="H165" s="4" t="s">
         <v>1575</v>
       </c>
-      <c r="H165" s="4" t="s">
+      <c r="I165" s="3" t="s">
         <v>1576</v>
-      </c>
-      <c r="I165" s="3" t="s">
-        <v>1577</v>
       </c>
       <c r="J165" s="3" t="s">
         <v>63</v>
@@ -25121,7 +25139,7 @@
         <v>277</v>
       </c>
       <c r="O165" s="3" t="s">
-        <v>1402</v>
+        <v>1399</v>
       </c>
       <c r="P165" s="3" t="s">
         <v>31</v>
@@ -25130,21 +25148,21 @@
         <v>31</v>
       </c>
       <c r="R165" s="3" t="s">
+        <v>1577</v>
+      </c>
+      <c r="S165" s="3" t="s">
         <v>1578</v>
       </c>
-      <c r="S165" s="3" t="s">
+      <c r="T165" s="3" t="s">
         <v>1579</v>
       </c>
-      <c r="T165" s="3" t="s">
+      <c r="U165" s="3" t="s">
         <v>1580</v>
-      </c>
-      <c r="U165" s="3" t="s">
-        <v>1581</v>
       </c>
     </row>
     <row r="166" ht="18" spans="1:21">
       <c r="A166" s="3" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="B166" s="3" t="s">
         <v>1135</v>
@@ -25162,13 +25180,13 @@
         <v>43</v>
       </c>
       <c r="G166" s="3" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="H166" s="4" t="s">
         <v>603</v>
       </c>
       <c r="I166" s="3" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="J166" s="3" t="s">
         <v>63</v>
@@ -25183,33 +25201,33 @@
         <v>636</v>
       </c>
       <c r="N166" s="3" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="O166" s="3" t="s">
+        <v>1584</v>
+      </c>
+      <c r="P166" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q166" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R166" s="3" t="s">
         <v>1585</v>
       </c>
-      <c r="P166" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q166" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="R166" s="3" t="s">
+      <c r="S166" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="T166" s="3" t="s">
         <v>1586</v>
       </c>
-      <c r="S166" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="T166" s="3" t="s">
+      <c r="U166" s="3" t="s">
         <v>1587</v>
-      </c>
-      <c r="U166" s="3" t="s">
-        <v>1588</v>
       </c>
     </row>
     <row r="167" ht="18" spans="1:21">
       <c r="A167" s="3" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="B167" s="3" t="s">
         <v>1135</v>
@@ -25221,19 +25239,19 @@
         <v>1128</v>
       </c>
       <c r="E167" s="3" t="s">
+        <v>1589</v>
+      </c>
+      <c r="F167" s="3" t="s">
+        <v>1445</v>
+      </c>
+      <c r="G167" s="3" t="s">
         <v>1590</v>
-      </c>
-      <c r="F167" s="3" t="s">
-        <v>1448</v>
-      </c>
-      <c r="G167" s="3" t="s">
-        <v>1591</v>
       </c>
       <c r="H167" s="4" t="s">
         <v>336</v>
       </c>
       <c r="I167" s="3" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="J167" s="3" t="s">
         <v>63</v>
@@ -25242,7 +25260,7 @@
         <v>525</v>
       </c>
       <c r="L167" s="3" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="M167" s="3" t="s">
         <v>31</v>
@@ -25251,30 +25269,30 @@
         <v>277</v>
       </c>
       <c r="O167" s="3" t="s">
-        <v>1306</v>
+        <v>1303</v>
       </c>
       <c r="P167" s="3" t="s">
         <v>31</v>
       </c>
       <c r="Q167" s="3" t="s">
+        <v>1593</v>
+      </c>
+      <c r="R167" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="S167" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="T167" s="3" t="s">
         <v>1594</v>
       </c>
-      <c r="R167" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="S167" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="T167" s="3" t="s">
+      <c r="U167" s="3" t="s">
         <v>1595</v>
-      </c>
-      <c r="U167" s="3" t="s">
-        <v>1596</v>
       </c>
     </row>
     <row r="168" ht="18" spans="1:21">
       <c r="A168" s="3" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="B168" s="3" t="s">
         <v>1135</v>
@@ -25292,13 +25310,13 @@
         <v>193</v>
       </c>
       <c r="G168" s="3" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="H168" s="4" t="s">
         <v>275</v>
       </c>
       <c r="I168" s="3" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="J168" s="3" t="s">
         <v>63</v>
@@ -25307,13 +25325,13 @@
         <v>892</v>
       </c>
       <c r="L168" s="3" t="s">
+        <v>1599</v>
+      </c>
+      <c r="M168" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N168" s="3" t="s">
         <v>1600</v>
-      </c>
-      <c r="M168" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="N168" s="3" t="s">
-        <v>1601</v>
       </c>
       <c r="O168" s="3" t="s">
         <v>809</v>
@@ -25325,21 +25343,21 @@
         <v>1189</v>
       </c>
       <c r="R168" s="3" t="s">
+        <v>1601</v>
+      </c>
+      <c r="S168" s="3" t="s">
         <v>1602</v>
       </c>
-      <c r="S168" s="3" t="s">
+      <c r="T168" s="3" t="s">
         <v>1603</v>
       </c>
-      <c r="T168" s="3" t="s">
+      <c r="U168" s="3" t="s">
         <v>1604</v>
-      </c>
-      <c r="U168" s="3" t="s">
-        <v>1605</v>
       </c>
     </row>
     <row r="169" ht="18" spans="1:21">
       <c r="A169" s="3" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="B169" s="3" t="s">
         <v>1135</v>
@@ -25351,19 +25369,19 @@
         <v>99</v>
       </c>
       <c r="E169" s="3" t="s">
+        <v>1606</v>
+      </c>
+      <c r="F169" s="3" t="s">
         <v>1607</v>
       </c>
-      <c r="F169" s="3" t="s">
+      <c r="G169" s="3" t="s">
         <v>1608</v>
-      </c>
-      <c r="G169" s="3" t="s">
-        <v>1609</v>
       </c>
       <c r="H169" s="4" t="s">
         <v>408</v>
       </c>
       <c r="I169" s="3" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="J169" s="3" t="s">
         <v>63</v>
@@ -25375,36 +25393,36 @@
         <v>31</v>
       </c>
       <c r="M169" s="3" t="s">
+        <v>1610</v>
+      </c>
+      <c r="N169" s="3" t="s">
         <v>1611</v>
       </c>
-      <c r="N169" s="3" t="s">
+      <c r="O169" s="3" t="s">
         <v>1612</v>
       </c>
-      <c r="O169" s="3" t="s">
+      <c r="P169" s="3" t="s">
         <v>1613</v>
-      </c>
-      <c r="P169" s="3" t="s">
-        <v>1614</v>
       </c>
       <c r="Q169" s="3" t="s">
         <v>678</v>
       </c>
       <c r="R169" s="3" t="s">
+        <v>1614</v>
+      </c>
+      <c r="S169" s="3" t="s">
         <v>1615</v>
       </c>
-      <c r="S169" s="3" t="s">
+      <c r="T169" s="3" t="s">
         <v>1616</v>
       </c>
-      <c r="T169" s="3" t="s">
+      <c r="U169" s="3" t="s">
         <v>1617</v>
-      </c>
-      <c r="U169" s="3" t="s">
-        <v>1618</v>
       </c>
     </row>
     <row r="170" ht="18" spans="1:21">
       <c r="A170" s="3" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="B170" s="3" t="s">
         <v>1135</v>
@@ -25416,19 +25434,19 @@
         <v>131</v>
       </c>
       <c r="E170" s="3" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="F170" s="3" t="s">
         <v>263</v>
       </c>
       <c r="G170" s="3" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="H170" s="4" t="s">
         <v>134</v>
       </c>
       <c r="I170" s="3" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="J170" s="3" t="s">
         <v>31</v>
@@ -25452,24 +25470,24 @@
         <v>242</v>
       </c>
       <c r="Q170" s="3" t="s">
+        <v>1622</v>
+      </c>
+      <c r="R170" s="3" t="s">
         <v>1623</v>
       </c>
-      <c r="R170" s="3" t="s">
+      <c r="S170" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="T170" s="3" t="s">
         <v>1624</v>
       </c>
-      <c r="S170" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="T170" s="3" t="s">
+      <c r="U170" s="3" t="s">
         <v>1625</v>
-      </c>
-      <c r="U170" s="3" t="s">
-        <v>1626</v>
       </c>
     </row>
     <row r="171" ht="18" spans="1:21">
       <c r="A171" s="3" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="B171" s="3" t="s">
         <v>1135</v>
@@ -25487,13 +25505,13 @@
         <v>263</v>
       </c>
       <c r="G171" s="3" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="H171" s="4" t="s">
         <v>957</v>
       </c>
       <c r="I171" s="3" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="J171" s="3" t="s">
         <v>63</v>
@@ -25502,7 +25520,7 @@
         <v>31</v>
       </c>
       <c r="L171" s="3" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="M171" s="3" t="s">
         <v>198</v>
@@ -25523,18 +25541,18 @@
         <v>31</v>
       </c>
       <c r="S171" s="3" t="s">
+        <v>1630</v>
+      </c>
+      <c r="T171" s="3" t="s">
         <v>1631</v>
       </c>
-      <c r="T171" s="3" t="s">
+      <c r="U171" s="3" t="s">
         <v>1632</v>
-      </c>
-      <c r="U171" s="3" t="s">
-        <v>1633</v>
       </c>
     </row>
     <row r="172" ht="18" spans="1:21">
       <c r="A172" s="3" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="B172" s="3" t="s">
         <v>1135</v>
@@ -25546,60 +25564,60 @@
         <v>507</v>
       </c>
       <c r="E172" s="3" t="s">
+        <v>1634</v>
+      </c>
+      <c r="F172" s="3" t="s">
         <v>1635</v>
       </c>
-      <c r="F172" s="3" t="s">
+      <c r="G172" s="3" t="s">
         <v>1636</v>
       </c>
-      <c r="G172" s="3" t="s">
+      <c r="H172" s="4" t="s">
+        <v>1418</v>
+      </c>
+      <c r="I172" s="3" t="s">
         <v>1637</v>
       </c>
-      <c r="H172" s="4" t="s">
-        <v>1421</v>
-      </c>
-      <c r="I172" s="3" t="s">
+      <c r="J172" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K172" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L172" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M172" s="3" t="s">
         <v>1638</v>
-      </c>
-      <c r="J172" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="K172" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="L172" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="M172" s="3" t="s">
-        <v>1639</v>
       </c>
       <c r="N172" s="3" t="s">
         <v>911</v>
       </c>
       <c r="O172" s="3" t="s">
-        <v>1453</v>
+        <v>1450</v>
       </c>
       <c r="P172" s="3" t="s">
         <v>108</v>
       </c>
       <c r="Q172" s="3" t="s">
+        <v>1639</v>
+      </c>
+      <c r="R172" s="3" t="s">
         <v>1640</v>
       </c>
-      <c r="R172" s="3" t="s">
+      <c r="S172" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="T172" s="3" t="s">
         <v>1641</v>
       </c>
-      <c r="S172" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="T172" s="3" t="s">
+      <c r="U172" s="3" t="s">
         <v>1642</v>
-      </c>
-      <c r="U172" s="3" t="s">
-        <v>1643</v>
       </c>
     </row>
     <row r="173" ht="18" spans="1:21">
       <c r="A173" s="3" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="B173" s="3" t="s">
         <v>1135</v>
@@ -25617,28 +25635,28 @@
         <v>208</v>
       </c>
       <c r="G173" s="3" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="H173" s="4" t="s">
         <v>957</v>
       </c>
       <c r="I173" s="3" t="s">
+        <v>1645</v>
+      </c>
+      <c r="J173" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K173" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L173" s="3" t="s">
         <v>1646</v>
-      </c>
-      <c r="J173" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="K173" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="L173" s="3" t="s">
-        <v>1647</v>
       </c>
       <c r="M173" s="3" t="s">
         <v>636</v>
       </c>
       <c r="N173" s="3" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="O173" s="3" t="s">
         <v>31</v>
@@ -25650,21 +25668,21 @@
         <v>34</v>
       </c>
       <c r="R173" s="3" t="s">
+        <v>1648</v>
+      </c>
+      <c r="S173" s="3" t="s">
         <v>1649</v>
       </c>
-      <c r="S173" s="3" t="s">
+      <c r="T173" s="3" t="s">
         <v>1650</v>
       </c>
-      <c r="T173" s="3" t="s">
+      <c r="U173" s="3" t="s">
         <v>1651</v>
-      </c>
-      <c r="U173" s="3" t="s">
-        <v>1652</v>
       </c>
     </row>
     <row r="174" ht="18" spans="1:21">
       <c r="A174" s="3" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="B174" s="3" t="s">
         <v>1135</v>
@@ -25682,13 +25700,13 @@
         <v>263</v>
       </c>
       <c r="G174" s="3" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="H174" s="4" t="s">
         <v>460</v>
       </c>
       <c r="I174" s="3" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="J174" s="3" t="s">
         <v>63</v>
@@ -25700,36 +25718,36 @@
         <v>31</v>
       </c>
       <c r="M174" s="3" t="s">
+        <v>1655</v>
+      </c>
+      <c r="N174" s="3" t="s">
         <v>1656</v>
       </c>
-      <c r="N174" s="3" t="s">
+      <c r="O174" s="3" t="s">
         <v>1657</v>
-      </c>
-      <c r="O174" s="3" t="s">
-        <v>1658</v>
       </c>
       <c r="P174" s="3" t="s">
         <v>912</v>
       </c>
       <c r="Q174" s="3" t="s">
+        <v>1658</v>
+      </c>
+      <c r="R174" s="3" t="s">
         <v>1659</v>
       </c>
-      <c r="R174" s="3" t="s">
+      <c r="S174" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="T174" s="3" t="s">
         <v>1660</v>
       </c>
-      <c r="S174" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="T174" s="3" t="s">
+      <c r="U174" s="3" t="s">
         <v>1661</v>
-      </c>
-      <c r="U174" s="3" t="s">
-        <v>1662</v>
       </c>
     </row>
     <row r="175" ht="18" spans="1:21">
       <c r="A175" s="3" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="B175" s="3" t="s">
         <v>1135</v>
@@ -25741,13 +25759,13 @@
         <v>507</v>
       </c>
       <c r="E175" s="3" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="F175" s="3" t="s">
         <v>263</v>
       </c>
       <c r="G175" s="3" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="H175" s="4" t="s">
         <v>61</v>
@@ -25768,7 +25786,7 @@
         <v>122</v>
       </c>
       <c r="N175" s="3" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="O175" s="3" t="s">
         <v>107</v>
@@ -25783,18 +25801,18 @@
         <v>31</v>
       </c>
       <c r="S175" s="3" t="s">
+        <v>1666</v>
+      </c>
+      <c r="T175" s="3" t="s">
         <v>1667</v>
       </c>
-      <c r="T175" s="3" t="s">
+      <c r="U175" s="3" t="s">
         <v>1668</v>
-      </c>
-      <c r="U175" s="3" t="s">
-        <v>1669</v>
       </c>
     </row>
     <row r="176" ht="18" spans="1:21">
       <c r="A176" s="3" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="B176" s="3" t="s">
         <v>1135</v>
@@ -25806,19 +25824,19 @@
         <v>507</v>
       </c>
       <c r="E176" s="3" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="F176" s="3" t="s">
         <v>43</v>
       </c>
       <c r="G176" s="3" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="H176" s="4" t="s">
         <v>946</v>
       </c>
       <c r="I176" s="3" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="J176" s="3" t="s">
         <v>47</v>
@@ -25833,33 +25851,33 @@
         <v>556</v>
       </c>
       <c r="N176" s="3" t="s">
+        <v>1672</v>
+      </c>
+      <c r="O176" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P176" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q176" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R176" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="S176" s="3" t="s">
         <v>1673</v>
       </c>
-      <c r="O176" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="P176" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q176" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="R176" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="S176" s="3" t="s">
-        <v>1674</v>
-      </c>
       <c r="T176" s="3" t="s">
+        <v>1667</v>
+      </c>
+      <c r="U176" s="3" t="s">
         <v>1668</v>
-      </c>
-      <c r="U176" s="3" t="s">
-        <v>1669</v>
       </c>
     </row>
     <row r="177" ht="18" spans="1:21">
       <c r="A177" s="3" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="B177" s="3" t="s">
         <v>1135</v>
@@ -25868,22 +25886,22 @@
         <v>2022</v>
       </c>
       <c r="D177" s="3" t="s">
+        <v>1675</v>
+      </c>
+      <c r="E177" s="3" t="s">
         <v>1676</v>
-      </c>
-      <c r="E177" s="3" t="s">
-        <v>1677</v>
       </c>
       <c r="F177" s="3" t="s">
         <v>1007</v>
       </c>
       <c r="G177" s="3" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="H177" s="4" t="s">
         <v>537</v>
       </c>
       <c r="I177" s="3" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="J177" s="3" t="s">
         <v>63</v>
@@ -25892,39 +25910,39 @@
         <v>31</v>
       </c>
       <c r="L177" s="3" t="s">
+        <v>1679</v>
+      </c>
+      <c r="M177" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N177" s="3" t="s">
+        <v>1310</v>
+      </c>
+      <c r="O177" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P177" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q177" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R177" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="S177" s="3" t="s">
         <v>1680</v>
       </c>
-      <c r="M177" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="N177" s="3" t="s">
-        <v>1313</v>
-      </c>
-      <c r="O177" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="P177" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q177" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="R177" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="S177" s="3" t="s">
+      <c r="T177" s="3" t="s">
         <v>1681</v>
       </c>
-      <c r="T177" s="3" t="s">
+      <c r="U177" s="3" t="s">
         <v>1682</v>
-      </c>
-      <c r="U177" s="3" t="s">
-        <v>1683</v>
       </c>
     </row>
     <row r="178" ht="18" spans="1:21">
       <c r="A178" s="3" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="B178" s="3" t="s">
         <v>1135</v>
@@ -25936,34 +25954,34 @@
         <v>195</v>
       </c>
       <c r="E178" s="3" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="F178" s="3" t="s">
         <v>193</v>
       </c>
       <c r="G178" s="3" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="H178" s="4" t="s">
         <v>118</v>
       </c>
       <c r="I178" s="3" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="J178" s="3" t="s">
         <v>63</v>
       </c>
       <c r="K178" s="3" t="s">
+        <v>1687</v>
+      </c>
+      <c r="L178" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M178" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N178" s="3" t="s">
         <v>1688</v>
-      </c>
-      <c r="L178" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="M178" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="N178" s="3" t="s">
-        <v>1689</v>
       </c>
       <c r="O178" s="3" t="s">
         <v>154</v>
@@ -25975,21 +25993,21 @@
         <v>1189</v>
       </c>
       <c r="R178" s="3" t="s">
+        <v>1689</v>
+      </c>
+      <c r="S178" s="3" t="s">
         <v>1690</v>
       </c>
-      <c r="S178" s="3" t="s">
+      <c r="T178" s="3" t="s">
         <v>1691</v>
       </c>
-      <c r="T178" s="3" t="s">
+      <c r="U178" s="3" t="s">
         <v>1692</v>
-      </c>
-      <c r="U178" s="3" t="s">
-        <v>1693</v>
       </c>
     </row>
     <row r="179" ht="18" spans="1:21">
       <c r="A179" s="3" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="B179" s="3" t="s">
         <v>1135</v>
@@ -25998,16 +26016,16 @@
         <v>2025</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="E179" s="3" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="F179" s="3" t="s">
         <v>889</v>
       </c>
       <c r="G179" s="3" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="H179" s="4" t="s">
         <v>163</v>
@@ -26016,16 +26034,16 @@
         <v>164</v>
       </c>
       <c r="J179" s="3" t="s">
+        <v>1696</v>
+      </c>
+      <c r="K179" s="3" t="s">
         <v>1697</v>
       </c>
-      <c r="K179" s="3" t="s">
+      <c r="L179" s="3" t="s">
         <v>1698</v>
       </c>
-      <c r="L179" s="3" t="s">
-        <v>1699</v>
-      </c>
       <c r="M179" s="3" t="s">
-        <v>1347</v>
+        <v>1344</v>
       </c>
       <c r="N179" s="3" t="s">
         <v>658</v>
@@ -26037,24 +26055,24 @@
         <v>31</v>
       </c>
       <c r="Q179" s="3" t="s">
+        <v>1699</v>
+      </c>
+      <c r="R179" s="3" t="s">
         <v>1700</v>
       </c>
-      <c r="R179" s="3" t="s">
+      <c r="S179" s="3" t="s">
         <v>1701</v>
       </c>
-      <c r="S179" s="3" t="s">
+      <c r="T179" s="3" t="s">
         <v>1702</v>
       </c>
-      <c r="T179" s="3" t="s">
+      <c r="U179" s="3" t="s">
         <v>1703</v>
-      </c>
-      <c r="U179" s="3" t="s">
-        <v>1704</v>
       </c>
     </row>
     <row r="180" ht="18" spans="1:21">
       <c r="A180" s="3" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="B180" s="3" t="s">
         <v>1135</v>
@@ -26066,13 +26084,13 @@
         <v>41</v>
       </c>
       <c r="E180" s="3" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="F180" s="3" t="s">
         <v>43</v>
       </c>
       <c r="G180" s="3" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="H180" s="4" t="s">
         <v>537</v>
@@ -26087,13 +26105,13 @@
         <v>892</v>
       </c>
       <c r="L180" s="3" t="s">
+        <v>1707</v>
+      </c>
+      <c r="M180" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N180" s="3" t="s">
         <v>1708</v>
-      </c>
-      <c r="M180" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="N180" s="3" t="s">
-        <v>1709</v>
       </c>
       <c r="O180" s="3" t="s">
         <v>363</v>
@@ -26102,7 +26120,7 @@
         <v>108</v>
       </c>
       <c r="Q180" s="3" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="R180" s="3" t="s">
         <v>1056</v>
@@ -26111,15 +26129,15 @@
         <v>31</v>
       </c>
       <c r="T180" s="3" t="s">
+        <v>1710</v>
+      </c>
+      <c r="U180" s="3" t="s">
         <v>1711</v>
-      </c>
-      <c r="U180" s="3" t="s">
-        <v>1712</v>
       </c>
     </row>
     <row r="181" ht="18" spans="1:21">
       <c r="A181" s="3" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="B181" s="3" t="s">
         <v>1135</v>
@@ -26131,19 +26149,19 @@
         <v>772</v>
       </c>
       <c r="E181" s="3" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="F181" s="3" t="s">
         <v>75</v>
       </c>
       <c r="G181" s="3" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="H181" s="4" t="s">
         <v>523</v>
       </c>
       <c r="I181" s="3" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="J181" s="3" t="s">
         <v>63</v>
@@ -26152,31 +26170,31 @@
         <v>31</v>
       </c>
       <c r="L181" s="3" t="s">
+        <v>1716</v>
+      </c>
+      <c r="M181" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N181" s="3" t="s">
         <v>1717</v>
       </c>
-      <c r="M181" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="N181" s="3" t="s">
+      <c r="O181" s="3" t="s">
         <v>1718</v>
       </c>
-      <c r="O181" s="3" t="s">
+      <c r="P181" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q181" s="3" t="s">
         <v>1719</v>
       </c>
-      <c r="P181" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q181" s="3" t="s">
+      <c r="R181" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="S181" s="3" t="s">
         <v>1720</v>
       </c>
-      <c r="R181" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="S181" s="3" t="s">
+      <c r="T181" s="3" t="s">
         <v>1721</v>
-      </c>
-      <c r="T181" s="3" t="s">
-        <v>1722</v>
       </c>
       <c r="U181" s="3" t="s">
         <v>533</v>
@@ -26184,7 +26202,7 @@
     </row>
     <row r="182" ht="18" spans="1:21">
       <c r="A182" s="3" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="B182" s="3" t="s">
         <v>1135</v>
@@ -26196,34 +26214,34 @@
         <v>195</v>
       </c>
       <c r="E182" s="3" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="F182" s="3" t="s">
         <v>193</v>
       </c>
       <c r="G182" s="3" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="H182" s="4" t="s">
         <v>867</v>
       </c>
       <c r="I182" s="3" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="J182" s="3" t="s">
         <v>63</v>
       </c>
       <c r="K182" s="3" t="s">
+        <v>1725</v>
+      </c>
+      <c r="L182" s="3" t="s">
         <v>1726</v>
-      </c>
-      <c r="L182" s="3" t="s">
-        <v>1727</v>
       </c>
       <c r="M182" s="3" t="s">
         <v>198</v>
       </c>
       <c r="N182" s="3" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="O182" s="3" t="s">
         <v>1158</v>
@@ -26232,24 +26250,24 @@
         <v>31</v>
       </c>
       <c r="Q182" s="3" t="s">
+        <v>1728</v>
+      </c>
+      <c r="R182" s="3" t="s">
         <v>1729</v>
       </c>
-      <c r="R182" s="3" t="s">
+      <c r="S182" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="T182" s="3" t="s">
         <v>1730</v>
       </c>
-      <c r="S182" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="T182" s="3" t="s">
+      <c r="U182" s="3" t="s">
         <v>1731</v>
-      </c>
-      <c r="U182" s="3" t="s">
-        <v>1732</v>
       </c>
     </row>
     <row r="183" ht="18" spans="1:21">
       <c r="A183" s="3" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="B183" s="3" t="s">
         <v>1135</v>
@@ -26261,19 +26279,19 @@
         <v>195</v>
       </c>
       <c r="E183" s="3" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="F183" s="3" t="s">
         <v>193</v>
       </c>
       <c r="G183" s="3" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="H183" s="4" t="s">
         <v>523</v>
       </c>
       <c r="I183" s="3" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="J183" s="3" t="s">
         <v>63</v>
@@ -26303,18 +26321,18 @@
         <v>31</v>
       </c>
       <c r="S183" s="3" t="s">
+        <v>1735</v>
+      </c>
+      <c r="T183" s="3" t="s">
         <v>1736</v>
       </c>
-      <c r="T183" s="3" t="s">
+      <c r="U183" s="3" t="s">
         <v>1737</v>
-      </c>
-      <c r="U183" s="3" t="s">
-        <v>1738</v>
       </c>
     </row>
     <row r="184" ht="18" spans="1:21">
       <c r="A184" s="3" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="B184" s="3" t="s">
         <v>1135</v>
@@ -26332,13 +26350,13 @@
         <v>293</v>
       </c>
       <c r="G184" s="3" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="H184" s="4" t="s">
         <v>867</v>
       </c>
       <c r="I184" s="3" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="J184" s="3" t="s">
         <v>63</v>
@@ -26365,21 +26383,21 @@
         <v>34</v>
       </c>
       <c r="R184" s="3" t="s">
+        <v>1741</v>
+      </c>
+      <c r="S184" s="3" t="s">
         <v>1742</v>
       </c>
-      <c r="S184" s="3" t="s">
+      <c r="T184" s="3" t="s">
         <v>1743</v>
       </c>
-      <c r="T184" s="3" t="s">
+      <c r="U184" s="3" t="s">
         <v>1744</v>
-      </c>
-      <c r="U184" s="3" t="s">
-        <v>1745</v>
       </c>
     </row>
     <row r="185" ht="18" spans="1:21">
       <c r="A185" s="3" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="B185" s="3" t="s">
         <v>1135</v>
@@ -26391,60 +26409,60 @@
         <v>1128</v>
       </c>
       <c r="E185" s="3" t="s">
-        <v>1495</v>
+        <v>1492</v>
       </c>
       <c r="F185" s="3" t="s">
         <v>43</v>
       </c>
       <c r="G185" s="3" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="H185" s="4" t="s">
         <v>275</v>
       </c>
       <c r="I185" s="3" t="s">
-        <v>1495</v>
+        <v>1492</v>
       </c>
       <c r="J185" s="3" t="s">
         <v>63</v>
       </c>
       <c r="K185" s="3" t="s">
+        <v>1747</v>
+      </c>
+      <c r="L185" s="3" t="s">
         <v>1748</v>
       </c>
-      <c r="L185" s="3" t="s">
+      <c r="M185" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N185" s="3" t="s">
         <v>1749</v>
       </c>
-      <c r="M185" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="N185" s="3" t="s">
+      <c r="O185" s="3" t="s">
         <v>1750</v>
       </c>
-      <c r="O185" s="3" t="s">
+      <c r="P185" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q185" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R185" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="S185" s="3" t="s">
         <v>1751</v>
       </c>
-      <c r="P185" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q185" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="R185" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="S185" s="3" t="s">
+      <c r="T185" s="3" t="s">
         <v>1752</v>
       </c>
-      <c r="T185" s="3" t="s">
+      <c r="U185" s="3" t="s">
         <v>1753</v>
-      </c>
-      <c r="U185" s="3" t="s">
-        <v>1754</v>
       </c>
     </row>
     <row r="186" ht="18" spans="1:21">
       <c r="A186" s="3" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="B186" s="3" t="s">
         <v>1135</v>
@@ -26456,19 +26474,19 @@
         <v>195</v>
       </c>
       <c r="E186" s="3" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="F186" s="3" t="s">
         <v>193</v>
       </c>
       <c r="G186" s="3" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="H186" s="4" t="s">
         <v>408</v>
       </c>
       <c r="I186" s="3" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="J186" s="3" t="s">
         <v>63</v>
@@ -26492,24 +26510,24 @@
         <v>31</v>
       </c>
       <c r="Q186" s="3" t="s">
+        <v>1758</v>
+      </c>
+      <c r="R186" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="S186" s="3" t="s">
         <v>1759</v>
       </c>
-      <c r="R186" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="S186" s="3" t="s">
+      <c r="T186" s="3" t="s">
         <v>1760</v>
       </c>
-      <c r="T186" s="3" t="s">
+      <c r="U186" s="3" t="s">
         <v>1761</v>
-      </c>
-      <c r="U186" s="3" t="s">
-        <v>1762</v>
       </c>
     </row>
     <row r="187" ht="18" spans="1:21">
       <c r="A187" s="3" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="B187" s="3" t="s">
         <v>1135</v>
@@ -26518,25 +26536,25 @@
         <v>2014</v>
       </c>
       <c r="D187" s="3" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="E187" s="3" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="F187" s="3" t="s">
         <v>889</v>
       </c>
       <c r="G187" s="3" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="H187" s="4" t="s">
         <v>399</v>
       </c>
       <c r="I187" s="3" t="s">
+        <v>1764</v>
+      </c>
+      <c r="J187" s="3" t="s">
         <v>1765</v>
-      </c>
-      <c r="J187" s="3" t="s">
-        <v>1766</v>
       </c>
       <c r="K187" s="3" t="s">
         <v>31</v>
@@ -26551,22 +26569,22 @@
         <v>123</v>
       </c>
       <c r="O187" s="3" t="s">
+        <v>1766</v>
+      </c>
+      <c r="P187" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q187" s="3" t="s">
         <v>1767</v>
       </c>
-      <c r="P187" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q187" s="3" t="s">
+      <c r="R187" s="3" t="s">
+        <v>1227</v>
+      </c>
+      <c r="S187" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="T187" s="3" t="s">
         <v>1768</v>
-      </c>
-      <c r="R187" s="3" t="s">
-        <v>1228</v>
-      </c>
-      <c r="S187" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="T187" s="3" t="s">
-        <v>1769</v>
       </c>
       <c r="U187" s="3" t="s">
         <v>533</v>
@@ -26574,7 +26592,7 @@
     </row>
     <row r="188" ht="18" spans="1:21">
       <c r="A188" s="3" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="B188" s="3" t="s">
         <v>1135</v>
@@ -26589,31 +26607,31 @@
         <v>549</v>
       </c>
       <c r="F188" s="3" t="s">
+        <v>1770</v>
+      </c>
+      <c r="G188" s="3" t="s">
         <v>1771</v>
-      </c>
-      <c r="G188" s="3" t="s">
-        <v>1772</v>
       </c>
       <c r="H188" s="4" t="s">
         <v>460</v>
       </c>
       <c r="I188" s="3" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="J188" s="3" t="s">
         <v>63</v>
       </c>
       <c r="K188" s="3" t="s">
+        <v>1773</v>
+      </c>
+      <c r="L188" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M188" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N188" s="3" t="s">
         <v>1774</v>
-      </c>
-      <c r="L188" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="M188" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="N188" s="3" t="s">
-        <v>1775</v>
       </c>
       <c r="O188" s="3" t="s">
         <v>107</v>
@@ -26622,24 +26640,24 @@
         <v>31</v>
       </c>
       <c r="Q188" s="3" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="R188" s="3" t="s">
+        <v>1775</v>
+      </c>
+      <c r="S188" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="T188" s="3" t="s">
         <v>1776</v>
       </c>
-      <c r="S188" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="T188" s="3" t="s">
+      <c r="U188" s="3" t="s">
         <v>1777</v>
-      </c>
-      <c r="U188" s="3" t="s">
-        <v>1778</v>
       </c>
     </row>
     <row r="189" ht="18" spans="1:21">
       <c r="A189" s="3" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="B189" s="3" t="s">
         <v>1135</v>
@@ -26648,37 +26666,37 @@
         <v>2023</v>
       </c>
       <c r="D189" s="3" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="E189" s="3" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="F189" s="3" t="s">
         <v>889</v>
       </c>
       <c r="G189" s="3" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="H189" s="4" t="s">
         <v>399</v>
       </c>
       <c r="I189" s="3" t="s">
+        <v>1780</v>
+      </c>
+      <c r="J189" s="3" t="s">
         <v>1781</v>
       </c>
-      <c r="J189" s="3" t="s">
+      <c r="K189" s="3" t="s">
         <v>1782</v>
       </c>
-      <c r="K189" s="3" t="s">
+      <c r="L189" s="3" t="s">
         <v>1783</v>
-      </c>
-      <c r="L189" s="3" t="s">
-        <v>1784</v>
       </c>
       <c r="M189" s="3" t="s">
         <v>556</v>
       </c>
       <c r="N189" s="3" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="O189" s="3" t="s">
         <v>363</v>
@@ -26687,24 +26705,24 @@
         <v>31</v>
       </c>
       <c r="Q189" s="3" t="s">
+        <v>1785</v>
+      </c>
+      <c r="R189" s="3" t="s">
         <v>1786</v>
       </c>
-      <c r="R189" s="3" t="s">
+      <c r="S189" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="T189" s="3" t="s">
         <v>1787</v>
       </c>
-      <c r="S189" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="T189" s="3" t="s">
+      <c r="U189" s="3" t="s">
         <v>1788</v>
-      </c>
-      <c r="U189" s="3" t="s">
-        <v>1789</v>
       </c>
     </row>
     <row r="190" ht="18" spans="1:21">
       <c r="A190" s="3" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="B190" s="3" t="s">
         <v>1135</v>
@@ -26716,19 +26734,19 @@
         <v>1128</v>
       </c>
       <c r="E190" s="3" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="F190" s="3" t="s">
         <v>193</v>
       </c>
       <c r="G190" s="3" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="H190" s="4" t="s">
         <v>408</v>
       </c>
       <c r="I190" s="3" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="J190" s="3" t="s">
         <v>63</v>
@@ -26758,18 +26776,18 @@
         <v>31</v>
       </c>
       <c r="S190" s="3" t="s">
+        <v>1793</v>
+      </c>
+      <c r="T190" s="3" t="s">
         <v>1794</v>
       </c>
-      <c r="T190" s="3" t="s">
+      <c r="U190" s="3" t="s">
         <v>1795</v>
-      </c>
-      <c r="U190" s="3" t="s">
-        <v>1796</v>
       </c>
     </row>
     <row r="191" ht="18" spans="1:21">
       <c r="A191" s="3" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="B191" s="3" t="s">
         <v>1135</v>
@@ -26778,31 +26796,31 @@
         <v>2022</v>
       </c>
       <c r="D191" s="3" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="E191" s="3" t="s">
+        <v>1797</v>
+      </c>
+      <c r="F191" s="3" t="s">
+        <v>1362</v>
+      </c>
+      <c r="G191" s="3" t="s">
         <v>1798</v>
-      </c>
-      <c r="F191" s="3" t="s">
-        <v>1365</v>
-      </c>
-      <c r="G191" s="3" t="s">
-        <v>1799</v>
       </c>
       <c r="H191" s="4" t="s">
         <v>523</v>
       </c>
       <c r="I191" s="3" t="s">
+        <v>1799</v>
+      </c>
+      <c r="J191" s="3" t="s">
         <v>1800</v>
       </c>
-      <c r="J191" s="3" t="s">
+      <c r="K191" s="3" t="s">
         <v>1801</v>
       </c>
-      <c r="K191" s="3" t="s">
-        <v>1802</v>
-      </c>
       <c r="L191" s="3" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="M191" s="3" t="s">
         <v>31</v>
@@ -26811,30 +26829,30 @@
         <v>704</v>
       </c>
       <c r="O191" s="3" t="s">
+        <v>1802</v>
+      </c>
+      <c r="P191" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q191" s="3" t="s">
         <v>1803</v>
       </c>
-      <c r="P191" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q191" s="3" t="s">
+      <c r="R191" s="3" t="s">
         <v>1804</v>
       </c>
-      <c r="R191" s="3" t="s">
+      <c r="S191" s="3" t="s">
         <v>1805</v>
       </c>
-      <c r="S191" s="3" t="s">
+      <c r="T191" s="3" t="s">
         <v>1806</v>
       </c>
-      <c r="T191" s="3" t="s">
+      <c r="U191" s="3" t="s">
         <v>1807</v>
-      </c>
-      <c r="U191" s="3" t="s">
-        <v>1808</v>
       </c>
     </row>
     <row r="192" ht="18" spans="1:21">
       <c r="A192" s="3" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="B192" s="3" t="s">
         <v>1135</v>
@@ -26843,37 +26861,37 @@
         <v>2024</v>
       </c>
       <c r="D192" s="3" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="E192" s="3" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="F192" s="3" t="s">
         <v>889</v>
       </c>
       <c r="G192" s="3" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="H192" s="4" t="s">
         <v>867</v>
       </c>
       <c r="I192" s="3" t="s">
+        <v>1810</v>
+      </c>
+      <c r="J192" s="3" t="s">
         <v>1811</v>
       </c>
-      <c r="J192" s="3" t="s">
+      <c r="K192" s="3" t="s">
         <v>1812</v>
       </c>
-      <c r="K192" s="3" t="s">
+      <c r="L192" s="3" t="s">
+        <v>1783</v>
+      </c>
+      <c r="M192" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N192" s="3" t="s">
         <v>1813</v>
-      </c>
-      <c r="L192" s="3" t="s">
-        <v>1784</v>
-      </c>
-      <c r="M192" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="N192" s="3" t="s">
-        <v>1814</v>
       </c>
       <c r="O192" s="3" t="s">
         <v>124</v>
@@ -26882,16 +26900,16 @@
         <v>31</v>
       </c>
       <c r="Q192" s="3" t="s">
+        <v>1814</v>
+      </c>
+      <c r="R192" s="3" t="s">
         <v>1815</v>
       </c>
-      <c r="R192" s="3" t="s">
+      <c r="S192" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="T192" s="3" t="s">
         <v>1816</v>
-      </c>
-      <c r="S192" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="T192" s="3" t="s">
-        <v>1817</v>
       </c>
       <c r="U192" s="3" t="s">
         <v>533</v>
@@ -26899,7 +26917,7 @@
     </row>
     <row r="193" ht="18" spans="1:21">
       <c r="A193" s="8" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="B193" s="3" t="s">
         <v>1135</v>
@@ -26908,31 +26926,31 @@
         <v>2025</v>
       </c>
       <c r="D193" s="3" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="E193" s="3" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="F193" s="3" t="s">
         <v>889</v>
       </c>
       <c r="G193" s="8" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="H193" s="4" t="s">
         <v>336</v>
       </c>
       <c r="I193" s="3" t="s">
+        <v>1819</v>
+      </c>
+      <c r="J193" s="3" t="s">
         <v>1820</v>
       </c>
-      <c r="J193" s="3" t="s">
-        <v>1821</v>
-      </c>
       <c r="K193" s="3" t="s">
+        <v>1697</v>
+      </c>
+      <c r="L193" s="3" t="s">
         <v>1698</v>
-      </c>
-      <c r="L193" s="3" t="s">
-        <v>1699</v>
       </c>
       <c r="M193" s="3" t="s">
         <v>998</v>
@@ -26947,24 +26965,24 @@
         <v>31</v>
       </c>
       <c r="Q193" s="3" t="s">
+        <v>1821</v>
+      </c>
+      <c r="R193" s="3" t="s">
         <v>1822</v>
       </c>
-      <c r="R193" s="3" t="s">
+      <c r="S193" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="T193" s="3" t="s">
         <v>1823</v>
       </c>
-      <c r="S193" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="T193" s="3" t="s">
+      <c r="U193" s="3" t="s">
         <v>1824</v>
-      </c>
-      <c r="U193" s="3" t="s">
-        <v>1825</v>
       </c>
     </row>
     <row r="194" ht="18" spans="1:21">
       <c r="A194" s="8" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="B194" s="3" t="s">
         <v>1135</v>
@@ -26973,31 +26991,31 @@
         <v>2025</v>
       </c>
       <c r="D194" s="3" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="E194" s="3" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="F194" s="3" t="s">
         <v>889</v>
       </c>
       <c r="G194" s="8" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="H194" s="4" t="s">
         <v>336</v>
       </c>
       <c r="I194" s="3" t="s">
+        <v>1819</v>
+      </c>
+      <c r="J194" s="3" t="s">
         <v>1820</v>
       </c>
-      <c r="J194" s="3" t="s">
-        <v>1821</v>
-      </c>
       <c r="K194" s="3" t="s">
+        <v>1697</v>
+      </c>
+      <c r="L194" s="3" t="s">
         <v>1698</v>
-      </c>
-      <c r="L194" s="3" t="s">
-        <v>1699</v>
       </c>
       <c r="M194" s="3" t="s">
         <v>998</v>
@@ -27012,24 +27030,24 @@
         <v>31</v>
       </c>
       <c r="Q194" s="3" t="s">
+        <v>1826</v>
+      </c>
+      <c r="R194" s="3" t="s">
         <v>1827</v>
       </c>
-      <c r="R194" s="3" t="s">
-        <v>1828</v>
-      </c>
       <c r="S194" s="3" t="s">
         <v>31</v>
       </c>
       <c r="T194" s="3" t="s">
+        <v>1823</v>
+      </c>
+      <c r="U194" s="3" t="s">
         <v>1824</v>
-      </c>
-      <c r="U194" s="3" t="s">
-        <v>1825</v>
       </c>
     </row>
     <row r="195" ht="18" spans="1:21">
       <c r="A195" s="3" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="B195" s="3" t="s">
         <v>1135</v>
@@ -27041,13 +27059,13 @@
         <v>195</v>
       </c>
       <c r="E195" s="3" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="F195" s="3" t="s">
         <v>193</v>
       </c>
       <c r="G195" s="3" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="H195" s="4" t="s">
         <v>523</v>
@@ -27062,13 +27080,13 @@
         <v>31</v>
       </c>
       <c r="L195" s="3" t="s">
+        <v>1831</v>
+      </c>
+      <c r="M195" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N195" s="3" t="s">
         <v>1832</v>
-      </c>
-      <c r="M195" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="N195" s="3" t="s">
-        <v>1833</v>
       </c>
       <c r="O195" s="3" t="s">
         <v>528</v>
@@ -27083,18 +27101,18 @@
         <v>31</v>
       </c>
       <c r="S195" s="3" t="s">
+        <v>1833</v>
+      </c>
+      <c r="T195" s="3" t="s">
         <v>1834</v>
       </c>
-      <c r="T195" s="3" t="s">
+      <c r="U195" s="3" t="s">
         <v>1835</v>
-      </c>
-      <c r="U195" s="3" t="s">
-        <v>1836</v>
       </c>
     </row>
     <row r="196" ht="18" spans="1:21">
       <c r="A196" s="3" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
       <c r="B196" s="3" t="s">
         <v>1135</v>
@@ -27106,60 +27124,60 @@
         <v>73</v>
       </c>
       <c r="E196" s="3" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="F196" s="3" t="s">
         <v>1213</v>
       </c>
       <c r="G196" s="3" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="H196" s="4" t="s">
         <v>471</v>
       </c>
       <c r="I196" s="3" t="s">
-        <v>1312</v>
+        <v>1309</v>
       </c>
       <c r="J196" s="3" t="s">
         <v>63</v>
       </c>
       <c r="K196" s="3" t="s">
+        <v>1839</v>
+      </c>
+      <c r="L196" s="3" t="s">
         <v>1840</v>
       </c>
-      <c r="L196" s="3" t="s">
+      <c r="M196" s="3" t="s">
+        <v>1638</v>
+      </c>
+      <c r="N196" s="3" t="s">
         <v>1841</v>
       </c>
-      <c r="M196" s="3" t="s">
-        <v>1639</v>
-      </c>
-      <c r="N196" s="3" t="s">
+      <c r="O196" s="3" t="s">
         <v>1842</v>
       </c>
-      <c r="O196" s="3" t="s">
+      <c r="P196" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q196" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R196" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="S196" s="3" t="s">
         <v>1843</v>
       </c>
-      <c r="P196" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q196" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="R196" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="S196" s="3" t="s">
+      <c r="T196" s="3" t="s">
         <v>1844</v>
       </c>
-      <c r="T196" s="3" t="s">
+      <c r="U196" s="3" t="s">
         <v>1845</v>
-      </c>
-      <c r="U196" s="3" t="s">
-        <v>1846</v>
       </c>
     </row>
     <row r="197" ht="18" spans="1:21">
       <c r="A197" s="3" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="B197" s="3" t="s">
         <v>1135</v>
@@ -27171,19 +27189,19 @@
         <v>41</v>
       </c>
       <c r="E197" s="3" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="F197" s="3" t="s">
         <v>43</v>
       </c>
       <c r="G197" s="3" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="H197" s="4" t="s">
         <v>61</v>
       </c>
       <c r="I197" s="3" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="J197" s="3" t="s">
         <v>63</v>
@@ -27204,27 +27222,27 @@
         <v>124</v>
       </c>
       <c r="P197" s="3" t="s">
+        <v>1850</v>
+      </c>
+      <c r="Q197" s="3" t="s">
         <v>1851</v>
       </c>
-      <c r="Q197" s="3" t="s">
+      <c r="R197" s="3" t="s">
         <v>1852</v>
       </c>
-      <c r="R197" s="3" t="s">
+      <c r="S197" s="3" t="s">
         <v>1853</v>
       </c>
-      <c r="S197" s="3" t="s">
+      <c r="T197" s="3" t="s">
         <v>1854</v>
       </c>
-      <c r="T197" s="3" t="s">
+      <c r="U197" s="3" t="s">
         <v>1855</v>
-      </c>
-      <c r="U197" s="3" t="s">
-        <v>1856</v>
       </c>
     </row>
     <row r="198" ht="18" spans="1:21">
       <c r="A198" s="3" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="B198" s="3" t="s">
         <v>1135</v>
@@ -27236,13 +27254,13 @@
         <v>449</v>
       </c>
       <c r="E198" s="3" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="F198" s="3" t="s">
         <v>43</v>
       </c>
       <c r="G198" s="3" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="H198" s="4" t="s">
         <v>148</v>
@@ -27254,16 +27272,16 @@
         <v>63</v>
       </c>
       <c r="K198" s="3" t="s">
+        <v>1859</v>
+      </c>
+      <c r="L198" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M198" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N198" s="3" t="s">
         <v>1860</v>
-      </c>
-      <c r="L198" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="M198" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="N198" s="3" t="s">
-        <v>1861</v>
       </c>
       <c r="O198" s="3" t="s">
         <v>107</v>
@@ -27272,24 +27290,24 @@
         <v>912</v>
       </c>
       <c r="Q198" s="3" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="R198" s="3" t="s">
+        <v>1861</v>
+      </c>
+      <c r="S198" s="3" t="s">
         <v>1862</v>
       </c>
-      <c r="S198" s="3" t="s">
+      <c r="T198" s="3" t="s">
         <v>1863</v>
       </c>
-      <c r="T198" s="3" t="s">
+      <c r="U198" s="3" t="s">
         <v>1864</v>
-      </c>
-      <c r="U198" s="3" t="s">
-        <v>1865</v>
       </c>
     </row>
     <row r="199" ht="18" spans="1:21">
       <c r="A199" s="3" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="B199" s="3" t="s">
         <v>1135</v>
@@ -27301,7 +27319,7 @@
         <v>195</v>
       </c>
       <c r="E199" s="3" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="F199" s="3" t="s">
         <v>193</v>
@@ -27313,19 +27331,19 @@
         <v>867</v>
       </c>
       <c r="I199" s="3" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="J199" s="3" t="s">
         <v>63</v>
       </c>
       <c r="K199" s="3" t="s">
+        <v>1867</v>
+      </c>
+      <c r="L199" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M199" s="3" t="s">
         <v>1868</v>
-      </c>
-      <c r="L199" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="M199" s="3" t="s">
-        <v>1869</v>
       </c>
       <c r="N199" s="3" t="s">
         <v>541</v>
@@ -27337,24 +27355,24 @@
         <v>31</v>
       </c>
       <c r="Q199" s="3" t="s">
+        <v>1869</v>
+      </c>
+      <c r="R199" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="S199" s="3" t="s">
         <v>1870</v>
       </c>
-      <c r="R199" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="S199" s="3" t="s">
+      <c r="T199" s="3" t="s">
         <v>1871</v>
       </c>
-      <c r="T199" s="3" t="s">
+      <c r="U199" s="3" t="s">
         <v>1872</v>
-      </c>
-      <c r="U199" s="3" t="s">
-        <v>1873</v>
       </c>
     </row>
     <row r="200" ht="18" spans="1:21">
       <c r="A200" s="3" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="B200" s="3" t="s">
         <v>1135</v>
@@ -27366,13 +27384,13 @@
         <v>195</v>
       </c>
       <c r="E200" s="3" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="F200" s="3" t="s">
         <v>193</v>
       </c>
       <c r="G200" s="3" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="H200" s="4" t="s">
         <v>537</v>
@@ -27387,13 +27405,13 @@
         <v>31</v>
       </c>
       <c r="L200" s="3" t="s">
+        <v>1875</v>
+      </c>
+      <c r="M200" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N200" s="3" t="s">
         <v>1876</v>
-      </c>
-      <c r="M200" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="N200" s="3" t="s">
-        <v>1877</v>
       </c>
       <c r="O200" s="3" t="s">
         <v>107</v>
@@ -27411,15 +27429,15 @@
         <v>31</v>
       </c>
       <c r="T200" s="3" t="s">
+        <v>1877</v>
+      </c>
+      <c r="U200" s="3" t="s">
         <v>1878</v>
-      </c>
-      <c r="U200" s="3" t="s">
-        <v>1879</v>
       </c>
     </row>
     <row r="201" ht="18" spans="1:21">
       <c r="A201" s="3" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="B201" s="3" t="s">
         <v>1135</v>
@@ -27431,19 +27449,19 @@
         <v>41</v>
       </c>
       <c r="E201" s="3" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="F201" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G201" s="3" t="s">
+      <c r="G201" s="9" t="s">
+        <v>1881</v>
+      </c>
+      <c r="H201" s="4" t="s">
+        <v>1354</v>
+      </c>
+      <c r="I201" s="3" t="s">
         <v>1882</v>
-      </c>
-      <c r="H201" s="4" t="s">
-        <v>1357</v>
-      </c>
-      <c r="I201" s="3" t="s">
-        <v>1883</v>
       </c>
       <c r="J201" s="3" t="s">
         <v>63</v>
@@ -27464,27 +27482,27 @@
         <v>107</v>
       </c>
       <c r="P201" s="3" t="s">
-        <v>1378</v>
+        <v>1375</v>
       </c>
       <c r="Q201" s="3" t="s">
         <v>1189</v>
       </c>
       <c r="R201" s="3" t="s">
+        <v>1883</v>
+      </c>
+      <c r="S201" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="T201" s="3" t="s">
         <v>1884</v>
       </c>
-      <c r="S201" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="T201" s="3" t="s">
+      <c r="U201" s="3" t="s">
         <v>1885</v>
-      </c>
-      <c r="U201" s="3" t="s">
-        <v>1886</v>
       </c>
     </row>
     <row r="202" ht="18" spans="1:21">
       <c r="A202" s="3" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
       <c r="B202" s="3" t="s">
         <v>1135</v>
@@ -27496,18 +27514,18 @@
         <v>195</v>
       </c>
       <c r="E202" s="3" t="s">
-        <v>1240</v>
-      </c>
-      <c r="F202" s="10" t="s">
+        <v>1239</v>
+      </c>
+      <c r="F202" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="G202" s="10" t="s">
-        <v>1234</v>
+      <c r="G202" s="11" t="s">
+        <v>1887</v>
       </c>
       <c r="H202" s="4" t="s">
-        <v>523</v>
-      </c>
-      <c r="I202" s="3" t="s">
+        <v>1888</v>
+      </c>
+      <c r="I202" s="4" t="s">
         <v>1888</v>
       </c>
       <c r="J202" s="3" t="s">
@@ -27591,7 +27609,7 @@
         <v>1901</v>
       </c>
       <c r="O203" s="3" t="s">
-        <v>1402</v>
+        <v>1399</v>
       </c>
       <c r="P203" s="3" t="s">
         <v>31</v>
@@ -27632,7 +27650,7 @@
         <v>193</v>
       </c>
       <c r="G204" s="3" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="H204" s="4" t="s">
         <v>537</v>
@@ -27848,7 +27866,7 @@
         <v>1930</v>
       </c>
       <c r="N207" s="3" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="O207" s="3" t="s">
         <v>1931</v>
@@ -27954,7 +27972,7 @@
         <v>1946</v>
       </c>
       <c r="F209" s="3" t="s">
-        <v>1448</v>
+        <v>1445</v>
       </c>
       <c r="G209" s="3" t="s">
         <v>1947</v>
@@ -28093,7 +28111,7 @@
         <v>275</v>
       </c>
       <c r="I211" s="3" t="s">
-        <v>1329</v>
+        <v>1326</v>
       </c>
       <c r="J211" s="3" t="s">
         <v>63</v>
@@ -28111,7 +28129,7 @@
         <v>65</v>
       </c>
       <c r="O211" s="3" t="s">
-        <v>1402</v>
+        <v>1399</v>
       </c>
       <c r="P211" s="3" t="s">
         <v>31</v>
@@ -28176,7 +28194,7 @@
         <v>911</v>
       </c>
       <c r="O212" s="3" t="s">
-        <v>1306</v>
+        <v>1303</v>
       </c>
       <c r="P212" s="3" t="s">
         <v>1977</v>
@@ -28229,7 +28247,7 @@
         <v>63</v>
       </c>
       <c r="K213" s="3" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="L213" s="3" t="s">
         <v>31</v>
@@ -28241,7 +28259,7 @@
         <v>1988</v>
       </c>
       <c r="O213" s="3" t="s">
-        <v>1522</v>
+        <v>1520</v>
       </c>
       <c r="P213" s="3" t="s">
         <v>31</v>
@@ -28278,17 +28296,17 @@
       <c r="E214" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="F214" s="10" t="s">
+      <c r="F214" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="G214" s="10" t="s">
-        <v>1234</v>
+      <c r="G214" s="11" t="s">
+        <v>1993</v>
       </c>
       <c r="H214" s="4" t="s">
         <v>957</v>
       </c>
       <c r="I214" s="3" t="s">
-        <v>1993</v>
+        <v>1994</v>
       </c>
       <c r="J214" s="3" t="s">
         <v>31</v>
@@ -28297,13 +28315,13 @@
         <v>31</v>
       </c>
       <c r="L214" s="3" t="s">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="M214" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N214" s="3" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="O214" s="3" t="s">
         <v>31</v>
@@ -28318,7 +28336,7 @@
         <v>31</v>
       </c>
       <c r="S214" s="3" t="s">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="T214" s="3" t="s">
         <v>1991</v>
@@ -28329,7 +28347,7 @@
     </row>
     <row r="215" ht="18" spans="1:21">
       <c r="A215" s="3" t="s">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="B215" s="3" t="s">
         <v>1135</v>
@@ -28341,16 +28359,16 @@
         <v>206</v>
       </c>
       <c r="E215" s="3" t="s">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="F215" s="3" t="s">
         <v>181</v>
       </c>
       <c r="G215" s="3" t="s">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="H215" s="4" t="s">
-        <v>1357</v>
+        <v>1354</v>
       </c>
       <c r="I215" s="3" t="s">
         <v>210</v>
@@ -28383,18 +28401,18 @@
         <v>31</v>
       </c>
       <c r="S215" s="3" t="s">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="T215" s="3" t="s">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="U215" s="3" t="s">
-        <v>2001</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="216" ht="18" spans="1:21">
       <c r="A216" s="3" t="s">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="B216" s="3" t="s">
         <v>1135</v>
@@ -28406,19 +28424,19 @@
         <v>73</v>
       </c>
       <c r="E216" s="3" t="s">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="F216" s="3" t="s">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="G216" s="3" t="s">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="H216" s="4" t="s">
         <v>27</v>
       </c>
       <c r="I216" s="3" t="s">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="J216" s="3" t="s">
         <v>63</v>
@@ -28439,7 +28457,7 @@
         <v>107</v>
       </c>
       <c r="P216" s="3" t="s">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="Q216" s="3" t="s">
         <v>31</v>
@@ -28448,18 +28466,18 @@
         <v>31</v>
       </c>
       <c r="S216" s="3" t="s">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="T216" s="3" t="s">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="U216" s="3" t="s">
-        <v>2010</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="217" ht="18" spans="1:21">
       <c r="A217" s="3" t="s">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B217" s="3" t="s">
         <v>1135</v>
@@ -28477,22 +28495,22 @@
         <v>43</v>
       </c>
       <c r="G217" s="3" t="s">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="H217" s="4" t="s">
         <v>1138</v>
       </c>
       <c r="I217" s="3" t="s">
-        <v>1509</v>
+        <v>1507</v>
       </c>
       <c r="J217" s="3" t="s">
         <v>63</v>
       </c>
       <c r="K217" s="3" t="s">
-        <v>1510</v>
+        <v>1508</v>
       </c>
       <c r="L217" s="3" t="s">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="M217" s="3" t="s">
         <v>31</v>
@@ -28507,24 +28525,24 @@
         <v>108</v>
       </c>
       <c r="Q217" s="3" t="s">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="R217" s="3" t="s">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="S217" s="3" t="s">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="T217" s="3" t="s">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="U217" s="3" t="s">
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="218" ht="18" spans="1:21">
       <c r="A218" s="3" t="s">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B218" s="3" t="s">
         <v>1135</v>
@@ -28542,13 +28560,13 @@
         <v>43</v>
       </c>
       <c r="G218" s="3" t="s">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="H218" s="4" t="s">
         <v>275</v>
       </c>
       <c r="I218" s="3" t="s">
-        <v>1329</v>
+        <v>1326</v>
       </c>
       <c r="J218" s="3" t="s">
         <v>47</v>
@@ -28572,24 +28590,24 @@
         <v>31</v>
       </c>
       <c r="Q218" s="3" t="s">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="R218" s="3" t="s">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="S218" s="3" t="s">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="T218" s="3" t="s">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="U218" s="3" t="s">
-        <v>2025</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="219" ht="18" spans="1:21">
       <c r="A219" s="3" t="s">
-        <v>2026</v>
+        <v>2027</v>
       </c>
       <c r="B219" s="3" t="s">
         <v>1135</v>
@@ -28601,19 +28619,19 @@
         <v>41</v>
       </c>
       <c r="E219" s="3" t="s">
-        <v>2027</v>
+        <v>2028</v>
       </c>
       <c r="F219" s="3" t="s">
         <v>1213</v>
       </c>
       <c r="G219" s="3" t="s">
-        <v>2028</v>
+        <v>2029</v>
       </c>
       <c r="H219" s="4" t="s">
-        <v>2029</v>
+        <v>2030</v>
       </c>
       <c r="I219" s="3" t="s">
-        <v>2030</v>
+        <v>2031</v>
       </c>
       <c r="J219" s="3" t="s">
         <v>63</v>
@@ -28622,16 +28640,16 @@
         <v>222</v>
       </c>
       <c r="L219" s="3" t="s">
-        <v>2031</v>
+        <v>2032</v>
       </c>
       <c r="M219" s="3" t="s">
         <v>183</v>
       </c>
       <c r="N219" s="3" t="s">
-        <v>2032</v>
+        <v>2033</v>
       </c>
       <c r="O219" s="3" t="s">
-        <v>1402</v>
+        <v>1399</v>
       </c>
       <c r="P219" s="3" t="s">
         <v>31</v>
@@ -28640,21 +28658,21 @@
         <v>31</v>
       </c>
       <c r="R219" s="3" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="S219" s="3" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="T219" s="3" t="s">
-        <v>2035</v>
+        <v>2036</v>
       </c>
       <c r="U219" s="3" t="s">
-        <v>2036</v>
+        <v>2037</v>
       </c>
     </row>
     <row r="220" ht="18" spans="1:21">
       <c r="A220" s="3" t="s">
-        <v>2037</v>
+        <v>2038</v>
       </c>
       <c r="B220" s="3" t="s">
         <v>1135</v>
@@ -28666,25 +28684,25 @@
         <v>41</v>
       </c>
       <c r="E220" s="3" t="s">
-        <v>2038</v>
+        <v>2039</v>
       </c>
       <c r="F220" s="3" t="s">
         <v>43</v>
       </c>
       <c r="G220" s="3" t="s">
-        <v>2039</v>
+        <v>2040</v>
       </c>
       <c r="H220" s="4" t="s">
         <v>61</v>
       </c>
       <c r="I220" s="3" t="s">
-        <v>2040</v>
+        <v>2041</v>
       </c>
       <c r="J220" s="3" t="s">
         <v>63</v>
       </c>
       <c r="K220" s="3" t="s">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="L220" s="3" t="s">
         <v>31</v>
@@ -28708,18 +28726,18 @@
         <v>31</v>
       </c>
       <c r="S220" s="3" t="s">
-        <v>2042</v>
+        <v>2043</v>
       </c>
       <c r="T220" s="3" t="s">
-        <v>2043</v>
+        <v>2044</v>
       </c>
       <c r="U220" s="3" t="s">
-        <v>2044</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="221" ht="18" spans="1:21">
       <c r="A221" s="3" t="s">
-        <v>2037</v>
+        <v>2038</v>
       </c>
       <c r="B221" s="3" t="s">
         <v>1135</v>
@@ -28731,31 +28749,31 @@
         <v>41</v>
       </c>
       <c r="E221" s="3" t="s">
-        <v>2045</v>
+        <v>2046</v>
       </c>
       <c r="F221" s="3" t="s">
         <v>193</v>
       </c>
       <c r="G221" s="3" t="s">
-        <v>2046</v>
+        <v>2047</v>
       </c>
       <c r="H221" s="4" t="s">
         <v>315</v>
       </c>
       <c r="I221" s="3" t="s">
-        <v>2047</v>
+        <v>2048</v>
       </c>
       <c r="J221" s="3" t="s">
         <v>63</v>
       </c>
       <c r="K221" s="3" t="s">
-        <v>2048</v>
+        <v>2049</v>
       </c>
       <c r="L221" s="3" t="s">
         <v>31</v>
       </c>
       <c r="M221" s="3" t="s">
-        <v>2049</v>
+        <v>2050</v>
       </c>
       <c r="N221" s="3" t="s">
         <v>606</v>
@@ -28773,18 +28791,18 @@
         <v>31</v>
       </c>
       <c r="S221" s="3" t="s">
-        <v>2050</v>
+        <v>2051</v>
       </c>
       <c r="T221" s="3" t="s">
-        <v>2043</v>
+        <v>2044</v>
       </c>
       <c r="U221" s="3" t="s">
-        <v>2044</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="222" ht="18" spans="1:21">
       <c r="A222" s="3" t="s">
-        <v>2051</v>
+        <v>2052</v>
       </c>
       <c r="B222" s="3" t="s">
         <v>1135</v>
@@ -28802,13 +28820,13 @@
         <v>397</v>
       </c>
       <c r="G222" s="3" t="s">
-        <v>2052</v>
+        <v>2053</v>
       </c>
       <c r="H222" s="4" t="s">
         <v>315</v>
       </c>
       <c r="I222" s="3" t="s">
-        <v>2053</v>
+        <v>2054</v>
       </c>
       <c r="J222" s="3" t="s">
         <v>63</v>
@@ -28826,30 +28844,30 @@
         <v>557</v>
       </c>
       <c r="O222" s="3" t="s">
-        <v>2054</v>
+        <v>2055</v>
       </c>
       <c r="P222" s="3" t="s">
         <v>616</v>
       </c>
       <c r="Q222" s="3" t="s">
-        <v>2055</v>
+        <v>2056</v>
       </c>
       <c r="R222" s="3" t="s">
-        <v>2056</v>
+        <v>2057</v>
       </c>
       <c r="S222" s="3" t="s">
-        <v>2057</v>
+        <v>2058</v>
       </c>
       <c r="T222" s="3" t="s">
-        <v>2058</v>
+        <v>2059</v>
       </c>
       <c r="U222" s="3" t="s">
-        <v>2059</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="223" ht="18" spans="1:21">
       <c r="A223" s="3" t="s">
-        <v>2060</v>
+        <v>2061</v>
       </c>
       <c r="B223" s="3" t="s">
         <v>1135</v>
@@ -28867,13 +28885,13 @@
         <v>43</v>
       </c>
       <c r="G223" s="3" t="s">
-        <v>2061</v>
+        <v>2062</v>
       </c>
       <c r="H223" s="4" t="s">
         <v>118</v>
       </c>
       <c r="I223" s="3" t="s">
-        <v>2062</v>
+        <v>2063</v>
       </c>
       <c r="J223" s="3" t="s">
         <v>63</v>
@@ -28891,7 +28909,7 @@
         <v>277</v>
       </c>
       <c r="O223" s="3" t="s">
-        <v>2054</v>
+        <v>2055</v>
       </c>
       <c r="P223" s="3" t="s">
         <v>616</v>
@@ -28903,18 +28921,18 @@
         <v>31</v>
       </c>
       <c r="S223" s="3" t="s">
-        <v>2063</v>
+        <v>2064</v>
       </c>
       <c r="T223" s="3" t="s">
-        <v>2064</v>
+        <v>2065</v>
       </c>
       <c r="U223" s="3" t="s">
-        <v>2065</v>
+        <v>2066</v>
       </c>
     </row>
     <row r="224" ht="18" spans="1:21">
       <c r="A224" s="3" t="s">
-        <v>2066</v>
+        <v>2067</v>
       </c>
       <c r="B224" s="3" t="s">
         <v>1135</v>
@@ -28926,19 +28944,19 @@
         <v>41</v>
       </c>
       <c r="E224" s="3" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="F224" s="3" t="s">
         <v>1958</v>
       </c>
-      <c r="G224" s="3" t="s">
-        <v>2067</v>
+      <c r="G224" s="9" t="s">
+        <v>2068</v>
       </c>
       <c r="H224" s="4" t="s">
-        <v>1357</v>
+        <v>1354</v>
       </c>
       <c r="I224" s="3" t="s">
-        <v>2068</v>
+        <v>2069</v>
       </c>
       <c r="J224" s="3" t="s">
         <v>63</v>
@@ -28953,7 +28971,7 @@
         <v>223</v>
       </c>
       <c r="N224" s="3" t="s">
-        <v>2069</v>
+        <v>2070</v>
       </c>
       <c r="O224" s="3" t="s">
         <v>1158</v>
@@ -28965,21 +28983,21 @@
         <v>34</v>
       </c>
       <c r="R224" s="3" t="s">
-        <v>2070</v>
+        <v>2071</v>
       </c>
       <c r="S224" s="3" t="s">
         <v>31</v>
       </c>
       <c r="T224" s="3" t="s">
-        <v>2071</v>
+        <v>2072</v>
       </c>
       <c r="U224" s="3" t="s">
-        <v>2072</v>
+        <v>2073</v>
       </c>
     </row>
     <row r="225" ht="18" spans="1:21">
       <c r="A225" s="3" t="s">
-        <v>2073</v>
+        <v>2074</v>
       </c>
       <c r="B225" s="3" t="s">
         <v>1135</v>
@@ -28997,13 +29015,13 @@
         <v>263</v>
       </c>
       <c r="G225" s="3" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="H225" s="4" t="s">
         <v>61</v>
       </c>
       <c r="I225" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="J225" s="3" t="s">
         <v>47</v>
@@ -29030,21 +29048,21 @@
         <v>31</v>
       </c>
       <c r="R225" s="3" t="s">
-        <v>2074</v>
+        <v>2075</v>
       </c>
       <c r="S225" s="3" t="s">
-        <v>2075</v>
+        <v>2076</v>
       </c>
       <c r="T225" s="3" t="s">
-        <v>2076</v>
+        <v>2077</v>
       </c>
       <c r="U225" s="3" t="s">
-        <v>2077</v>
+        <v>2078</v>
       </c>
     </row>
     <row r="226" ht="18" spans="1:21">
       <c r="A226" s="3" t="s">
-        <v>2078</v>
+        <v>2079</v>
       </c>
       <c r="B226" s="3" t="s">
         <v>1135</v>
@@ -29059,22 +29077,22 @@
         <v>888</v>
       </c>
       <c r="F226" s="3" t="s">
-        <v>1224</v>
+        <v>790</v>
       </c>
       <c r="G226" s="3" t="s">
-        <v>2079</v>
+        <v>2080</v>
       </c>
       <c r="H226" s="4" t="s">
         <v>220</v>
       </c>
       <c r="I226" s="3" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="J226" s="3" t="s">
         <v>63</v>
       </c>
       <c r="K226" s="3" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="L226" s="3" t="s">
         <v>31</v>
@@ -29095,21 +29113,21 @@
         <v>34</v>
       </c>
       <c r="R226" s="3" t="s">
-        <v>2081</v>
+        <v>2082</v>
       </c>
       <c r="S226" s="3" t="s">
-        <v>2082</v>
+        <v>2083</v>
       </c>
       <c r="T226" s="3" t="s">
-        <v>2083</v>
+        <v>2084</v>
       </c>
       <c r="U226" s="3" t="s">
-        <v>2084</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="227" ht="18" spans="1:21">
       <c r="A227" s="3" t="s">
-        <v>2085</v>
+        <v>2086</v>
       </c>
       <c r="B227" s="3" t="s">
         <v>1135</v>
@@ -29121,37 +29139,37 @@
         <v>131</v>
       </c>
       <c r="E227" s="3" t="s">
-        <v>2086</v>
+        <v>2087</v>
       </c>
       <c r="F227" s="3" t="s">
-        <v>2087</v>
+        <v>2088</v>
       </c>
       <c r="G227" s="3" t="s">
-        <v>2088</v>
+        <v>2089</v>
       </c>
       <c r="H227" s="4" t="s">
         <v>148</v>
       </c>
       <c r="I227" s="3" t="s">
-        <v>2089</v>
+        <v>2090</v>
       </c>
       <c r="J227" s="3" t="s">
         <v>63</v>
       </c>
       <c r="K227" s="3" t="s">
-        <v>2090</v>
+        <v>2091</v>
       </c>
       <c r="L227" s="3" t="s">
         <v>31</v>
       </c>
       <c r="M227" s="3" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="N227" s="3" t="s">
         <v>277</v>
       </c>
       <c r="O227" s="3" t="s">
-        <v>1402</v>
+        <v>1399</v>
       </c>
       <c r="P227" s="3" t="s">
         <v>31</v>
@@ -29160,21 +29178,21 @@
         <v>34</v>
       </c>
       <c r="R227" s="3" t="s">
-        <v>2091</v>
+        <v>2092</v>
       </c>
       <c r="S227" s="3" t="s">
-        <v>2092</v>
+        <v>2093</v>
       </c>
       <c r="T227" s="3" t="s">
-        <v>2093</v>
+        <v>2094</v>
       </c>
       <c r="U227" s="3" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="228" ht="18" spans="1:21">
       <c r="A228" s="3" t="s">
-        <v>2095</v>
+        <v>2096</v>
       </c>
       <c r="B228" s="3" t="s">
         <v>1135</v>
@@ -29186,13 +29204,13 @@
         <v>131</v>
       </c>
       <c r="E228" s="3" t="s">
-        <v>2096</v>
+        <v>2097</v>
       </c>
       <c r="F228" s="3" t="s">
         <v>43</v>
       </c>
       <c r="G228" s="3" t="s">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="H228" s="4" t="s">
         <v>460</v>
@@ -29222,24 +29240,24 @@
         <v>406</v>
       </c>
       <c r="Q228" s="3" t="s">
-        <v>2097</v>
+        <v>2098</v>
       </c>
       <c r="R228" s="3" t="s">
-        <v>2098</v>
+        <v>2099</v>
       </c>
       <c r="S228" s="3" t="s">
         <v>31</v>
       </c>
       <c r="T228" s="3" t="s">
-        <v>2099</v>
+        <v>2100</v>
       </c>
       <c r="U228" s="3" t="s">
-        <v>2100</v>
+        <v>2101</v>
       </c>
     </row>
     <row r="229" ht="18" spans="1:21">
       <c r="A229" s="3" t="s">
-        <v>2101</v>
+        <v>2102</v>
       </c>
       <c r="B229" s="3" t="s">
         <v>1135</v>
@@ -29251,19 +29269,19 @@
         <v>41</v>
       </c>
       <c r="E229" s="3" t="s">
-        <v>2102</v>
+        <v>2103</v>
       </c>
       <c r="F229" s="3" t="s">
         <v>263</v>
       </c>
       <c r="G229" s="3" t="s">
-        <v>2103</v>
+        <v>2104</v>
       </c>
       <c r="H229" s="4" t="s">
         <v>450</v>
       </c>
       <c r="I229" s="3" t="s">
-        <v>2104</v>
+        <v>2105</v>
       </c>
       <c r="J229" s="3" t="s">
         <v>63</v>
@@ -29275,7 +29293,7 @@
         <v>31</v>
       </c>
       <c r="M229" s="3" t="s">
-        <v>2049</v>
+        <v>2050</v>
       </c>
       <c r="N229" s="3" t="s">
         <v>277</v>
@@ -29290,21 +29308,21 @@
         <v>34</v>
       </c>
       <c r="R229" s="3" t="s">
-        <v>2105</v>
+        <v>2106</v>
       </c>
       <c r="S229" s="3" t="s">
-        <v>2106</v>
+        <v>2107</v>
       </c>
       <c r="T229" s="3" t="s">
-        <v>2107</v>
+        <v>2108</v>
       </c>
       <c r="U229" s="3" t="s">
-        <v>2108</v>
+        <v>2109</v>
       </c>
     </row>
     <row r="230" ht="18" spans="1:21">
       <c r="A230" s="3" t="s">
-        <v>2109</v>
+        <v>2110</v>
       </c>
       <c r="B230" s="3" t="s">
         <v>1135</v>
@@ -29316,25 +29334,25 @@
         <v>131</v>
       </c>
       <c r="E230" s="3" t="s">
-        <v>2086</v>
+        <v>2087</v>
       </c>
       <c r="F230" s="3" t="s">
-        <v>2110</v>
+        <v>2111</v>
       </c>
       <c r="G230" s="3" t="s">
-        <v>2111</v>
+        <v>2112</v>
       </c>
       <c r="H230" s="4" t="s">
         <v>148</v>
       </c>
       <c r="I230" s="3" t="s">
-        <v>2089</v>
+        <v>2090</v>
       </c>
       <c r="J230" s="3" t="s">
         <v>63</v>
       </c>
       <c r="K230" s="3" t="s">
-        <v>2112</v>
+        <v>2113</v>
       </c>
       <c r="L230" s="3" t="s">
         <v>31</v>
@@ -29346,7 +29364,7 @@
         <v>277</v>
       </c>
       <c r="O230" s="3" t="s">
-        <v>1402</v>
+        <v>1399</v>
       </c>
       <c r="P230" s="3" t="s">
         <v>31</v>
@@ -29358,18 +29376,18 @@
         <v>31</v>
       </c>
       <c r="S230" s="3" t="s">
-        <v>2113</v>
+        <v>2114</v>
       </c>
       <c r="T230" s="3" t="s">
-        <v>2114</v>
+        <v>2115</v>
       </c>
       <c r="U230" s="3" t="s">
-        <v>2115</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="231" ht="18" spans="1:21">
       <c r="A231" s="3" t="s">
-        <v>2116</v>
+        <v>2117</v>
       </c>
       <c r="B231" s="3" t="s">
         <v>1135</v>
@@ -29383,17 +29401,17 @@
       <c r="E231" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="F231" s="10" t="s">
+      <c r="F231" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="G231" s="10" t="s">
-        <v>1234</v>
+      <c r="G231" s="11" t="s">
+        <v>1993</v>
       </c>
       <c r="H231" s="4" t="s">
         <v>957</v>
       </c>
       <c r="I231" s="3" t="s">
-        <v>2117</v>
+        <v>2118</v>
       </c>
       <c r="J231" s="3" t="s">
         <v>31</v>
@@ -29402,13 +29420,13 @@
         <v>31</v>
       </c>
       <c r="L231" s="3" t="s">
-        <v>2118</v>
+        <v>2119</v>
       </c>
       <c r="M231" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N231" s="3" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="O231" s="3" t="s">
         <v>31</v>
@@ -29423,18 +29441,18 @@
         <v>31</v>
       </c>
       <c r="S231" s="3" t="s">
-        <v>2119</v>
+        <v>2120</v>
       </c>
       <c r="T231" s="3" t="s">
-        <v>2120</v>
+        <v>2121</v>
       </c>
       <c r="U231" s="3" t="s">
-        <v>2121</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="232" ht="18" spans="1:21">
       <c r="A232" s="3" t="s">
-        <v>2122</v>
+        <v>2123</v>
       </c>
       <c r="B232" s="3" t="s">
         <v>1135</v>
@@ -29446,31 +29464,31 @@
         <v>507</v>
       </c>
       <c r="E232" s="3" t="s">
-        <v>2123</v>
+        <v>2124</v>
       </c>
       <c r="F232" s="3" t="s">
         <v>971</v>
       </c>
       <c r="G232" s="3" t="s">
-        <v>2124</v>
+        <v>2125</v>
       </c>
       <c r="H232" s="4" t="s">
-        <v>2125</v>
+        <v>2126</v>
       </c>
       <c r="I232" s="3" t="s">
-        <v>2126</v>
+        <v>2127</v>
       </c>
       <c r="J232" s="3" t="s">
         <v>63</v>
       </c>
       <c r="K232" s="3" t="s">
-        <v>2127</v>
+        <v>2128</v>
       </c>
       <c r="L232" s="3" t="s">
         <v>31</v>
       </c>
       <c r="M232" s="3" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="N232" s="3" t="s">
         <v>50</v>
@@ -29482,24 +29500,24 @@
         <v>108</v>
       </c>
       <c r="Q232" s="3" t="s">
-        <v>2129</v>
+        <v>2130</v>
       </c>
       <c r="R232" s="3" t="s">
         <v>31</v>
       </c>
       <c r="S232" s="3" t="s">
-        <v>2130</v>
+        <v>2131</v>
       </c>
       <c r="T232" s="3" t="s">
-        <v>2131</v>
+        <v>2132</v>
       </c>
       <c r="U232" s="3" t="s">
-        <v>2132</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="233" ht="18" spans="1:21">
       <c r="A233" s="3" t="s">
-        <v>2122</v>
+        <v>2123</v>
       </c>
       <c r="B233" s="3" t="s">
         <v>1135</v>
@@ -29517,13 +29535,13 @@
         <v>263</v>
       </c>
       <c r="G233" s="3" t="s">
-        <v>2133</v>
+        <v>2134</v>
       </c>
       <c r="H233" s="4" t="s">
         <v>103</v>
       </c>
       <c r="I233" s="3" t="s">
-        <v>2134</v>
+        <v>2135</v>
       </c>
       <c r="J233" s="3" t="s">
         <v>31</v>
@@ -29532,16 +29550,16 @@
         <v>31</v>
       </c>
       <c r="L233" s="3" t="s">
-        <v>2135</v>
+        <v>2136</v>
       </c>
       <c r="M233" s="3" t="s">
         <v>183</v>
       </c>
       <c r="N233" s="3" t="s">
-        <v>2136</v>
+        <v>2137</v>
       </c>
       <c r="O233" s="3" t="s">
-        <v>1402</v>
+        <v>1399</v>
       </c>
       <c r="P233" s="3" t="s">
         <v>31</v>
@@ -29553,18 +29571,18 @@
         <v>31</v>
       </c>
       <c r="S233" s="3" t="s">
-        <v>2137</v>
+        <v>2138</v>
       </c>
       <c r="T233" s="3" t="s">
-        <v>2131</v>
+        <v>2132</v>
       </c>
       <c r="U233" s="3" t="s">
-        <v>2132</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="234" ht="18" spans="1:21">
       <c r="A234" s="3" t="s">
-        <v>2138</v>
+        <v>2139</v>
       </c>
       <c r="B234" s="3" t="s">
         <v>1135</v>
@@ -29582,13 +29600,13 @@
         <v>43</v>
       </c>
       <c r="G234" s="3" t="s">
-        <v>2139</v>
+        <v>2140</v>
       </c>
       <c r="H234" s="4" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
       <c r="I234" s="3" t="s">
-        <v>2140</v>
+        <v>2141</v>
       </c>
       <c r="J234" s="3" t="s">
         <v>31</v>
@@ -29597,13 +29615,13 @@
         <v>31</v>
       </c>
       <c r="L234" s="3" t="s">
-        <v>2141</v>
+        <v>2142</v>
       </c>
       <c r="M234" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N234" s="3" t="s">
-        <v>2142</v>
+        <v>2143</v>
       </c>
       <c r="O234" s="3" t="s">
         <v>31</v>
@@ -29618,18 +29636,18 @@
         <v>31</v>
       </c>
       <c r="S234" s="3" t="s">
-        <v>2143</v>
+        <v>2144</v>
       </c>
       <c r="T234" s="3" t="s">
-        <v>2144</v>
+        <v>2145</v>
       </c>
       <c r="U234" s="3" t="s">
-        <v>2145</v>
+        <v>2146</v>
       </c>
     </row>
     <row r="235" ht="18" spans="1:21">
       <c r="A235" s="3" t="s">
-        <v>2146</v>
+        <v>2147</v>
       </c>
       <c r="B235" s="3" t="s">
         <v>1135</v>
@@ -29647,13 +29665,13 @@
         <v>43</v>
       </c>
       <c r="G235" s="3" t="s">
-        <v>2147</v>
+        <v>2148</v>
       </c>
       <c r="H235" s="4" t="s">
         <v>957</v>
       </c>
       <c r="I235" s="3" t="s">
-        <v>2117</v>
+        <v>2118</v>
       </c>
       <c r="J235" s="3" t="s">
         <v>31</v>
@@ -29662,13 +29680,13 @@
         <v>31</v>
       </c>
       <c r="L235" s="3" t="s">
-        <v>2118</v>
+        <v>2119</v>
       </c>
       <c r="M235" s="3" t="s">
         <v>556</v>
       </c>
       <c r="N235" s="3" t="s">
-        <v>2148</v>
+        <v>2149</v>
       </c>
       <c r="O235" s="3" t="s">
         <v>31</v>
@@ -29683,18 +29701,18 @@
         <v>31</v>
       </c>
       <c r="S235" s="3" t="s">
-        <v>2149</v>
+        <v>2150</v>
       </c>
       <c r="T235" s="3" t="s">
-        <v>2150</v>
+        <v>2151</v>
       </c>
       <c r="U235" s="3" t="s">
-        <v>2151</v>
+        <v>2152</v>
       </c>
     </row>
     <row r="236" ht="18" spans="1:21">
       <c r="A236" s="3" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="B236" s="3" t="s">
         <v>1135</v>
@@ -29706,19 +29724,19 @@
         <v>803</v>
       </c>
       <c r="E236" s="3" t="s">
-        <v>2153</v>
+        <v>2154</v>
       </c>
       <c r="F236" s="3" t="s">
         <v>263</v>
       </c>
       <c r="G236" s="3" t="s">
-        <v>2154</v>
+        <v>2155</v>
       </c>
       <c r="H236" s="4" t="s">
         <v>510</v>
       </c>
       <c r="I236" s="3" t="s">
-        <v>2155</v>
+        <v>2156</v>
       </c>
       <c r="J236" s="3" t="s">
         <v>63</v>
@@ -29736,7 +29754,7 @@
         <v>658</v>
       </c>
       <c r="O236" s="3" t="s">
-        <v>2156</v>
+        <v>2157</v>
       </c>
       <c r="P236" s="3" t="s">
         <v>912</v>
@@ -29748,18 +29766,18 @@
         <v>31</v>
       </c>
       <c r="S236" s="3" t="s">
-        <v>2157</v>
+        <v>2158</v>
       </c>
       <c r="T236" s="3" t="s">
-        <v>2158</v>
+        <v>2159</v>
       </c>
       <c r="U236" s="3" t="s">
-        <v>2159</v>
+        <v>2160</v>
       </c>
     </row>
     <row r="237" ht="18" spans="1:21">
       <c r="A237" s="3" t="s">
-        <v>2160</v>
+        <v>2161</v>
       </c>
       <c r="B237" s="3" t="s">
         <v>1135</v>
@@ -29771,19 +29789,19 @@
         <v>1028</v>
       </c>
       <c r="E237" s="3" t="s">
-        <v>2161</v>
+        <v>2162</v>
       </c>
       <c r="F237" s="3" t="s">
-        <v>2110</v>
+        <v>2111</v>
       </c>
       <c r="G237" s="3" t="s">
-        <v>2162</v>
+        <v>2163</v>
       </c>
       <c r="H237" s="4" t="s">
-        <v>1378</v>
+        <v>1375</v>
       </c>
       <c r="I237" s="3" t="s">
-        <v>2163</v>
+        <v>2164</v>
       </c>
       <c r="J237" s="3" t="s">
         <v>63</v>
@@ -29801,30 +29819,30 @@
         <v>391</v>
       </c>
       <c r="O237" s="3" t="s">
-        <v>1402</v>
+        <v>1399</v>
       </c>
       <c r="P237" s="3" t="s">
         <v>31</v>
       </c>
       <c r="Q237" s="3" t="s">
-        <v>2164</v>
+        <v>2165</v>
       </c>
       <c r="R237" s="3" t="s">
-        <v>2165</v>
+        <v>2166</v>
       </c>
       <c r="S237" s="3" t="s">
         <v>31</v>
       </c>
       <c r="T237" s="3" t="s">
-        <v>2166</v>
+        <v>2167</v>
       </c>
       <c r="U237" s="3" t="s">
-        <v>2167</v>
+        <v>2168</v>
       </c>
     </row>
     <row r="238" ht="18" spans="1:21">
       <c r="A238" s="3" t="s">
-        <v>2168</v>
+        <v>2169</v>
       </c>
       <c r="B238" s="3" t="s">
         <v>1135</v>
@@ -29839,10 +29857,10 @@
         <v>192</v>
       </c>
       <c r="F238" s="3" t="s">
-        <v>2169</v>
+        <v>2170</v>
       </c>
       <c r="G238" s="3" t="s">
-        <v>2170</v>
+        <v>2171</v>
       </c>
       <c r="H238" s="4" t="s">
         <v>163</v>
@@ -29860,10 +29878,10 @@
         <v>31</v>
       </c>
       <c r="M238" s="3" t="s">
-        <v>2171</v>
+        <v>2172</v>
       </c>
       <c r="N238" s="3" t="s">
-        <v>2172</v>
+        <v>2173</v>
       </c>
       <c r="O238" s="3" t="s">
         <v>124</v>
@@ -29875,21 +29893,21 @@
         <v>31</v>
       </c>
       <c r="R238" s="3" t="s">
-        <v>2173</v>
+        <v>2174</v>
       </c>
       <c r="S238" s="3" t="s">
         <v>31</v>
       </c>
       <c r="T238" s="3" t="s">
-        <v>2174</v>
+        <v>2175</v>
       </c>
       <c r="U238" s="3" t="s">
-        <v>2175</v>
+        <v>2176</v>
       </c>
     </row>
     <row r="239" ht="18" spans="1:21">
       <c r="A239" s="3" t="s">
-        <v>2176</v>
+        <v>2177</v>
       </c>
       <c r="B239" s="3" t="s">
         <v>1135</v>
@@ -29907,13 +29925,13 @@
         <v>263</v>
       </c>
       <c r="G239" s="3" t="s">
-        <v>2177</v>
+        <v>2178</v>
       </c>
       <c r="H239" s="4" t="s">
         <v>108</v>
       </c>
       <c r="I239" s="3" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="J239" s="3" t="s">
         <v>63</v>
@@ -29943,18 +29961,18 @@
         <v>31</v>
       </c>
       <c r="S239" s="3" t="s">
-        <v>2178</v>
+        <v>2179</v>
       </c>
       <c r="T239" s="3" t="s">
-        <v>2179</v>
+        <v>2180</v>
       </c>
       <c r="U239" s="3" t="s">
-        <v>2180</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="240" ht="18" spans="1:21">
       <c r="A240" s="3" t="s">
-        <v>2181</v>
+        <v>2182</v>
       </c>
       <c r="B240" s="3" t="s">
         <v>1135</v>
@@ -29972,13 +29990,13 @@
         <v>263</v>
       </c>
       <c r="G240" s="3" t="s">
-        <v>2182</v>
+        <v>2183</v>
       </c>
       <c r="H240" s="4" t="s">
         <v>408</v>
       </c>
       <c r="I240" s="3" t="s">
-        <v>2183</v>
+        <v>2184</v>
       </c>
       <c r="J240" s="3" t="s">
         <v>63</v>
@@ -29990,36 +30008,36 @@
         <v>31</v>
       </c>
       <c r="M240" s="3" t="s">
-        <v>2184</v>
+        <v>2185</v>
       </c>
       <c r="N240" s="3" t="s">
         <v>123</v>
       </c>
       <c r="O240" s="3" t="s">
-        <v>2185</v>
+        <v>2186</v>
       </c>
       <c r="P240" s="3" t="s">
         <v>406</v>
       </c>
       <c r="Q240" s="3" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="R240" s="3" t="s">
-        <v>2187</v>
+        <v>2188</v>
       </c>
       <c r="S240" s="3" t="s">
         <v>31</v>
       </c>
       <c r="T240" s="3" t="s">
-        <v>2188</v>
+        <v>2189</v>
       </c>
       <c r="U240" s="3" t="s">
-        <v>2189</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="241" ht="18" spans="1:21">
       <c r="A241" s="3" t="s">
-        <v>2190</v>
+        <v>2191</v>
       </c>
       <c r="B241" s="3" t="s">
         <v>1135</v>
@@ -30031,19 +30049,19 @@
         <v>41</v>
       </c>
       <c r="E241" s="3" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="F241" s="3" t="s">
         <v>43</v>
       </c>
       <c r="G241" s="3" t="s">
-        <v>2191</v>
+        <v>2192</v>
       </c>
       <c r="H241" s="4" t="s">
         <v>61</v>
       </c>
       <c r="I241" s="3" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="J241" s="3" t="s">
         <v>63</v>
@@ -30064,27 +30082,27 @@
         <v>124</v>
       </c>
       <c r="P241" s="3" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="Q241" s="3" t="s">
-        <v>2192</v>
+        <v>2193</v>
       </c>
       <c r="R241" s="3" t="s">
         <v>31</v>
       </c>
       <c r="S241" s="3" t="s">
-        <v>2193</v>
+        <v>2194</v>
       </c>
       <c r="T241" s="3" t="s">
-        <v>2194</v>
+        <v>2195</v>
       </c>
       <c r="U241" s="3" t="s">
-        <v>2195</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="242" ht="18" spans="1:21">
       <c r="A242" s="3" t="s">
-        <v>2196</v>
+        <v>2197</v>
       </c>
       <c r="B242" s="3" t="s">
         <v>1135</v>
@@ -30096,19 +30114,19 @@
         <v>933</v>
       </c>
       <c r="E242" s="3" t="s">
-        <v>2197</v>
+        <v>2198</v>
       </c>
       <c r="F242" s="3" t="s">
         <v>1213</v>
       </c>
       <c r="G242" s="3" t="s">
-        <v>2198</v>
+        <v>2199</v>
       </c>
       <c r="H242" s="4" t="s">
         <v>1138</v>
       </c>
       <c r="I242" s="3" t="s">
-        <v>2199</v>
+        <v>2200</v>
       </c>
       <c r="J242" s="3" t="s">
         <v>63</v>
@@ -30123,16 +30141,16 @@
         <v>433</v>
       </c>
       <c r="N242" s="3" t="s">
-        <v>2200</v>
+        <v>2201</v>
       </c>
       <c r="O242" s="3" t="s">
         <v>66</v>
       </c>
       <c r="P242" s="3" t="s">
-        <v>2201</v>
+        <v>2202</v>
       </c>
       <c r="Q242" s="3" t="s">
-        <v>1314</v>
+        <v>1311</v>
       </c>
       <c r="R242" s="3" t="s">
         <v>31</v>
@@ -30141,15 +30159,15 @@
         <v>31</v>
       </c>
       <c r="T242" s="3" t="s">
-        <v>2202</v>
+        <v>2203</v>
       </c>
       <c r="U242" s="3" t="s">
-        <v>2203</v>
+        <v>2204</v>
       </c>
     </row>
     <row r="243" ht="18" spans="1:21">
       <c r="A243" s="3" t="s">
-        <v>2196</v>
+        <v>2197</v>
       </c>
       <c r="B243" s="3" t="s">
         <v>1135</v>
@@ -30167,13 +30185,13 @@
         <v>889</v>
       </c>
       <c r="G243" s="3" t="s">
-        <v>2204</v>
+        <v>2205</v>
       </c>
       <c r="H243" s="4" t="s">
-        <v>2205</v>
+        <v>2206</v>
       </c>
       <c r="I243" s="3" t="s">
-        <v>2206</v>
+        <v>2207</v>
       </c>
       <c r="J243" s="3" t="s">
         <v>31</v>
@@ -30182,13 +30200,13 @@
         <v>31</v>
       </c>
       <c r="L243" s="3" t="s">
-        <v>2118</v>
+        <v>2119</v>
       </c>
       <c r="M243" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N243" s="3" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="O243" s="3" t="s">
         <v>31</v>
@@ -30206,15 +30224,15 @@
         <v>31</v>
       </c>
       <c r="T243" s="3" t="s">
-        <v>2202</v>
+        <v>2203</v>
       </c>
       <c r="U243" s="3" t="s">
-        <v>2203</v>
+        <v>2204</v>
       </c>
     </row>
     <row r="244" ht="18" spans="1:21">
       <c r="A244" s="3" t="s">
-        <v>2207</v>
+        <v>2208</v>
       </c>
       <c r="B244" s="3" t="s">
         <v>1135</v>
@@ -30226,28 +30244,28 @@
         <v>41</v>
       </c>
       <c r="E244" s="3" t="s">
-        <v>1458</v>
+        <v>1455</v>
       </c>
       <c r="F244" s="3" t="s">
         <v>193</v>
       </c>
       <c r="G244" s="3" t="s">
-        <v>2208</v>
+        <v>2209</v>
       </c>
       <c r="H244" s="4" t="s">
-        <v>1460</v>
+        <v>1457</v>
       </c>
       <c r="I244" s="3" t="s">
-        <v>1461</v>
+        <v>1458</v>
       </c>
       <c r="J244" s="3" t="s">
         <v>63</v>
       </c>
       <c r="K244" s="3" t="s">
-        <v>1462</v>
+        <v>1459</v>
       </c>
       <c r="L244" s="3" t="s">
-        <v>2209</v>
+        <v>2210</v>
       </c>
       <c r="M244" s="3" t="s">
         <v>636</v>
@@ -30265,21 +30283,21 @@
         <v>31</v>
       </c>
       <c r="R244" s="3" t="s">
-        <v>2210</v>
+        <v>2211</v>
       </c>
       <c r="S244" s="3" t="s">
         <v>31</v>
       </c>
       <c r="T244" s="3" t="s">
-        <v>2211</v>
+        <v>2212</v>
       </c>
       <c r="U244" s="3" t="s">
-        <v>2212</v>
+        <v>2213</v>
       </c>
     </row>
     <row r="245" ht="18" spans="1:21">
       <c r="A245" s="3" t="s">
-        <v>2213</v>
+        <v>2214</v>
       </c>
       <c r="B245" s="3" t="s">
         <v>1135</v>
@@ -30293,23 +30311,23 @@
       <c r="E245" s="3" t="s">
         <v>1037</v>
       </c>
-      <c r="F245" s="10" t="s">
+      <c r="F245" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="G245" s="10" t="s">
-        <v>1234</v>
+      <c r="G245" s="11" t="s">
+        <v>2215</v>
       </c>
       <c r="H245" s="4" t="s">
         <v>1039</v>
       </c>
       <c r="I245" s="3" t="s">
-        <v>2214</v>
+        <v>2216</v>
       </c>
       <c r="J245" s="3" t="s">
         <v>63</v>
       </c>
       <c r="K245" s="3" t="s">
-        <v>2215</v>
+        <v>2217</v>
       </c>
       <c r="L245" s="3" t="s">
         <v>31</v>
@@ -30333,18 +30351,18 @@
         <v>31</v>
       </c>
       <c r="S245" s="3" t="s">
-        <v>2216</v>
+        <v>2218</v>
       </c>
       <c r="T245" s="3" t="s">
-        <v>2217</v>
+        <v>2219</v>
       </c>
       <c r="U245" s="3" t="s">
-        <v>2218</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="246" ht="18" spans="1:21">
       <c r="A246" s="3" t="s">
-        <v>2219</v>
+        <v>2221</v>
       </c>
       <c r="B246" s="3" t="s">
         <v>1135</v>
@@ -30362,19 +30380,19 @@
         <v>181</v>
       </c>
       <c r="G246" s="3" t="s">
-        <v>2220</v>
+        <v>2222</v>
       </c>
       <c r="H246" s="4" t="s">
         <v>108</v>
       </c>
       <c r="I246" s="3" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="J246" s="3" t="s">
         <v>63</v>
       </c>
       <c r="K246" s="3" t="s">
-        <v>2221</v>
+        <v>2223</v>
       </c>
       <c r="L246" s="3" t="s">
         <v>31</v>
@@ -30392,24 +30410,24 @@
         <v>31</v>
       </c>
       <c r="Q246" s="3" t="s">
-        <v>1338</v>
+        <v>1335</v>
       </c>
       <c r="R246" s="3" t="s">
-        <v>2222</v>
+        <v>2224</v>
       </c>
       <c r="S246" s="3" t="s">
-        <v>2223</v>
+        <v>2225</v>
       </c>
       <c r="T246" s="3" t="s">
-        <v>2224</v>
+        <v>2226</v>
       </c>
       <c r="U246" s="3" t="s">
-        <v>2225</v>
+        <v>2227</v>
       </c>
     </row>
     <row r="247" ht="18" spans="1:21">
       <c r="A247" s="3" t="s">
-        <v>2226</v>
+        <v>2228</v>
       </c>
       <c r="B247" s="3" t="s">
         <v>1135</v>
@@ -30421,19 +30439,19 @@
         <v>206</v>
       </c>
       <c r="E247" s="3" t="s">
-        <v>2227</v>
+        <v>2229</v>
       </c>
       <c r="F247" s="3" t="s">
         <v>43</v>
       </c>
       <c r="G247" s="3" t="s">
-        <v>2228</v>
+        <v>2230</v>
       </c>
       <c r="H247" s="3" t="s">
-        <v>2229</v>
+        <v>2231</v>
       </c>
       <c r="I247" s="3" t="s">
-        <v>2229</v>
+        <v>2231</v>
       </c>
       <c r="J247" s="3" t="s">
         <v>295</v>
@@ -30448,13 +30466,13 @@
         <v>317</v>
       </c>
       <c r="N247" s="3" t="s">
-        <v>2230</v>
+        <v>2232</v>
       </c>
       <c r="O247" s="3" t="s">
         <v>363</v>
       </c>
       <c r="P247" s="3" t="s">
-        <v>2231</v>
+        <v>2233</v>
       </c>
       <c r="Q247" s="3" t="s">
         <v>34</v>
@@ -30463,18 +30481,18 @@
         <v>31</v>
       </c>
       <c r="S247" s="3" t="s">
-        <v>2232</v>
+        <v>2234</v>
       </c>
       <c r="T247" s="3" t="s">
-        <v>2233</v>
+        <v>2235</v>
       </c>
       <c r="U247" s="3" t="s">
-        <v>2234</v>
+        <v>2236</v>
       </c>
     </row>
     <row r="248" ht="18" spans="1:21">
       <c r="A248" s="3" t="s">
-        <v>2235</v>
+        <v>2237</v>
       </c>
       <c r="B248" s="3" t="s">
         <v>1135</v>
@@ -30483,25 +30501,25 @@
         <v>2016</v>
       </c>
       <c r="D248" s="3" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="E248" s="3" t="s">
-        <v>2236</v>
+        <v>2238</v>
       </c>
       <c r="F248" s="3" t="s">
-        <v>2110</v>
+        <v>2111</v>
       </c>
       <c r="G248" s="3" t="s">
-        <v>2237</v>
+        <v>2239</v>
       </c>
       <c r="H248" s="4" t="s">
         <v>108</v>
       </c>
       <c r="I248" s="3" t="s">
-        <v>2238</v>
+        <v>2240</v>
       </c>
       <c r="J248" s="3" t="s">
-        <v>2239</v>
+        <v>2241</v>
       </c>
       <c r="K248" s="3" t="s">
         <v>31</v>
@@ -30516,30 +30534,30 @@
         <v>911</v>
       </c>
       <c r="O248" s="3" t="s">
-        <v>2240</v>
+        <v>2242</v>
       </c>
       <c r="P248" s="3" t="s">
-        <v>2236</v>
+        <v>2238</v>
       </c>
       <c r="Q248" s="3" t="s">
-        <v>2241</v>
+        <v>2243</v>
       </c>
       <c r="R248" s="3" t="s">
         <v>31</v>
       </c>
       <c r="S248" s="3" t="s">
-        <v>2242</v>
+        <v>2244</v>
       </c>
       <c r="T248" s="3" t="s">
-        <v>2243</v>
+        <v>2245</v>
       </c>
       <c r="U248" s="3" t="s">
-        <v>2244</v>
+        <v>2246</v>
       </c>
     </row>
     <row r="249" ht="18" spans="1:21">
       <c r="A249" s="3" t="s">
-        <v>2245</v>
+        <v>2247</v>
       </c>
       <c r="B249" s="3" t="s">
         <v>1135</v>
@@ -30551,19 +30569,19 @@
         <v>23</v>
       </c>
       <c r="E249" s="3" t="s">
-        <v>2246</v>
+        <v>2248</v>
       </c>
       <c r="F249" s="3" t="s">
-        <v>2087</v>
+        <v>2088</v>
       </c>
       <c r="G249" s="3" t="s">
-        <v>2247</v>
+        <v>2249</v>
       </c>
       <c r="H249" s="4" t="s">
         <v>1049</v>
       </c>
       <c r="I249" s="3" t="s">
-        <v>2248</v>
+        <v>2250</v>
       </c>
       <c r="J249" s="3" t="s">
         <v>63</v>
@@ -30587,24 +30605,24 @@
         <v>242</v>
       </c>
       <c r="Q249" s="3" t="s">
-        <v>1338</v>
+        <v>1335</v>
       </c>
       <c r="R249" s="3" t="s">
-        <v>2249</v>
+        <v>2251</v>
       </c>
       <c r="S249" s="3" t="s">
-        <v>2250</v>
+        <v>2252</v>
       </c>
       <c r="T249" s="3" t="s">
-        <v>2251</v>
+        <v>2253</v>
       </c>
       <c r="U249" s="3" t="s">
-        <v>2252</v>
+        <v>2254</v>
       </c>
     </row>
     <row r="250" ht="18" spans="1:21">
       <c r="A250" s="3" t="s">
-        <v>2253</v>
+        <v>2255</v>
       </c>
       <c r="B250" s="3" t="s">
         <v>1135</v>
@@ -30628,40 +30646,40 @@
         <v>537</v>
       </c>
       <c r="I250" s="3" t="s">
-        <v>2254</v>
+        <v>2256</v>
       </c>
       <c r="J250" s="3" t="s">
         <v>63</v>
       </c>
       <c r="K250" s="3" t="s">
-        <v>2255</v>
+        <v>2257</v>
       </c>
       <c r="L250" s="3" t="s">
-        <v>2256</v>
+        <v>2258</v>
       </c>
       <c r="M250" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N250" s="3" t="s">
-        <v>2257</v>
+        <v>2259</v>
       </c>
       <c r="O250" s="3" t="s">
-        <v>1306</v>
+        <v>1303</v>
       </c>
       <c r="P250" s="3" t="s">
         <v>31</v>
       </c>
       <c r="Q250" s="3" t="s">
-        <v>2258</v>
+        <v>2260</v>
       </c>
       <c r="R250" s="3" t="s">
-        <v>2259</v>
+        <v>2261</v>
       </c>
       <c r="S250" s="3" t="s">
-        <v>2260</v>
+        <v>2262</v>
       </c>
       <c r="T250" s="3" t="s">
-        <v>2261</v>
+        <v>2263</v>
       </c>
       <c r="U250" s="3" t="s">
         <v>533</v>
@@ -30669,7 +30687,7 @@
     </row>
     <row r="251" ht="18" spans="1:21">
       <c r="A251" s="3" t="s">
-        <v>2262</v>
+        <v>2264</v>
       </c>
       <c r="B251" s="3" t="s">
         <v>1135</v>
@@ -30681,19 +30699,19 @@
         <v>73</v>
       </c>
       <c r="E251" s="3" t="s">
-        <v>2263</v>
+        <v>2265</v>
       </c>
       <c r="F251" s="3" t="s">
         <v>263</v>
       </c>
       <c r="G251" s="3" t="s">
-        <v>2264</v>
+        <v>2266</v>
       </c>
       <c r="H251" s="4" t="s">
         <v>275</v>
       </c>
       <c r="I251" s="3" t="s">
-        <v>2265</v>
+        <v>2267</v>
       </c>
       <c r="J251" s="3" t="s">
         <v>63</v>
@@ -30726,15 +30744,15 @@
         <v>31</v>
       </c>
       <c r="T251" s="3" t="s">
-        <v>2266</v>
+        <v>2268</v>
       </c>
       <c r="U251" s="3" t="s">
-        <v>2267</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="252" ht="18" spans="1:21">
       <c r="A252" s="3" t="s">
-        <v>2268</v>
+        <v>2270</v>
       </c>
       <c r="B252" s="3" t="s">
         <v>1135</v>
@@ -30746,13 +30764,13 @@
         <v>195</v>
       </c>
       <c r="E252" s="3" t="s">
-        <v>2269</v>
+        <v>2271</v>
       </c>
       <c r="F252" s="3" t="s">
         <v>43</v>
       </c>
       <c r="G252" s="3" t="s">
-        <v>2270</v>
+        <v>2272</v>
       </c>
       <c r="H252" s="4" t="s">
         <v>163</v>
@@ -30776,7 +30794,7 @@
         <v>277</v>
       </c>
       <c r="O252" s="3" t="s">
-        <v>1402</v>
+        <v>1399</v>
       </c>
       <c r="P252" s="3" t="s">
         <v>31</v>
@@ -30785,21 +30803,21 @@
         <v>31</v>
       </c>
       <c r="R252" s="3" t="s">
-        <v>2271</v>
+        <v>2273</v>
       </c>
       <c r="S252" s="3" t="s">
         <v>31</v>
       </c>
       <c r="T252" s="3" t="s">
-        <v>2272</v>
+        <v>2274</v>
       </c>
       <c r="U252" s="3" t="s">
-        <v>2273</v>
+        <v>2275</v>
       </c>
     </row>
     <row r="253" ht="18" spans="1:21">
       <c r="A253" s="3" t="s">
-        <v>2274</v>
+        <v>2276</v>
       </c>
       <c r="B253" s="3" t="s">
         <v>1135</v>
@@ -30811,19 +30829,19 @@
         <v>41</v>
       </c>
       <c r="E253" s="3" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="F253" s="3" t="s">
         <v>43</v>
       </c>
       <c r="G253" s="3" t="s">
-        <v>2275</v>
+        <v>2277</v>
       </c>
       <c r="H253" s="4" t="s">
         <v>61</v>
       </c>
       <c r="I253" s="3" t="s">
-        <v>2276</v>
+        <v>2278</v>
       </c>
       <c r="J253" s="3" t="s">
         <v>63</v>
@@ -30847,24 +30865,24 @@
         <v>108</v>
       </c>
       <c r="Q253" s="3" t="s">
-        <v>2277</v>
+        <v>2279</v>
       </c>
       <c r="R253" s="3" t="s">
-        <v>2278</v>
+        <v>2280</v>
       </c>
       <c r="S253" s="3" t="s">
         <v>31</v>
       </c>
       <c r="T253" s="3" t="s">
-        <v>2279</v>
+        <v>2281</v>
       </c>
       <c r="U253" s="3" t="s">
-        <v>2280</v>
+        <v>2282</v>
       </c>
     </row>
     <row r="254" ht="18" spans="1:21">
       <c r="A254" s="3" t="s">
-        <v>2281</v>
+        <v>2283</v>
       </c>
       <c r="B254" s="3" t="s">
         <v>1135</v>
@@ -30876,19 +30894,19 @@
         <v>131</v>
       </c>
       <c r="E254" s="3" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="F254" s="3" t="s">
         <v>43</v>
       </c>
       <c r="G254" s="3" t="s">
-        <v>2282</v>
+        <v>2284</v>
       </c>
       <c r="H254" s="4" t="s">
         <v>108</v>
       </c>
       <c r="I254" s="3" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="J254" s="3" t="s">
         <v>63</v>
@@ -30897,7 +30915,7 @@
         <v>31</v>
       </c>
       <c r="L254" s="3" t="s">
-        <v>2283</v>
+        <v>2285</v>
       </c>
       <c r="M254" s="3" t="s">
         <v>317</v>
@@ -30909,27 +30927,27 @@
         <v>339</v>
       </c>
       <c r="P254" s="3" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="Q254" s="3" t="s">
-        <v>2284</v>
+        <v>2286</v>
       </c>
       <c r="R254" s="3" t="s">
         <v>31</v>
       </c>
       <c r="S254" s="3" t="s">
-        <v>2285</v>
+        <v>2287</v>
       </c>
       <c r="T254" s="3" t="s">
-        <v>2286</v>
+        <v>2288</v>
       </c>
       <c r="U254" s="3" t="s">
-        <v>2287</v>
+        <v>2289</v>
       </c>
     </row>
     <row r="255" ht="18" spans="1:21">
       <c r="A255" s="3" t="s">
-        <v>2288</v>
+        <v>2290</v>
       </c>
       <c r="B255" s="3" t="s">
         <v>1135</v>
@@ -30941,19 +30959,19 @@
         <v>23</v>
       </c>
       <c r="E255" s="3" t="s">
-        <v>2289</v>
+        <v>2291</v>
       </c>
       <c r="F255" s="3" t="s">
         <v>43</v>
       </c>
       <c r="G255" s="3" t="s">
-        <v>2290</v>
+        <v>2292</v>
       </c>
       <c r="H255" s="4" t="s">
         <v>45</v>
       </c>
       <c r="I255" s="3" t="s">
-        <v>2291</v>
+        <v>2293</v>
       </c>
       <c r="J255" s="3" t="s">
         <v>63</v>
@@ -30968,33 +30986,33 @@
         <v>122</v>
       </c>
       <c r="N255" s="3" t="s">
-        <v>2292</v>
+        <v>2294</v>
       </c>
       <c r="O255" s="3" t="s">
         <v>31</v>
       </c>
       <c r="P255" s="3" t="s">
-        <v>2293</v>
+        <v>2295</v>
       </c>
       <c r="Q255" s="3" t="s">
-        <v>2294</v>
+        <v>2296</v>
       </c>
       <c r="R255" s="3" t="s">
-        <v>2295</v>
+        <v>2297</v>
       </c>
       <c r="S255" s="3" t="s">
         <v>31</v>
       </c>
       <c r="T255" s="3" t="s">
-        <v>2296</v>
+        <v>2298</v>
       </c>
       <c r="U255" s="3" t="s">
-        <v>2297</v>
+        <v>2299</v>
       </c>
     </row>
     <row r="256" ht="18" spans="1:21">
       <c r="A256" s="3" t="s">
-        <v>2288</v>
+        <v>2290</v>
       </c>
       <c r="B256" s="3" t="s">
         <v>1135</v>
@@ -31006,19 +31024,19 @@
         <v>760</v>
       </c>
       <c r="E256" s="3" t="s">
-        <v>2298</v>
+        <v>2300</v>
       </c>
       <c r="F256" s="3" t="s">
         <v>193</v>
       </c>
       <c r="G256" s="3" t="s">
-        <v>2299</v>
+        <v>2301</v>
       </c>
       <c r="H256" s="4" t="s">
         <v>336</v>
       </c>
       <c r="I256" s="3" t="s">
-        <v>2300</v>
+        <v>2302</v>
       </c>
       <c r="J256" s="3" t="s">
         <v>63</v>
@@ -31033,13 +31051,13 @@
         <v>31</v>
       </c>
       <c r="N256" s="3" t="s">
-        <v>2148</v>
+        <v>2149</v>
       </c>
       <c r="O256" s="3" t="s">
-        <v>2301</v>
+        <v>2303</v>
       </c>
       <c r="P256" s="3" t="s">
-        <v>2293</v>
+        <v>2295</v>
       </c>
       <c r="Q256" s="3" t="s">
         <v>31</v>
@@ -31048,18 +31066,18 @@
         <v>31</v>
       </c>
       <c r="S256" s="3" t="s">
-        <v>2302</v>
+        <v>2304</v>
       </c>
       <c r="T256" s="3" t="s">
-        <v>2296</v>
+        <v>2298</v>
       </c>
       <c r="U256" s="3" t="s">
-        <v>2297</v>
+        <v>2299</v>
       </c>
     </row>
     <row r="257" ht="18" spans="1:21">
       <c r="A257" s="3" t="s">
-        <v>2303</v>
+        <v>2305</v>
       </c>
       <c r="B257" s="3" t="s">
         <v>1135</v>
@@ -31077,13 +31095,13 @@
         <v>43</v>
       </c>
       <c r="G257" s="3" t="s">
-        <v>2304</v>
+        <v>2306</v>
       </c>
       <c r="H257" s="4" t="s">
         <v>108</v>
       </c>
       <c r="I257" s="3" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="J257" s="3" t="s">
         <v>63</v>
@@ -31107,24 +31125,24 @@
         <v>912</v>
       </c>
       <c r="Q257" s="3" t="s">
-        <v>2305</v>
+        <v>2307</v>
       </c>
       <c r="R257" s="3" t="s">
-        <v>2306</v>
+        <v>2308</v>
       </c>
       <c r="S257" s="3" t="s">
         <v>31</v>
       </c>
       <c r="T257" s="3" t="s">
-        <v>2307</v>
+        <v>2309</v>
       </c>
       <c r="U257" s="3" t="s">
-        <v>2308</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="258" ht="18" spans="1:21">
       <c r="A258" s="3" t="s">
-        <v>2309</v>
+        <v>2311</v>
       </c>
       <c r="B258" s="3" t="s">
         <v>1135</v>
@@ -31136,19 +31154,19 @@
         <v>41</v>
       </c>
       <c r="E258" s="3" t="s">
-        <v>1458</v>
+        <v>1455</v>
       </c>
       <c r="F258" s="3" t="s">
         <v>889</v>
       </c>
-      <c r="G258" s="3" t="s">
-        <v>2310</v>
+      <c r="G258" s="9" t="s">
+        <v>2312</v>
       </c>
       <c r="H258" s="4" t="s">
         <v>61</v>
       </c>
       <c r="I258" s="3" t="s">
-        <v>2311</v>
+        <v>2313</v>
       </c>
       <c r="J258" s="3" t="s">
         <v>63</v>
@@ -31175,21 +31193,21 @@
         <v>678</v>
       </c>
       <c r="R258" s="3" t="s">
-        <v>2312</v>
+        <v>2314</v>
       </c>
       <c r="S258" s="3" t="s">
-        <v>2313</v>
+        <v>2315</v>
       </c>
       <c r="T258" s="3" t="s">
-        <v>2314</v>
+        <v>2316</v>
       </c>
       <c r="U258" s="3" t="s">
-        <v>2315</v>
+        <v>2317</v>
       </c>
     </row>
     <row r="259" ht="18" spans="1:21">
       <c r="A259" s="3" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="B259" s="3" t="s">
         <v>1135</v>
@@ -31201,19 +31219,19 @@
         <v>115</v>
       </c>
       <c r="E259" s="3" t="s">
-        <v>2317</v>
+        <v>2319</v>
       </c>
       <c r="F259" s="3" t="s">
         <v>181</v>
       </c>
       <c r="G259" s="3" t="s">
-        <v>2318</v>
+        <v>2320</v>
       </c>
       <c r="H259" s="4" t="s">
-        <v>2319</v>
+        <v>2321</v>
       </c>
       <c r="I259" s="3" t="s">
-        <v>2320</v>
+        <v>2322</v>
       </c>
       <c r="J259" s="3" t="s">
         <v>63</v>
@@ -31237,24 +31255,24 @@
         <v>912</v>
       </c>
       <c r="Q259" s="3" t="s">
-        <v>2321</v>
+        <v>2323</v>
       </c>
       <c r="R259" s="3" t="s">
-        <v>2322</v>
+        <v>2324</v>
       </c>
       <c r="S259" s="3" t="s">
-        <v>2323</v>
+        <v>2325</v>
       </c>
       <c r="T259" s="3" t="s">
-        <v>2324</v>
+        <v>2326</v>
       </c>
       <c r="U259" s="3" t="s">
-        <v>2325</v>
+        <v>2327</v>
       </c>
     </row>
     <row r="260" ht="18" spans="1:21">
       <c r="A260" s="3" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="B260" s="3" t="s">
         <v>1135</v>
@@ -31266,19 +31284,19 @@
         <v>195</v>
       </c>
       <c r="E260" s="3" t="s">
-        <v>2326</v>
+        <v>2328</v>
       </c>
       <c r="F260" s="3" t="s">
         <v>181</v>
       </c>
       <c r="G260" s="3" t="s">
-        <v>2318</v>
+        <v>2320</v>
       </c>
       <c r="H260" s="4" t="s">
         <v>134</v>
       </c>
       <c r="I260" s="3" t="s">
-        <v>2327</v>
+        <v>2329</v>
       </c>
       <c r="J260" s="3" t="s">
         <v>63</v>
@@ -31305,21 +31323,21 @@
         <v>1189</v>
       </c>
       <c r="R260" s="3" t="s">
-        <v>2328</v>
+        <v>2330</v>
       </c>
       <c r="S260" s="3" t="s">
-        <v>2329</v>
+        <v>2331</v>
       </c>
       <c r="T260" s="3" t="s">
-        <v>2324</v>
+        <v>2326</v>
       </c>
       <c r="U260" s="3" t="s">
-        <v>2325</v>
+        <v>2327</v>
       </c>
     </row>
     <row r="261" ht="18" spans="1:21">
       <c r="A261" s="3" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="B261" s="3" t="s">
         <v>1135</v>
@@ -31331,19 +31349,19 @@
         <v>23</v>
       </c>
       <c r="E261" s="3" t="s">
-        <v>2330</v>
+        <v>2332</v>
       </c>
       <c r="F261" s="3" t="s">
         <v>181</v>
       </c>
       <c r="G261" s="3" t="s">
-        <v>2318</v>
+        <v>2320</v>
       </c>
       <c r="H261" s="4" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="I261" s="3" t="s">
-        <v>2332</v>
+        <v>2334</v>
       </c>
       <c r="J261" s="3" t="s">
         <v>63</v>
@@ -31367,24 +31385,24 @@
         <v>912</v>
       </c>
       <c r="Q261" s="3" t="s">
-        <v>2321</v>
+        <v>2323</v>
       </c>
       <c r="R261" s="3" t="s">
-        <v>2328</v>
+        <v>2330</v>
       </c>
       <c r="S261" s="3" t="s">
-        <v>2333</v>
+        <v>2335</v>
       </c>
       <c r="T261" s="3" t="s">
-        <v>2324</v>
+        <v>2326</v>
       </c>
       <c r="U261" s="3" t="s">
-        <v>2325</v>
+        <v>2327</v>
       </c>
     </row>
     <row r="262" ht="18" spans="1:21">
       <c r="A262" s="3" t="s">
-        <v>2334</v>
+        <v>2336</v>
       </c>
       <c r="B262" s="3" t="s">
         <v>1135</v>
@@ -31396,19 +31414,19 @@
         <v>760</v>
       </c>
       <c r="E262" s="3" t="s">
-        <v>1419</v>
+        <v>1416</v>
       </c>
       <c r="F262" s="3" t="s">
         <v>43</v>
       </c>
       <c r="G262" s="3" t="s">
-        <v>2335</v>
+        <v>2337</v>
       </c>
       <c r="H262" s="4" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
       <c r="I262" s="3" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
       <c r="J262" s="3" t="s">
         <v>63</v>
@@ -31435,21 +31453,21 @@
         <v>34</v>
       </c>
       <c r="R262" s="3" t="s">
-        <v>2336</v>
+        <v>2338</v>
       </c>
       <c r="S262" s="3" t="s">
-        <v>2337</v>
+        <v>2339</v>
       </c>
       <c r="T262" s="3" t="s">
-        <v>2338</v>
+        <v>2340</v>
       </c>
       <c r="U262" s="3" t="s">
-        <v>2339</v>
+        <v>2341</v>
       </c>
     </row>
     <row r="263" ht="18" spans="1:21">
       <c r="A263" s="3" t="s">
-        <v>2340</v>
+        <v>2342</v>
       </c>
       <c r="B263" s="3" t="s">
         <v>1135</v>
@@ -31461,16 +31479,16 @@
         <v>73</v>
       </c>
       <c r="E263" s="3" t="s">
-        <v>2341</v>
+        <v>2343</v>
       </c>
       <c r="F263" s="3" t="s">
         <v>181</v>
       </c>
       <c r="G263" s="3" t="s">
-        <v>2342</v>
+        <v>2344</v>
       </c>
       <c r="H263" s="4" t="s">
-        <v>2343</v>
+        <v>2345</v>
       </c>
       <c r="I263" s="3" t="s">
         <v>46</v>
@@ -31503,18 +31521,18 @@
         <v>31</v>
       </c>
       <c r="S263" s="3" t="s">
-        <v>2344</v>
+        <v>2346</v>
       </c>
       <c r="T263" s="3" t="s">
-        <v>2345</v>
+        <v>2347</v>
       </c>
       <c r="U263" s="3" t="s">
-        <v>2346</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="264" ht="18" spans="1:21">
       <c r="A264" s="3" t="s">
-        <v>2347</v>
+        <v>2349</v>
       </c>
       <c r="B264" s="3" t="s">
         <v>1135</v>
@@ -31544,10 +31562,10 @@
         <v>63</v>
       </c>
       <c r="K264" s="3" t="s">
-        <v>2348</v>
+        <v>2350</v>
       </c>
       <c r="L264" s="3" t="s">
-        <v>2349</v>
+        <v>2351</v>
       </c>
       <c r="M264" s="3" t="s">
         <v>1186</v>
@@ -31568,18 +31586,18 @@
         <v>31</v>
       </c>
       <c r="S264" s="3" t="s">
-        <v>2350</v>
+        <v>2352</v>
       </c>
       <c r="T264" s="3" t="s">
-        <v>2351</v>
+        <v>2353</v>
       </c>
       <c r="U264" s="3" t="s">
-        <v>2352</v>
+        <v>2354</v>
       </c>
     </row>
     <row r="265" ht="18" spans="1:21">
       <c r="A265" s="3" t="s">
-        <v>2353</v>
+        <v>2355</v>
       </c>
       <c r="B265" s="3" t="s">
         <v>1135</v>
@@ -31588,31 +31606,31 @@
         <v>2022</v>
       </c>
       <c r="D265" s="3" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="E265" s="3" t="s">
-        <v>2354</v>
+        <v>2356</v>
       </c>
       <c r="F265" s="3" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="G265" s="3" t="s">
-        <v>2355</v>
+        <v>2357</v>
       </c>
       <c r="H265" s="4" t="s">
         <v>982</v>
       </c>
       <c r="I265" s="3" t="s">
-        <v>2356</v>
+        <v>2358</v>
       </c>
       <c r="J265" s="3" t="s">
         <v>63</v>
       </c>
       <c r="K265" s="3" t="s">
-        <v>2357</v>
+        <v>2359</v>
       </c>
       <c r="L265" s="3" t="s">
-        <v>2358</v>
+        <v>2360</v>
       </c>
       <c r="M265" s="3" t="s">
         <v>31</v>
@@ -31627,24 +31645,24 @@
         <v>31</v>
       </c>
       <c r="Q265" s="3" t="s">
-        <v>2359</v>
+        <v>2361</v>
       </c>
       <c r="R265" s="3" t="s">
-        <v>2360</v>
+        <v>2362</v>
       </c>
       <c r="S265" s="3" t="s">
         <v>31</v>
       </c>
       <c r="T265" s="3" t="s">
-        <v>2361</v>
+        <v>2363</v>
       </c>
       <c r="U265" s="3" t="s">
-        <v>2362</v>
+        <v>2364</v>
       </c>
     </row>
     <row r="266" ht="18" spans="1:21">
       <c r="A266" s="8" t="s">
-        <v>2363</v>
+        <v>2365</v>
       </c>
       <c r="B266" s="3" t="s">
         <v>1135</v>
@@ -31656,25 +31674,25 @@
         <v>41</v>
       </c>
       <c r="E266" s="3" t="s">
-        <v>2364</v>
+        <v>2366</v>
       </c>
       <c r="F266" s="3" t="s">
         <v>43</v>
       </c>
       <c r="G266" s="3" t="s">
-        <v>2365</v>
+        <v>2367</v>
       </c>
       <c r="H266" s="3" t="s">
-        <v>2125</v>
+        <v>2126</v>
       </c>
       <c r="I266" s="3" t="s">
-        <v>2366</v>
+        <v>2368</v>
       </c>
       <c r="J266" s="3" t="s">
         <v>63</v>
       </c>
       <c r="K266" s="3" t="s">
-        <v>2367</v>
+        <v>2369</v>
       </c>
       <c r="L266" s="3" t="s">
         <v>31</v>
@@ -31694,22 +31712,22 @@
       <c r="Q266" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="R266" s="9" t="s">
-        <v>2368</v>
+      <c r="R266" s="10" t="s">
+        <v>2370</v>
       </c>
       <c r="S266" s="3" t="s">
-        <v>2369</v>
+        <v>2371</v>
       </c>
       <c r="T266" s="3" t="s">
-        <v>2363</v>
+        <v>2365</v>
       </c>
       <c r="U266" s="3" t="s">
-        <v>2370</v>
+        <v>2372</v>
       </c>
     </row>
     <row r="267" ht="18" spans="1:21">
       <c r="A267" s="8" t="s">
-        <v>2371</v>
+        <v>2373</v>
       </c>
       <c r="B267" s="3" t="s">
         <v>1135</v>
@@ -31718,16 +31736,16 @@
         <v>2024</v>
       </c>
       <c r="D267" s="3" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="E267" s="3" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="F267" s="3" t="s">
         <v>889</v>
       </c>
       <c r="G267" s="3" t="s">
-        <v>2372</v>
+        <v>2374</v>
       </c>
       <c r="H267" s="3" t="s">
         <v>163</v>
@@ -31739,7 +31757,7 @@
         <v>31</v>
       </c>
       <c r="K267" s="3" t="s">
-        <v>2373</v>
+        <v>2375</v>
       </c>
       <c r="L267" s="3" t="s">
         <v>31</v>
@@ -31748,7 +31766,7 @@
         <v>31</v>
       </c>
       <c r="N267" s="3" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="O267" s="3" t="s">
         <v>124</v>
@@ -31757,24 +31775,24 @@
         <v>31</v>
       </c>
       <c r="Q267" s="3" t="s">
+        <v>1814</v>
+      </c>
+      <c r="R267" s="10" t="s">
         <v>1815</v>
       </c>
-      <c r="R267" s="9" t="s">
-        <v>1816</v>
-      </c>
       <c r="S267" s="3" t="s">
         <v>31</v>
       </c>
       <c r="T267" s="3" t="s">
-        <v>2371</v>
+        <v>2373</v>
       </c>
       <c r="U267" s="3" t="s">
-        <v>2374</v>
+        <v>2376</v>
       </c>
     </row>
     <row r="268" ht="18" spans="1:21">
       <c r="A268" s="8" t="s">
-        <v>2375</v>
+        <v>2377</v>
       </c>
       <c r="B268" s="3" t="s">
         <v>1135</v>
@@ -31792,13 +31810,13 @@
         <v>193</v>
       </c>
       <c r="G268" s="3" t="s">
-        <v>2376</v>
+        <v>2378</v>
       </c>
       <c r="H268" s="3" t="s">
-        <v>1378</v>
+        <v>1375</v>
       </c>
       <c r="I268" s="3" t="s">
-        <v>1378</v>
+        <v>1375</v>
       </c>
       <c r="J268" s="3" t="s">
         <v>63</v>
@@ -31828,18 +31846,18 @@
         <v>31</v>
       </c>
       <c r="S268" s="3" t="s">
+        <v>2379</v>
+      </c>
+      <c r="T268" s="3" t="s">
         <v>2377</v>
       </c>
-      <c r="T268" s="3" t="s">
-        <v>2375</v>
-      </c>
       <c r="U268" s="3" t="s">
-        <v>2378</v>
+        <v>2380</v>
       </c>
     </row>
     <row r="269" ht="18" spans="1:21">
       <c r="A269" s="8" t="s">
-        <v>2379</v>
+        <v>2381</v>
       </c>
       <c r="B269" s="3" t="s">
         <v>1135</v>
@@ -31857,19 +31875,19 @@
         <v>75</v>
       </c>
       <c r="G269" s="3" t="s">
-        <v>2380</v>
+        <v>2382</v>
       </c>
       <c r="H269" s="3" t="s">
         <v>275</v>
       </c>
       <c r="I269" s="3" t="s">
-        <v>2381</v>
+        <v>2383</v>
       </c>
       <c r="J269" s="3" t="s">
         <v>63</v>
       </c>
       <c r="K269" s="3" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="L269" s="3" t="s">
         <v>31</v>
@@ -31889,20 +31907,20 @@
       <c r="Q269" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="R269" s="9" t="s">
-        <v>2382</v>
+      <c r="R269" s="10" t="s">
+        <v>2384</v>
       </c>
       <c r="S269" s="3" t="s">
         <v>31</v>
       </c>
       <c r="T269" s="3" t="s">
-        <v>2379</v>
+        <v>2381</v>
       </c>
       <c r="U269" s="3"/>
     </row>
     <row r="270" ht="18" spans="1:21">
       <c r="A270" s="8" t="s">
-        <v>2383</v>
+        <v>2385</v>
       </c>
       <c r="B270" s="3" t="s">
         <v>1135</v>
@@ -31914,19 +31932,19 @@
         <v>41</v>
       </c>
       <c r="E270" s="3" t="s">
-        <v>2384</v>
+        <v>2386</v>
       </c>
       <c r="F270" s="3" t="s">
         <v>75</v>
       </c>
       <c r="G270" s="3" t="s">
-        <v>2380</v>
+        <v>2382</v>
       </c>
       <c r="H270" s="3" t="s">
         <v>275</v>
       </c>
       <c r="I270" s="3" t="s">
-        <v>2385</v>
+        <v>2387</v>
       </c>
       <c r="J270" s="3" t="s">
         <v>63</v>
@@ -31952,22 +31970,22 @@
       <c r="Q270" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="R270" s="9" t="s">
-        <v>2386</v>
+      <c r="R270" s="10" t="s">
+        <v>2388</v>
       </c>
       <c r="S270" s="3" t="s">
         <v>31</v>
       </c>
       <c r="T270" s="3" t="s">
-        <v>2383</v>
+        <v>2385</v>
       </c>
       <c r="U270" s="3" t="s">
-        <v>2387</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="271" ht="18" spans="1:21">
       <c r="A271" s="8" t="s">
-        <v>2388</v>
+        <v>2390</v>
       </c>
       <c r="B271" s="3" t="s">
         <v>1135</v>
@@ -31976,61 +31994,61 @@
         <v>2014</v>
       </c>
       <c r="D271" s="3" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="E271" s="3" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="F271" s="3" t="s">
-        <v>1151</v>
+        <v>2391</v>
       </c>
       <c r="G271" s="3" t="s">
-        <v>2389</v>
+        <v>2392</v>
       </c>
       <c r="H271" s="3" t="s">
         <v>195</v>
       </c>
       <c r="I271" s="3" t="s">
+        <v>2393</v>
+      </c>
+      <c r="J271" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K271" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L271" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M271" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N271" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O271" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P271" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q271" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R271" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="S271" s="3" t="s">
+        <v>2394</v>
+      </c>
+      <c r="T271" s="3" t="s">
         <v>2390</v>
-      </c>
-      <c r="J271" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="K271" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="L271" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="M271" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="N271" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="O271" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="P271" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q271" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="R271" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="S271" s="3" t="s">
-        <v>2391</v>
-      </c>
-      <c r="T271" s="3" t="s">
-        <v>2388</v>
       </c>
       <c r="U271" s="3"/>
     </row>
     <row r="272" ht="18" spans="1:21">
       <c r="A272" s="8" t="s">
-        <v>2388</v>
+        <v>2390</v>
       </c>
       <c r="B272" s="3" t="s">
         <v>1135</v>
@@ -32039,22 +32057,22 @@
         <v>2014</v>
       </c>
       <c r="D272" s="3" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="E272" s="3" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="F272" s="3" t="s">
-        <v>1151</v>
+        <v>2391</v>
       </c>
       <c r="G272" s="3" t="s">
-        <v>2389</v>
+        <v>2392</v>
       </c>
       <c r="H272" s="3" t="s">
-        <v>2392</v>
+        <v>2395</v>
       </c>
       <c r="I272" s="3" t="s">
-        <v>2392</v>
+        <v>2395</v>
       </c>
       <c r="J272" s="3" t="s">
         <v>31</v>
@@ -32084,17 +32102,14 @@
         <v>31</v>
       </c>
       <c r="S272" s="3" t="s">
-        <v>2393</v>
+        <v>2396</v>
       </c>
       <c r="T272" s="3" t="s">
-        <v>2388</v>
+        <v>2390</v>
       </c>
       <c r="U272" s="3"/>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:U272" etc:filterBottomFollowUsedRange="0">
-    <extLst/>
-  </autoFilter>
   <conditionalFormatting sqref="A120">
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
